--- a/Threagile_fullrun/risks.xlsx
+++ b/Threagile_fullrun/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Severity</t>
   </si>
@@ -205,6 +205,30 @@
     <t>Unlikely</t>
   </si>
   <si>
+    <t>Spoofing</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>CWE-287</t>
+  </si>
+  <si>
+    <t>Missing Identity Store</t>
+  </si>
+  <si>
+    <t>Missing Identity Store in the threat model (referencing asset S3 as an example)</t>
+  </si>
+  <si>
+    <t>Identity Store</t>
+  </si>
+  <si>
+    <t>Include an identity store in the model if the application has a login.</t>
+  </si>
+  <si>
+    <t>missing-identity-store@S3</t>
+  </si>
+  <si>
     <t>Elevation of Privilege</t>
   </si>
   <si>
@@ -247,9 +271,6 @@
     <t>Information Disclosure</t>
   </si>
   <si>
-    <t>Architecture</t>
-  </si>
-  <si>
     <t>CWE-522</t>
   </si>
   <si>
@@ -379,6 +400,42 @@
     <t>unchecked-deployment@S5</t>
   </si>
   <si>
+    <t>Unnecessary Communication Link</t>
+  </si>
+  <si>
+    <t>WC1-to-S3</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled WC1-to-S3 at technical asset WC1</t>
+  </si>
+  <si>
+    <t>Attack Surface Reduction</t>
+  </si>
+  <si>
+    <t>Try to avoid using technical communication links that do not send or receive anything.</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@WC1&gt;wc1-to-s3@WC1</t>
+  </si>
+  <si>
+    <t>WC2-to-S3</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled WC2-to-S3 at technical asset WC2</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@WC2&gt;wc2-to-s3@WC2</t>
+  </si>
+  <si>
+    <t>WC3-to-S3</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled WC3-to-S3 at technical asset WC3</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@WC3&gt;wc3-to-s3@WC3</t>
+  </si>
+  <si>
     <t>Unnecessary Technical Asset</t>
   </si>
   <si>
@@ -388,9 +445,6 @@
     <t>Unnecessary Technical Asset named C2</t>
   </si>
   <si>
-    <t>Attack Surface Reduction</t>
-  </si>
-  <si>
     <t>Try to avoid using technical assets that do not process or store anything.</t>
   </si>
   <si>
@@ -517,12 +571,6 @@
     <t>unnecessary-technical-asset@S2</t>
   </si>
   <si>
-    <t>Unnecessary Technical Asset named S3</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@S3</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named S4</t>
   </si>
   <si>
@@ -553,31 +601,37 @@
     <t>unnecessary-technical-asset@T2</t>
   </si>
   <si>
-    <t>Unnecessary Technical Asset named WC1</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@WC1</t>
-  </si>
-  <si>
-    <t>Unnecessary Technical Asset named WC2</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@WC2</t>
-  </si>
-  <si>
-    <t>Unnecessary Technical Asset named WC3</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@WC3</t>
+    <t>Wrong Communication Link Content</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC1 regarding communication link WC1-to-S3</t>
+  </si>
+  <si>
+    <t>Model Consistency</t>
+  </si>
+  <si>
+    <t>Try to model the correct readonly flag and/or data sent/received of communication links. Also try to use  communication link types matching the target technology/machine types.</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@WC1@WC1&gt;wc1-to-s3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC2 regarding communication link WC2-to-S3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@WC2@WC2&gt;wc2-to-s3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC3 regarding communication link WC3-to-S3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@WC3@WC3&gt;wc3-to-s3</t>
   </si>
   <si>
     <t>Wrong Trust Boundary Content</t>
   </si>
   <si>
     <t>Wrong Trust Boundary Content (non-container asset inside container trust boundary) at DC2</t>
-  </si>
-  <si>
-    <t>Model Consistency</t>
   </si>
   <si>
     <t>Try to model the correct types of trust boundaries and data assets.</t>
@@ -1466,7 +1520,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>45</v>
@@ -1667,22 +1721,22 @@
         <v>63</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="18">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>67</v>
@@ -1718,19 +1772,19 @@
         <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>28</v>
@@ -1739,19 +1793,19 @@
         <v>52</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>34</v>
@@ -1762,50 +1816,50 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="F12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="18">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>34</v>
@@ -1816,50 +1870,50 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="18">
+        <v>100</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="M13" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="18">
-        <v>52</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="N13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>34</v>
@@ -1877,22 +1931,22 @@
         <v>62</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>28</v>
@@ -1901,16 +1955,16 @@
         <v>52</v>
       </c>
       <c r="K14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="M14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="N14" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="O14" s="20" t="s">
         <v>91</v>
@@ -1931,22 +1985,22 @@
         <v>62</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>28</v>
@@ -1955,19 +2009,19 @@
         <v>52</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>34</v>
@@ -1985,43 +2039,43 @@
         <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="18">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>34</v>
@@ -2042,40 +2096,40 @@
         <v>22</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="18">
+        <v>34</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="18">
-        <v>40</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="N17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="10" t="s">
         <v>34</v>
@@ -2096,19 +2150,19 @@
         <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>28</v>
@@ -2117,19 +2171,19 @@
         <v>40</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P18" s="10" t="s">
         <v>34</v>
@@ -2150,40 +2204,40 @@
         <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="18">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>34</v>
@@ -2204,40 +2258,40 @@
         <v>22</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="18">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>34</v>
@@ -2258,19 +2312,19 @@
         <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>28</v>
@@ -2279,19 +2333,19 @@
         <v>33</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P21" s="10" t="s">
         <v>34</v>
@@ -2302,44 +2356,44 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="F22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="18">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>32</v>
@@ -2366,10 +2420,10 @@
         <v>53</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>116</v>
@@ -2378,7 +2432,7 @@
         <v>117</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>28</v>
@@ -2387,19 +2441,19 @@
         <v>14</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>34</v>
@@ -2420,40 +2474,40 @@
         <v>53</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>34</v>
@@ -2474,40 +2528,40 @@
         <v>53</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="J25" s="18">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>34</v>
@@ -2528,40 +2582,40 @@
         <v>53</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="J26" s="18">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>34</v>
@@ -2582,40 +2636,40 @@
         <v>53</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="18">
+        <v>33</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="18">
-        <v>3</v>
-      </c>
-      <c r="K27" s="19" t="s">
+      <c r="M27" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>125</v>
-      </c>
       <c r="N27" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>34</v>
@@ -2636,40 +2690,40 @@
         <v>53</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>34</v>
@@ -2690,40 +2744,40 @@
         <v>53</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="18">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>34</v>
@@ -2744,40 +2798,40 @@
         <v>53</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="18">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>34</v>
@@ -2798,40 +2852,40 @@
         <v>53</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="18">
+        <v>3</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="18">
-        <v>7</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>125</v>
-      </c>
       <c r="N31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>34</v>
@@ -2852,40 +2906,40 @@
         <v>53</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>34</v>
@@ -2906,40 +2960,40 @@
         <v>53</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>34</v>
@@ -2960,40 +3014,40 @@
         <v>53</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>34</v>
@@ -3014,40 +3068,40 @@
         <v>53</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>34</v>
@@ -3068,40 +3122,40 @@
         <v>53</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="18">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>34</v>
@@ -3122,40 +3176,40 @@
         <v>53</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="P37" s="10" t="s">
         <v>34</v>
@@ -3176,19 +3230,19 @@
         <v>53</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>28</v>
@@ -3197,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>34</v>
@@ -3230,40 +3284,40 @@
         <v>53</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J39" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P39" s="10" t="s">
         <v>34</v>
@@ -3284,40 +3338,40 @@
         <v>53</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J40" s="18">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="P40" s="10" t="s">
         <v>34</v>
@@ -3338,19 +3392,19 @@
         <v>53</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>28</v>
@@ -3359,19 +3413,19 @@
         <v>5</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>34</v>
@@ -3392,40 +3446,40 @@
         <v>53</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J42" s="18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>34</v>
@@ -3446,40 +3500,40 @@
         <v>53</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J43" s="18">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>34</v>
@@ -3500,40 +3554,40 @@
         <v>53</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J44" s="18">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>34</v>
@@ -3554,40 +3608,40 @@
         <v>53</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J45" s="18">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N45" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>34</v>
@@ -3608,40 +3662,40 @@
         <v>53</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J46" s="18">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N46" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>34</v>
@@ -3662,40 +3716,40 @@
         <v>53</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J47" s="18">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P47" s="10" t="s">
         <v>34</v>
@@ -3716,40 +3770,40 @@
         <v>53</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J48" s="18">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N48" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>34</v>
@@ -3770,40 +3824,40 @@
         <v>53</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="J49" s="18">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="P49" s="10" t="s">
         <v>34</v>
@@ -3824,40 +3878,40 @@
         <v>53</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="J50" s="18">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="N50" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P50" s="10" t="s">
         <v>34</v>
@@ -3878,40 +3932,40 @@
         <v>53</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="J51" s="18">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="N51" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="P51" s="10" t="s">
         <v>34</v>
@@ -3932,40 +3986,40 @@
         <v>53</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J52" s="18">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="N52" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="P52" s="10" t="s">
         <v>34</v>
@@ -3986,40 +4040,40 @@
         <v>53</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J53" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="P53" s="10" t="s">
         <v>34</v>
@@ -4040,40 +4094,40 @@
         <v>53</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J54" s="18">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -4094,40 +4148,40 @@
         <v>53</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J55" s="18">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="N55" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -4148,40 +4202,40 @@
         <v>53</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J56" s="18">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="N56" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -4190,6 +4244,168 @@
       <c r="R56" s="17"/>
       <c r="S56" s="17"/>
       <c r="T56" s="16"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="18">
+        <v>1</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N57" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="16"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="18">
+        <v>52</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L58" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="16"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="18">
+        <v>52</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M59" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/risks.xlsx
+++ b/Threagile_fullrun/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t>Severity</t>
   </si>
@@ -175,6 +175,153 @@
     <t>cross-site-scripting@WC3</t>
   </si>
   <si>
+    <t>Elevation of Privilege</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>CWE-306</t>
+  </si>
+  <si>
+    <t>Missing Authentication</t>
+  </si>
+  <si>
+    <t>FW1</t>
+  </si>
+  <si>
+    <t>C1-to-FW1</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link C1-to-FW1 from C1 to FW1</t>
+  </si>
+  <si>
+    <t>Authentication of Incoming Requests</t>
+  </si>
+  <si>
+    <t>Apply an authentication method to the technical asset. To protect highly sensitive data consider the use of two-factor authentication for human users.</t>
+  </si>
+  <si>
+    <t>missing-authentication@C1&gt;c1-to-fw1@C1@FW1</t>
+  </si>
+  <si>
+    <t>FW3</t>
+  </si>
+  <si>
+    <t>FW2-to-FW3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW2-to-FW3 from FW2 to FW3</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW2&gt;fw2-to-fw3@FW2@FW3</t>
+  </si>
+  <si>
+    <t>FW4</t>
+  </si>
+  <si>
+    <t>FW3-to-FW4</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW3-to-FW4 from FW3 to FW4</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW3&gt;fw3-to-fw4@FW3@FW4</t>
+  </si>
+  <si>
+    <t>FW3-to-WC1</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW3-to-WC1 from FW3 to WC1</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW3&gt;fw3-to-wc1@FW3@WC1</t>
+  </si>
+  <si>
+    <t>FW3-to-WC2</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW3-to-WC2 from FW3 to WC2</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW3&gt;fw3-to-wc2@FW3@WC2</t>
+  </si>
+  <si>
+    <t>FW3-to-WC3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW3-to-WC3 from FW3 to WC3</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW3&gt;fw3-to-wc3@FW3@WC3</t>
+  </si>
+  <si>
+    <t>FW4-to-FW3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW4-to-FW3 from FW4 to FW3</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW4&gt;fw4-to-fw3@FW4@FW3</t>
+  </si>
+  <si>
+    <t>FW4-to-S3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW4-to-S3 from FW4 to S3</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW4&gt;fw4-to-s3@FW4@S3</t>
+  </si>
+  <si>
+    <t>R1-to-FW4</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link R1-to-FW4 from R1 to FW4</t>
+  </si>
+  <si>
+    <t>missing-authentication@R1&gt;r1-to-fw4@R1@FW4</t>
+  </si>
+  <si>
+    <t>FW2</t>
+  </si>
+  <si>
+    <t>S0-to-FW2</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link S0-to-FW2 from S0 to FW2</t>
+  </si>
+  <si>
+    <t>missing-authentication@S0&gt;s0-to-fw2@S0@FW2</t>
+  </si>
+  <si>
+    <t>WC1-to-FW3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link WC1-to-FW3 from WC1 to FW3</t>
+  </si>
+  <si>
+    <t>missing-authentication@WC1&gt;wc1-to-fw3@WC1@FW3</t>
+  </si>
+  <si>
+    <t>WC2-to-FW3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link WC2-to-FW3 from WC2 to FW3</t>
+  </si>
+  <si>
+    <t>missing-authentication@WC2&gt;wc2-to-fw3@WC2@FW3</t>
+  </si>
+  <si>
+    <t>WC3-to-FW3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link WC3-to-FW3 from WC3 to FW3</t>
+  </si>
+  <si>
+    <t>missing-authentication@WC3&gt;wc3-to-fw3@WC3@FW3</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
@@ -205,33 +352,6 @@
     <t>Unlikely</t>
   </si>
   <si>
-    <t>Spoofing</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>CWE-287</t>
-  </si>
-  <si>
-    <t>Missing Identity Store</t>
-  </si>
-  <si>
-    <t>Missing Identity Store in the threat model (referencing asset S3 as an example)</t>
-  </si>
-  <si>
-    <t>Identity Store</t>
-  </si>
-  <si>
-    <t>Include an identity store in the model if the application has a login.</t>
-  </si>
-  <si>
-    <t>missing-identity-store@S3</t>
-  </si>
-  <si>
-    <t>Elevation of Privilege</t>
-  </si>
-  <si>
     <t>CWE-1008</t>
   </si>
   <si>
@@ -337,6 +457,12 @@
     <t>unencrypted-asset@DC2</t>
   </si>
   <si>
+    <t>Unencrypted Technical Asset named FW4</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@FW4</t>
+  </si>
+  <si>
     <t>OS1</t>
   </si>
   <si>
@@ -385,6 +511,159 @@
     <t>accidental-secret-leak@S5</t>
   </si>
   <si>
+    <t>Denial of Service</t>
+  </si>
+  <si>
+    <t>CWE-400</t>
+  </si>
+  <si>
+    <t>DoS-risky Access Across Trust-Boundary</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW2 by S0 via S0-to-FW2</t>
+  </si>
+  <si>
+    <t>Anti-DoS Measures</t>
+  </si>
+  <si>
+    <t>Apply anti-DoS techniques like throttling and/or per-client load blocking with quotas. Also for maintenance access routes consider applying a VPN instead of public reachable interfaces. Generally applying redundancy on the targeted technical asset reduces the risk of DoS.</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW2@S0@S0&gt;s0-to-fw2</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC1 via WC1-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC1@WC1&gt;wc1-to-fw3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC2 via WC2-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC2@WC2&gt;wc2-to-fw3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC3 via WC3-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC3@WC3&gt;wc3-to-fw3</t>
+  </si>
+  <si>
+    <t>Incomplete Model</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link C1-to-FW1 at technical asset C1</t>
+  </si>
+  <si>
+    <t>Threat Modeling Completeness</t>
+  </si>
+  <si>
+    <t>Try to find out what technology or protocol is used instead of specifying that it is unknown.</t>
+  </si>
+  <si>
+    <t>incomplete-model@C1&gt;c1-to-fw1@C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C2-to-R1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link C2-to-R1 at technical asset C2</t>
+  </si>
+  <si>
+    <t>incomplete-model@C2&gt;c2-to-r1@C2</t>
+  </si>
+  <si>
+    <t>FW1-to-S0</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW1-to-S0 at technical asset FW1</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW1&gt;fw1-to-s0@FW1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW2-to-FW3 at technical asset FW2</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW2&gt;fw2-to-fw3@FW2</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW3-to-FW4 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-fw4@FW3</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW3-to-WC1 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc1@FW3</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW3-to-WC2 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc2@FW3</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW3-to-WC3 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc3@FW3</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW4-to-FW3 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW4&gt;fw4-to-fw3@FW4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW4-to-S3 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW4&gt;fw4-to-s3@FW4</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link R1-to-FW4 at technical asset R1</t>
+  </si>
+  <si>
+    <t>incomplete-model@R1&gt;r1-to-fw4@R1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S0-to-FW2 at technical asset S0</t>
+  </si>
+  <si>
+    <t>incomplete-model@S0&gt;s0-to-fw2@S0</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link WC1-to-FW3 at technical asset WC1</t>
+  </si>
+  <si>
+    <t>incomplete-model@WC1&gt;wc1-to-fw3@WC1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link WC2-to-FW3 at technical asset WC2</t>
+  </si>
+  <si>
+    <t>incomplete-model@WC2&gt;wc2-to-fw3@WC2</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link WC3-to-FW3 at technical asset WC3</t>
+  </si>
+  <si>
+    <t>incomplete-model@WC3&gt;wc3-to-fw3@WC3</t>
+  </si>
+  <si>
     <t>CWE-1127</t>
   </si>
   <si>
@@ -403,10 +682,7 @@
     <t>Unnecessary Communication Link</t>
   </si>
   <si>
-    <t>WC1-to-S3</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled WC1-to-S3 at technical asset WC1</t>
+    <t>Unnecessary Communication Link titled C1-to-FW1 at technical asset C1</t>
   </si>
   <si>
     <t>Attack Surface Reduction</t>
@@ -415,39 +691,108 @@
     <t>Try to avoid using technical communication links that do not send or receive anything.</t>
   </si>
   <si>
-    <t>unnecessary-communication-link@WC1&gt;wc1-to-s3@WC1</t>
-  </si>
-  <si>
-    <t>WC2-to-S3</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled WC2-to-S3 at technical asset WC2</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@WC2&gt;wc2-to-s3@WC2</t>
-  </si>
-  <si>
-    <t>WC3-to-S3</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled WC3-to-S3 at technical asset WC3</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@WC3&gt;wc3-to-s3@WC3</t>
+    <t>unnecessary-communication-link@C1&gt;c1-to-fw1@C1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled C2-to-R1 at technical asset C2</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@C2&gt;c2-to-r1@C2</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW1-to-S0 at technical asset FW1</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW1&gt;fw1-to-s0@FW1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW2-to-FW3 at technical asset FW2</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW2&gt;fw2-to-fw3@FW2</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW3-to-FW4 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW3&gt;fw3-to-fw4@FW3</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW3-to-WC1 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW3&gt;fw3-to-wc1@FW3</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW3-to-WC2 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW3&gt;fw3-to-wc2@FW3</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW3-to-WC3 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW3&gt;fw3-to-wc3@FW3</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW4-to-FW3 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW4&gt;fw4-to-fw3@FW4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW4-to-S3 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW4&gt;fw4-to-s3@FW4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled R1-to-FW4 at technical asset R1</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@R1&gt;r1-to-fw4@R1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled S0-to-FW2 at technical asset S0</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S0&gt;s0-to-fw2@S0</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled WC1-to-FW3 at technical asset WC1</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@WC1&gt;wc1-to-fw3@WC1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled WC2-to-FW3 at technical asset WC2</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@WC2&gt;wc2-to-fw3@WC2</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled WC3-to-FW3 at technical asset WC3</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@WC3&gt;wc3-to-fw3@WC3</t>
   </si>
   <si>
     <t>Unnecessary Technical Asset</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>Unnecessary Technical Asset named C1</t>
+  </si>
+  <si>
+    <t>Try to avoid using technical assets that do not process or store anything.</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@C1</t>
   </si>
   <si>
     <t>Unnecessary Technical Asset named C2</t>
   </si>
   <si>
-    <t>Try to avoid using technical assets that do not process or store anything.</t>
-  </si>
-  <si>
     <t>unnecessary-technical-asset@C2</t>
   </si>
   <si>
@@ -472,36 +817,24 @@
     <t>unnecessary-technical-asset@ES1</t>
   </si>
   <si>
-    <t>FW1</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named FW1</t>
   </si>
   <si>
     <t>unnecessary-technical-asset@FW1</t>
   </si>
   <si>
-    <t>FW2</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named FW2</t>
   </si>
   <si>
     <t>unnecessary-technical-asset@FW2</t>
   </si>
   <si>
-    <t>FW3</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named FW3</t>
   </si>
   <si>
     <t>unnecessary-technical-asset@FW3</t>
   </si>
   <si>
-    <t>FW4</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named FW4</t>
   </si>
   <si>
@@ -514,9 +847,6 @@
     <t>unnecessary-technical-asset@OS1</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named R1</t>
   </si>
   <si>
@@ -604,7 +934,7 @@
     <t>Wrong Communication Link Content</t>
   </si>
   <si>
-    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC1 regarding communication link WC1-to-S3</t>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at C1 regarding communication link C1-to-FW1</t>
   </si>
   <si>
     <t>Model Consistency</t>
@@ -613,19 +943,91 @@
     <t>Try to model the correct readonly flag and/or data sent/received of communication links. Also try to use  communication link types matching the target technology/machine types.</t>
   </si>
   <si>
-    <t>wrong-communication-link-content@WC1@WC1&gt;wc1-to-s3</t>
-  </si>
-  <si>
-    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC2 regarding communication link WC2-to-S3</t>
-  </si>
-  <si>
-    <t>wrong-communication-link-content@WC2@WC2&gt;wc2-to-s3</t>
-  </si>
-  <si>
-    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC3 regarding communication link WC3-to-S3</t>
-  </si>
-  <si>
-    <t>wrong-communication-link-content@WC3@WC3&gt;wc3-to-s3</t>
+    <t>wrong-communication-link-content@C1@C1&gt;c1-to-fw1</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at C2 regarding communication link C2-to-R1</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@C2@C2&gt;c2-to-r1</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW1 regarding communication link FW1-to-S0</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW1@FW1&gt;fw1-to-s0</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW2 regarding communication link FW2-to-FW3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW2@FW2&gt;fw2-to-fw3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW3 regarding communication link FW3-to-FW4</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW3@FW3&gt;fw3-to-fw4</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW3 regarding communication link FW3-to-WC1</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW3@FW3&gt;fw3-to-wc1</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW3 regarding communication link FW3-to-WC2</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW3@FW3&gt;fw3-to-wc2</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW3 regarding communication link FW3-to-WC3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW3@FW3&gt;fw3-to-wc3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW4 regarding communication link FW4-to-FW3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW4@FW4&gt;fw4-to-fw3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW4 regarding communication link FW4-to-S3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW4@FW4&gt;fw4-to-s3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at R1 regarding communication link R1-to-FW4</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@R1@R1&gt;r1-to-fw4</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S0 regarding communication link S0-to-FW2</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S0@S0&gt;s0-to-fw2</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC1 regarding communication link WC1-to-FW3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@WC1@WC1&gt;wc1-to-fw3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC2 regarding communication link WC2-to-FW3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@WC2@WC2&gt;wc2-to-fw3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC3 regarding communication link WC3-to-FW3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@WC3@WC3&gt;wc3-to-fw3</t>
   </si>
   <si>
     <t>Wrong Trust Boundary Content</t>
@@ -1520,7 +1922,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>45</v>
@@ -1654,50 +2056,50 @@
       <c r="T8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>28</v>
+      <c r="I9" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="J9" s="18">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="10" t="s">
         <v>34</v>
@@ -1708,50 +2110,50 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="J10" s="18">
+        <v>6</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="18">
-        <v>38</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>34</v>
@@ -1762,50 +2164,50 @@
       <c r="T10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>28</v>
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="J11" s="18">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>34</v>
@@ -1816,50 +2218,50 @@
       <c r="T11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="J12" s="18">
+        <v>27</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="18">
-        <v>52</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>34</v>
@@ -1870,50 +2272,50 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>28</v>
+      <c r="E13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="J13" s="18">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>34</v>
@@ -1924,50 +2326,50 @@
       <c r="T13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>28</v>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="J14" s="18">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>34</v>
@@ -1978,50 +2380,50 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>28</v>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="J15" s="18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>34</v>
@@ -2032,50 +2434,50 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="18">
+        <v>38</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="18">
-        <v>52</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="L16" s="22" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>34</v>
@@ -2086,50 +2488,50 @@
       <c r="T16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>28</v>
+      <c r="D17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="J17" s="18">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P17" s="10" t="s">
         <v>34</v>
@@ -2140,50 +2542,50 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>28</v>
+      <c r="D18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="J18" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="P18" s="10" t="s">
         <v>34</v>
@@ -2194,50 +2596,50 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="18">
+        <v>6</v>
+      </c>
+      <c r="K19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="18">
-        <v>40</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>108</v>
-      </c>
       <c r="L19" s="22" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>34</v>
@@ -2248,50 +2650,50 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>28</v>
+      <c r="D20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="J20" s="18">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>34</v>
@@ -2302,50 +2704,50 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>28</v>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="J21" s="18">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="P21" s="10" t="s">
         <v>34</v>
@@ -2360,46 +2762,46 @@
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="18">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P22" s="10" t="s">
         <v>34</v>
@@ -2410,50 +2812,50 @@
       <c r="T22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="18">
+        <v>52</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="M23" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="N23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="18">
-        <v>14</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>34</v>
@@ -2464,50 +2866,50 @@
       <c r="T23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="9" t="s">
+      <c r="E24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="18">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>34</v>
@@ -2519,49 +2921,49 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="J25" s="18">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>34</v>
@@ -2572,50 +2974,50 @@
       <c r="T25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="18">
+        <v>52</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="18">
-        <v>33</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L26" s="22" t="s">
+      <c r="M26" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="20" t="s">
         <v>131</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>34</v>
@@ -2626,50 +3028,50 @@
       <c r="T26" s="16"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="9" t="s">
+      <c r="A27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="18">
+        <v>52</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="M27" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="J27" s="18">
-        <v>33</v>
-      </c>
-      <c r="K27" s="19" t="s">
+      <c r="N27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>139</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>34</v>
@@ -2680,50 +3082,50 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="A28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="18">
+        <v>52</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="18">
-        <v>1</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>34</v>
@@ -2734,50 +3136,50 @@
       <c r="T28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="9" t="s">
+      <c r="A29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="18">
         <v>34</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M29" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>34</v>
@@ -2788,50 +3190,50 @@
       <c r="T29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="9" t="s">
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="18">
         <v>40</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>34</v>
@@ -2842,50 +3244,50 @@
       <c r="T30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="9" t="s">
+      <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>34</v>
@@ -2896,50 +3298,50 @@
       <c r="T31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="18">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>34</v>
@@ -2950,50 +3352,50 @@
       <c r="T32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I33" s="9" t="s">
+      <c r="A33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="18">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>34</v>
@@ -3004,50 +3406,50 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I34" s="9" t="s">
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="18">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>34</v>
@@ -3058,50 +3460,50 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" s="9" t="s">
+      <c r="A35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="18">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>34</v>
@@ -3113,49 +3515,49 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="18">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K36" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>165</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>34</v>
@@ -3167,49 +3569,49 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="J37" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P37" s="10" t="s">
         <v>34</v>
@@ -3221,49 +3623,49 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="H38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="18">
+        <v>6</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L38" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="18">
-        <v>1</v>
-      </c>
-      <c r="K38" s="19" t="s">
+      <c r="M38" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="N38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>34</v>
@@ -3275,49 +3677,49 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J39" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P39" s="10" t="s">
         <v>34</v>
@@ -3329,43 +3731,43 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="J40" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K40" s="19" t="s">
         <v>176</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>32</v>
@@ -3383,49 +3785,49 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J41" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>34</v>
@@ -3437,49 +3839,49 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="J42" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>34</v>
@@ -3491,49 +3893,49 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J43" s="18">
+        <v>4</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M43" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="18">
-        <v>3</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="M43" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="N43" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>34</v>
@@ -3545,49 +3947,49 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="J44" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>34</v>
@@ -3599,49 +4001,49 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="J45" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N45" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>34</v>
@@ -3653,49 +4055,49 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="J46" s="18">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N46" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>34</v>
@@ -3707,49 +4109,49 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H47" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="J47" s="18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P47" s="10" t="s">
         <v>34</v>
@@ -3761,49 +4163,49 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J48" s="18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="N48" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>34</v>
@@ -3815,49 +4217,49 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="J49" s="18">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P49" s="10" t="s">
         <v>34</v>
@@ -3869,49 +4271,49 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="J50" s="18">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="N50" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P50" s="10" t="s">
         <v>34</v>
@@ -3923,49 +4325,49 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="J51" s="18">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="N51" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P51" s="10" t="s">
         <v>34</v>
@@ -3977,49 +4379,49 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="J52" s="18">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="N52" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P52" s="10" t="s">
         <v>34</v>
@@ -4031,49 +4433,49 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="J53" s="18">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P53" s="10" t="s">
         <v>34</v>
@@ -4085,49 +4487,49 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J54" s="18">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -4139,49 +4541,49 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="J55" s="18">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="N55" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -4193,49 +4595,49 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J56" s="18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="N56" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -4247,49 +4649,49 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="E57" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J57" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="N57" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>34</v>
@@ -4301,49 +4703,49 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="E58" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="J58" s="18">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>34</v>
@@ -4355,49 +4757,49 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="E59" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="J59" s="18">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P59" s="10" t="s">
         <v>34</v>
@@ -4406,6 +4808,3084 @@
       <c r="R59" s="17"/>
       <c r="S59" s="17"/>
       <c r="T59" s="16"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" s="18">
+        <v>4</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M60" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="16"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" s="18">
+        <v>6</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="16"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J62" s="18">
+        <v>6</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M62" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N62" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="16"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" s="18">
+        <v>6</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N63" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="16"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="18">
+        <v>6</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M64" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="16"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65" s="18">
+        <v>10</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M65" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="16"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66" s="18">
+        <v>10</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="16"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J67" s="18">
+        <v>2</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N67" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="16"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J68" s="18">
+        <v>5</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M68" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N68" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="16"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J69" s="18">
+        <v>27</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M69" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N69" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="16"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J70" s="18">
+        <v>33</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="16"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" s="18">
+        <v>33</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="P71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="16"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="18">
+        <v>0</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="16"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="18">
+        <v>0</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N73" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O73" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="P73" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="16"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" s="18">
+        <v>34</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M74" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="P74" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="16"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="18">
+        <v>40</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M75" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N75" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="P75" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="16"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="18">
+        <v>3</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N76" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="16"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77" s="18">
+        <v>4</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="L77" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M77" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N77" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="P77" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="16"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="18">
+        <v>4</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M78" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O78" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="P78" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="16"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="18">
+        <v>6</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M79" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N79" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="P79" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="16"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="18">
+        <v>10</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M80" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N80" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="P80" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="16"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="18">
+        <v>40</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M81" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N81" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="P81" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="16"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" s="18">
+        <v>2</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="L82" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M82" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="P82" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="16"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J83" s="18">
+        <v>1</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M83" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N83" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="P83" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="16"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="18">
+        <v>1</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M84" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N84" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="P84" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="16"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="18">
+        <v>1</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M85" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N85" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O85" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="P85" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="16"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="18">
+        <v>5</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M86" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N86" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="P86" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="16"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="18">
+        <v>1</v>
+      </c>
+      <c r="K87" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M87" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N87" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="P87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="16"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" s="18">
+        <v>3</v>
+      </c>
+      <c r="K88" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M88" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N88" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="P88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="16"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="18">
+        <v>5</v>
+      </c>
+      <c r="K89" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M89" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N89" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O89" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="P89" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="16"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J90" s="18">
+        <v>14</v>
+      </c>
+      <c r="K90" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M90" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N90" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O90" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="P90" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="16"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" s="18">
+        <v>100</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M91" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N91" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="P91" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="16"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="18">
+        <v>52</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="L92" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M92" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O92" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="P92" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="16"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" s="18">
+        <v>52</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="L93" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M93" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N93" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O93" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="P93" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="16"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J94" s="18">
+        <v>0</v>
+      </c>
+      <c r="K94" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="L94" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M94" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="P94" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="16"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J95" s="18">
+        <v>0</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="L95" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M95" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N95" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="P95" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="16"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J96" s="18">
+        <v>4</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="L96" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M96" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N96" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="P96" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="16"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J97" s="18">
+        <v>4</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="L97" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M97" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N97" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O97" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="P97" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="16"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J98" s="18">
+        <v>6</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="L98" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M98" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N98" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O98" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="P98" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="16"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J99" s="18">
+        <v>6</v>
+      </c>
+      <c r="K99" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="L99" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M99" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N99" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="P99" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="16"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J100" s="18">
+        <v>6</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="L100" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M100" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N100" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="P100" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="16"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J101" s="18">
+        <v>6</v>
+      </c>
+      <c r="K101" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="L101" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M101" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N101" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O101" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="P101" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="16"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J102" s="18">
+        <v>10</v>
+      </c>
+      <c r="K102" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="L102" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M102" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N102" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O102" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="P102" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="16"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J103" s="18">
+        <v>10</v>
+      </c>
+      <c r="K103" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="L103" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M103" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N103" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O103" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="P103" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="16"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J104" s="18">
+        <v>2</v>
+      </c>
+      <c r="K104" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="L104" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M104" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N104" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O104" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="P104" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="16"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J105" s="18">
+        <v>5</v>
+      </c>
+      <c r="K105" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="L105" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M105" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N105" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O105" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="P105" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="16"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J106" s="18">
+        <v>27</v>
+      </c>
+      <c r="K106" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="L106" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M106" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N106" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O106" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="P106" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="16"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J107" s="18">
+        <v>33</v>
+      </c>
+      <c r="K107" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="L107" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M107" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N107" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O107" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="P107" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="16"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J108" s="18">
+        <v>33</v>
+      </c>
+      <c r="K108" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="L108" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M108" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="N108" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O108" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="P108" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="16"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" s="18">
+        <v>40</v>
+      </c>
+      <c r="K109" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="L109" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M109" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N109" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O109" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="P109" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="16"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" s="18">
+        <v>3</v>
+      </c>
+      <c r="K110" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="L110" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M110" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N110" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O110" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="P110" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="16"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J111" s="18">
+        <v>40</v>
+      </c>
+      <c r="K111" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="L111" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M111" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N111" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O111" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="P111" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="16"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" s="18">
+        <v>1</v>
+      </c>
+      <c r="K112" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="L112" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M112" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N112" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O112" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="P112" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="16"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" s="18">
+        <v>1</v>
+      </c>
+      <c r="K113" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="L113" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M113" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N113" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O113" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="P113" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="16"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" s="18">
+        <v>1</v>
+      </c>
+      <c r="K114" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="L114" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M114" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N114" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O114" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="P114" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="16"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" s="18">
+        <v>52</v>
+      </c>
+      <c r="K115" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="L115" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M115" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N115" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O115" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="P115" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="16"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" s="18">
+        <v>52</v>
+      </c>
+      <c r="K116" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="L116" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="M116" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="N116" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O116" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="P116" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/risks.xlsx
+++ b/Threagile_fullrun/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t>Severity</t>
   </si>
@@ -217,501 +217,573 @@
     <t>missing-authentication@FW2&gt;fw2-to-fw3@FW2@FW3</t>
   </si>
   <si>
+    <t>FW3-to-WC1</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW3-to-WC1 from FW3 to WC1</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW3&gt;fw3-to-wc1@FW3@WC1</t>
+  </si>
+  <si>
+    <t>FW3-to-WC2</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW3-to-WC2 from FW3 to WC2</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW3&gt;fw3-to-wc2@FW3@WC2</t>
+  </si>
+  <si>
+    <t>FW3-to-WC3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW3-to-WC3 from FW3 to WC3</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW3&gt;fw3-to-wc3@FW3@WC3</t>
+  </si>
+  <si>
+    <t>FW4-to-FW3</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link FW4-to-FW3 from FW4 to FW3</t>
+  </si>
+  <si>
+    <t>missing-authentication@FW4&gt;fw4-to-fw3@FW4@FW3</t>
+  </si>
+  <si>
     <t>FW4</t>
   </si>
   <si>
+    <t>R1-to-FW4</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link R1-to-FW4 from R1 to FW4</t>
+  </si>
+  <si>
+    <t>missing-authentication@R1&gt;r1-to-fw4@R1@FW4</t>
+  </si>
+  <si>
+    <t>TI1</t>
+  </si>
+  <si>
+    <t>R4-to-TI1</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link R4-to-TI1 from R4 to TI1</t>
+  </si>
+  <si>
+    <t>missing-authentication@R4&gt;r4-to-ti1@R4@TI1</t>
+  </si>
+  <si>
+    <t>TI2</t>
+  </si>
+  <si>
+    <t>R4-to-TI2</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link R4-to-TI2 from R4 to TI2</t>
+  </si>
+  <si>
+    <t>missing-authentication@R4&gt;r4-to-ti2@R4@TI2</t>
+  </si>
+  <si>
+    <t>FW2</t>
+  </si>
+  <si>
+    <t>S0-to-FW2</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link S0-to-FW2 from S0 to FW2</t>
+  </si>
+  <si>
+    <t>missing-authentication@S0&gt;s0-to-fw2@S0@FW2</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>CWE-16</t>
+  </si>
+  <si>
+    <t>Missing Hardening</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at S6</t>
+  </si>
+  <si>
+    <t>System Hardening</t>
+  </si>
+  <si>
+    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
+  </si>
+  <si>
+    <t>missing-hardening@S6</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>CWE-1008</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect TI1 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@TI1</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect TI2 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@TI2</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect S6 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@S6</t>
+  </si>
+  <si>
+    <t>Information Disclosure</t>
+  </si>
+  <si>
+    <t>CWE-522</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage) in the threat model (referencing asset TI1 as an example)</t>
+  </si>
+  <si>
+    <t>Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
+  </si>
+  <si>
+    <t>Is a Vault (Secret Storage) in place?</t>
+  </si>
+  <si>
+    <t>missing-vault@TI1</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>CWE-311</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Assets</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named TI1</t>
+  </si>
+  <si>
+    <t>Encryption of Technical Asset</t>
+  </si>
+  <si>
+    <t>Apply encryption to the technical asset.</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@TI1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named TI2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@TI2</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named DC1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@DC1</t>
+  </si>
+  <si>
+    <t>DC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named DC2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@DC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named FW4</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@FW4</t>
+  </si>
+  <si>
+    <t>OS1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named OS1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@OS1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC3</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC3</t>
+  </si>
+  <si>
+    <t>Very Likely</t>
+  </si>
+  <si>
+    <t>CWE-501</t>
+  </si>
+  <si>
+    <t>Unguarded Access From Internet</t>
+  </si>
+  <si>
+    <t>S4-to-FW4</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of FW4 by S4 via S4-to-FW4</t>
+  </si>
+  <si>
+    <t>Encapsulation of Technical Asset</t>
+  </si>
+  <si>
+    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@FW4@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
+    <t>CWE-200</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at S5</t>
+  </si>
+  <si>
+    <t>Build Pipeline Hardening</t>
+  </si>
+  <si>
+    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@S5</t>
+  </si>
+  <si>
+    <t>Denial of Service</t>
+  </si>
+  <si>
+    <t>CWE-400</t>
+  </si>
+  <si>
+    <t>DoS-risky Access Across Trust-Boundary</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW2 by S0 via S0-to-FW2</t>
+  </si>
+  <si>
+    <t>Anti-DoS Measures</t>
+  </si>
+  <si>
+    <t>Apply anti-DoS techniques like throttling and/or per-client load blocking with quotas. Also for maintenance access routes consider applying a VPN instead of public reachable interfaces. Generally applying redundancy on the targeted technical asset reduces the risk of DoS.</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW2@S0@S0&gt;s0-to-fw2</t>
+  </si>
+  <si>
+    <t>WC1-to-FW3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC1 via WC1-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC1@WC1&gt;wc1-to-fw3</t>
+  </si>
+  <si>
+    <t>WC2-to-FW3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC2 via WC2-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC2@WC2&gt;wc2-to-fw3</t>
+  </si>
+  <si>
+    <t>WC3-to-FW3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC3 via WC3-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC3@WC3&gt;wc3-to-fw3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW4 by S4 via S4-to-FW4</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW4@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
+    <t>Incomplete Model</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link C1-to-FW1 at technical asset C1</t>
+  </si>
+  <si>
+    <t>Threat Modeling Completeness</t>
+  </si>
+  <si>
+    <t>Try to find out what technology or protocol is used instead of specifying that it is unknown.</t>
+  </si>
+  <si>
+    <t>incomplete-model@C1&gt;c1-to-fw1@C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C2-to-R1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link C2-to-R1 at technical asset C2</t>
+  </si>
+  <si>
+    <t>incomplete-model@C2&gt;c2-to-r1@C2</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>ES1-to-R2</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link ES1-to-R2 at technical asset ES1</t>
+  </si>
+  <si>
+    <t>incomplete-model@ES1&gt;es1-to-r2@ES1</t>
+  </si>
+  <si>
+    <t>FW1-to-S0</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW1-to-S0 at technical asset FW1</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW1&gt;fw1-to-s0@FW1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW2-to-FW3 at technical asset FW2</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW2&gt;fw2-to-fw3@FW2</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW3-to-WC1 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc1@FW3</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW3-to-WC2 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc2@FW3</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW3-to-WC3 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc3@FW3</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW4-to-FW3 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW4&gt;fw4-to-fw3@FW4</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link R1-to-FW4 at technical asset R1</t>
+  </si>
+  <si>
+    <t>incomplete-model@R1&gt;r1-to-fw4@R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R2-to-S1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link R2-to-S1 at technical asset R2</t>
+  </si>
+  <si>
+    <t>incomplete-model@R2&gt;r2-to-s1@R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R3-to-R4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link R3-to-R4 at technical asset R3</t>
+  </si>
+  <si>
+    <t>incomplete-model@R3&gt;r3-to-r4@R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link R4-to-TI1 at technical asset R4</t>
+  </si>
+  <si>
+    <t>incomplete-model@R4&gt;r4-to-ti1@R4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link R4-to-TI2 at technical asset R4</t>
+  </si>
+  <si>
+    <t>incomplete-model@R4&gt;r4-to-ti2@R4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S0-to-FW2 at technical asset S0</t>
+  </si>
+  <si>
+    <t>incomplete-model@S0&gt;s0-to-fw2@S0</t>
+  </si>
+  <si>
+    <t>S1-to-R3</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S1-to-R3 at technical asset S1</t>
+  </si>
+  <si>
+    <t>incomplete-model@S1&gt;s1-to-r3@S1</t>
+  </si>
+  <si>
+    <t>CWE-284</t>
+  </si>
+  <si>
+    <t>Missing Identity Propagation</t>
+  </si>
+  <si>
+    <t>FW4-to-S3</t>
+  </si>
+  <si>
+    <t>Missing Enduser Identity Propagation over communication link FW4-to-S3 from FW4 to S3</t>
+  </si>
+  <si>
+    <t>Identity Propagation and Resource-based Authorization</t>
+  </si>
+  <si>
+    <t>When processing requests for endusers if possible authorize in the backend against the propagated identity of the enduser. This can be achieved in passing JWTs or similar tokens and checking them in the backend services. For DevOps usages apply at least a technical-user authorization.</t>
+  </si>
+  <si>
+    <t>missing-identity-propagation@FW4&gt;fw4-to-s3@FW4@S3</t>
+  </si>
+  <si>
+    <t>CWE-1127</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment</t>
+  </si>
+  <si>
+    <t>Unchecked Deployment risk at S5</t>
+  </si>
+  <si>
+    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
+  </si>
+  <si>
+    <t>unchecked-deployment@S5</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled C1-to-FW1 at technical asset C1</t>
+  </si>
+  <si>
+    <t>Attack Surface Reduction</t>
+  </si>
+  <si>
+    <t>Try to avoid using technical communication links that do not send or receive anything.</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@C1&gt;c1-to-fw1@C1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled C2-to-R1 at technical asset C2</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@C2&gt;c2-to-r1@C2</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled ES1-to-R2 at technical asset ES1</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@ES1&gt;es1-to-r2@ES1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW1-to-S0 at technical asset FW1</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW1&gt;fw1-to-s0@FW1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW2-to-FW3 at technical asset FW2</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW2&gt;fw2-to-fw3@FW2</t>
+  </si>
+  <si>
     <t>FW3-to-FW4</t>
   </si>
   <si>
-    <t>Missing Authentication covering communication link FW3-to-FW4 from FW3 to FW4</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW3&gt;fw3-to-fw4@FW3@FW4</t>
-  </si>
-  <si>
-    <t>FW3-to-WC1</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link FW3-to-WC1 from FW3 to WC1</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW3&gt;fw3-to-wc1@FW3@WC1</t>
-  </si>
-  <si>
-    <t>FW3-to-WC2</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link FW3-to-WC2 from FW3 to WC2</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW3&gt;fw3-to-wc2@FW3@WC2</t>
-  </si>
-  <si>
-    <t>FW3-to-WC3</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link FW3-to-WC3 from FW3 to WC3</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW3&gt;fw3-to-wc3@FW3@WC3</t>
-  </si>
-  <si>
-    <t>FW4-to-FW3</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link FW4-to-FW3 from FW4 to FW3</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW4&gt;fw4-to-fw3@FW4@FW3</t>
-  </si>
-  <si>
-    <t>FW4-to-S3</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link FW4-to-S3 from FW4 to S3</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW4&gt;fw4-to-s3@FW4@S3</t>
-  </si>
-  <si>
-    <t>R1-to-FW4</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link R1-to-FW4 from R1 to FW4</t>
-  </si>
-  <si>
-    <t>missing-authentication@R1&gt;r1-to-fw4@R1@FW4</t>
-  </si>
-  <si>
-    <t>FW2</t>
-  </si>
-  <si>
-    <t>S0-to-FW2</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link S0-to-FW2 from S0 to FW2</t>
-  </si>
-  <si>
-    <t>missing-authentication@S0&gt;s0-to-fw2@S0@FW2</t>
-  </si>
-  <si>
-    <t>WC1-to-FW3</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link WC1-to-FW3 from WC1 to FW3</t>
-  </si>
-  <si>
-    <t>missing-authentication@WC1&gt;wc1-to-fw3@WC1@FW3</t>
-  </si>
-  <si>
-    <t>WC2-to-FW3</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link WC2-to-FW3 from WC2 to FW3</t>
-  </si>
-  <si>
-    <t>missing-authentication@WC2&gt;wc2-to-fw3@WC2@FW3</t>
-  </si>
-  <si>
-    <t>WC3-to-FW3</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link WC3-to-FW3 from WC3 to FW3</t>
-  </si>
-  <si>
-    <t>missing-authentication@WC3&gt;wc3-to-fw3@WC3@FW3</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>CWE-16</t>
-  </si>
-  <si>
-    <t>Missing Hardening</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at S6</t>
-  </si>
-  <si>
-    <t>System Hardening</t>
-  </si>
-  <si>
-    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
-  </si>
-  <si>
-    <t>missing-hardening@S6</t>
-  </si>
-  <si>
-    <t>Unlikely</t>
-  </si>
-  <si>
-    <t>CWE-1008</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect T1 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect T2 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@T2</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect S6 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@S6</t>
-  </si>
-  <si>
-    <t>Information Disclosure</t>
-  </si>
-  <si>
-    <t>CWE-522</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage) in the threat model (referencing asset T1 as an example)</t>
-  </si>
-  <si>
-    <t>Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
-  </si>
-  <si>
-    <t>Is a Vault (Secret Storage) in place?</t>
-  </si>
-  <si>
-    <t>missing-vault@T1</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>CWE-311</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Assets</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named T1</t>
-  </si>
-  <si>
-    <t>Encryption of Technical Asset</t>
-  </si>
-  <si>
-    <t>Apply encryption to the technical asset.</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@T1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named T2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@T2</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named DC1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@DC1</t>
-  </si>
-  <si>
-    <t>DC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named DC2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@DC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named FW4</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@FW4</t>
-  </si>
-  <si>
-    <t>OS1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named OS1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@OS1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC3</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC3</t>
-  </si>
-  <si>
-    <t>CWE-200</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at S5</t>
-  </si>
-  <si>
-    <t>Build Pipeline Hardening</t>
-  </si>
-  <si>
-    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@S5</t>
-  </si>
-  <si>
-    <t>Denial of Service</t>
-  </si>
-  <si>
-    <t>CWE-400</t>
-  </si>
-  <si>
-    <t>DoS-risky Access Across Trust-Boundary</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW2 by S0 via S0-to-FW2</t>
-  </si>
-  <si>
-    <t>Anti-DoS Measures</t>
-  </si>
-  <si>
-    <t>Apply anti-DoS techniques like throttling and/or per-client load blocking with quotas. Also for maintenance access routes consider applying a VPN instead of public reachable interfaces. Generally applying redundancy on the targeted technical asset reduces the risk of DoS.</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW2@S0@S0&gt;s0-to-fw2</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW3 by WC1 via WC1-to-FW3</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW3@WC1@WC1&gt;wc1-to-fw3</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW3 by WC2 via WC2-to-FW3</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW3@WC2@WC2&gt;wc2-to-fw3</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW3 by WC3 via WC3-to-FW3</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW3@WC3@WC3&gt;wc3-to-fw3</t>
-  </si>
-  <si>
-    <t>Incomplete Model</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link C1-to-FW1 at technical asset C1</t>
-  </si>
-  <si>
-    <t>Threat Modeling Completeness</t>
-  </si>
-  <si>
-    <t>Try to find out what technology or protocol is used instead of specifying that it is unknown.</t>
-  </si>
-  <si>
-    <t>incomplete-model@C1&gt;c1-to-fw1@C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C2-to-R1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link C2-to-R1 at technical asset C2</t>
-  </si>
-  <si>
-    <t>incomplete-model@C2&gt;c2-to-r1@C2</t>
-  </si>
-  <si>
-    <t>FW1-to-S0</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW1-to-S0 at technical asset FW1</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW1&gt;fw1-to-s0@FW1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW2-to-FW3 at technical asset FW2</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW2&gt;fw2-to-fw3@FW2</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW3-to-FW4 at technical asset FW3</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW3&gt;fw3-to-fw4@FW3</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW3-to-WC1 at technical asset FW3</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW3&gt;fw3-to-wc1@FW3</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW3-to-WC2 at technical asset FW3</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW3&gt;fw3-to-wc2@FW3</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW3-to-WC3 at technical asset FW3</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW3&gt;fw3-to-wc3@FW3</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW4-to-FW3 at technical asset FW4</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW4&gt;fw4-to-fw3@FW4</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW4-to-S3 at technical asset FW4</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW4&gt;fw4-to-s3@FW4</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link R1-to-FW4 at technical asset R1</t>
-  </si>
-  <si>
-    <t>incomplete-model@R1&gt;r1-to-fw4@R1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link S0-to-FW2 at technical asset S0</t>
-  </si>
-  <si>
-    <t>incomplete-model@S0&gt;s0-to-fw2@S0</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link WC1-to-FW3 at technical asset WC1</t>
-  </si>
-  <si>
-    <t>incomplete-model@WC1&gt;wc1-to-fw3@WC1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link WC2-to-FW3 at technical asset WC2</t>
-  </si>
-  <si>
-    <t>incomplete-model@WC2&gt;wc2-to-fw3@WC2</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link WC3-to-FW3 at technical asset WC3</t>
-  </si>
-  <si>
-    <t>incomplete-model@WC3&gt;wc3-to-fw3@WC3</t>
-  </si>
-  <si>
-    <t>CWE-1127</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment</t>
-  </si>
-  <si>
-    <t>Unchecked Deployment risk at S5</t>
-  </si>
-  <si>
-    <t>Apply DevSecOps best-practices and use scanning tools to identify vulnerabilities in source- or byte-code,dependencies, container layers, and optionally also via dynamic scans against running test systems.</t>
-  </si>
-  <si>
-    <t>unchecked-deployment@S5</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled C1-to-FW1 at technical asset C1</t>
-  </si>
-  <si>
-    <t>Attack Surface Reduction</t>
-  </si>
-  <si>
-    <t>Try to avoid using technical communication links that do not send or receive anything.</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@C1&gt;c1-to-fw1@C1</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled C2-to-R1 at technical asset C2</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@C2&gt;c2-to-r1@C2</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled FW1-to-S0 at technical asset FW1</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@FW1&gt;fw1-to-s0@FW1</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled FW2-to-FW3 at technical asset FW2</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@FW2&gt;fw2-to-fw3@FW2</t>
-  </si>
-  <si>
     <t>Unnecessary Communication Link titled FW3-to-FW4 at technical asset FW3</t>
   </si>
   <si>
@@ -742,24 +814,87 @@
     <t>unnecessary-communication-link@FW4&gt;fw4-to-fw3@FW4</t>
   </si>
   <si>
+    <t>FW4-to-R2</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW4-to-R2 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW4&gt;fw4-to-r2@FW4</t>
+  </si>
+  <si>
     <t>Unnecessary Communication Link titled FW4-to-S3 at technical asset FW4</t>
   </si>
   <si>
     <t>unnecessary-communication-link@FW4&gt;fw4-to-s3@FW4</t>
   </si>
   <si>
+    <t>FW4-to-S4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled FW4-to-S4 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@FW4&gt;fw4-to-s4@FW4</t>
+  </si>
+  <si>
     <t>Unnecessary Communication Link titled R1-to-FW4 at technical asset R1</t>
   </si>
   <si>
     <t>unnecessary-communication-link@R1&gt;r1-to-fw4@R1</t>
   </si>
   <si>
+    <t>R2-to-ES1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled R2-to-ES1 at technical asset R2</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@R2&gt;r2-to-es1@R2</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled R2-to-S1 at technical asset R2</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@R2&gt;r2-to-s1@R2</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled R3-to-R4 at technical asset R3</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@R3&gt;r3-to-r4@R3</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled R4-to-TI1 at technical asset R4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@R4&gt;r4-to-ti1@R4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled R4-to-TI2 at technical asset R4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@R4&gt;r4-to-ti2@R4</t>
+  </si>
+  <si>
     <t>Unnecessary Communication Link titled S0-to-FW2 at technical asset S0</t>
   </si>
   <si>
     <t>unnecessary-communication-link@S0&gt;s0-to-fw2@S0</t>
   </si>
   <si>
+    <t>Unnecessary Communication Link titled S1-to-R3 at technical asset S1</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S1&gt;s1-to-r3@S1</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled S4-to-FW4 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-fw4@S4</t>
+  </si>
+  <si>
     <t>Unnecessary Communication Link titled WC1-to-FW3 at technical asset WC1</t>
   </si>
   <si>
@@ -808,9 +943,6 @@
     <t>unnecessary-technical-asset@DC2</t>
   </si>
   <si>
-    <t>ES1</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named ES1</t>
   </si>
   <si>
@@ -853,27 +985,18 @@
     <t>unnecessary-technical-asset@R1</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named R2</t>
   </si>
   <si>
     <t>unnecessary-technical-asset@R2</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named R3</t>
   </si>
   <si>
     <t>unnecessary-technical-asset@R3</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named R4</t>
   </si>
   <si>
@@ -919,18 +1042,6 @@
     <t>unnecessary-technical-asset@S6</t>
   </si>
   <si>
-    <t>Unnecessary Technical Asset named T1</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@T1</t>
-  </si>
-  <si>
-    <t>Unnecessary Technical Asset named T2</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@T2</t>
-  </si>
-  <si>
     <t>Wrong Communication Link Content</t>
   </si>
   <si>
@@ -952,6 +1063,12 @@
     <t>wrong-communication-link-content@C2@C2&gt;c2-to-r1</t>
   </si>
   <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at ES1 regarding communication link ES1-to-R2</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@ES1@ES1&gt;es1-to-r2</t>
+  </si>
+  <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW1 regarding communication link FW1-to-S0</t>
   </si>
   <si>
@@ -994,24 +1111,78 @@
     <t>wrong-communication-link-content@FW4@FW4&gt;fw4-to-fw3</t>
   </si>
   <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW4 regarding communication link FW4-to-R2</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW4@FW4&gt;fw4-to-r2</t>
+  </si>
+  <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW4 regarding communication link FW4-to-S3</t>
   </si>
   <si>
     <t>wrong-communication-link-content@FW4@FW4&gt;fw4-to-s3</t>
   </si>
   <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at FW4 regarding communication link FW4-to-S4</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@FW4@FW4&gt;fw4-to-s4</t>
+  </si>
+  <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at R1 regarding communication link R1-to-FW4</t>
   </si>
   <si>
     <t>wrong-communication-link-content@R1@R1&gt;r1-to-fw4</t>
   </si>
   <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at R2 regarding communication link R2-to-ES1</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@R2@R2&gt;r2-to-es1</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at R2 regarding communication link R2-to-S1</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@R2@R2&gt;r2-to-s1</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at R3 regarding communication link R3-to-R4</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@R3@R3&gt;r3-to-r4</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at R4 regarding communication link R4-to-TI1</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@R4@R4&gt;r4-to-ti1</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at R4 regarding communication link R4-to-TI2</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@R4@R4&gt;r4-to-ti2</t>
+  </si>
+  <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S0 regarding communication link S0-to-FW2</t>
   </si>
   <si>
     <t>wrong-communication-link-content@S0@S0&gt;s0-to-fw2</t>
   </si>
   <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S1 regarding communication link S1-to-R3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S1@S1&gt;s1-to-r3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-FW4</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC1 regarding communication link WC1-to-FW3</t>
   </si>
   <si>
@@ -1072,16 +1243,16 @@
     <t>wrong-trust-boundary-content@S1</t>
   </si>
   <si>
-    <t>Wrong Trust Boundary Content (non-container asset inside container trust boundary) at T1</t>
-  </si>
-  <si>
-    <t>wrong-trust-boundary-content@T1</t>
-  </si>
-  <si>
-    <t>Wrong Trust Boundary Content (non-container asset inside container trust boundary) at T2</t>
-  </si>
-  <si>
-    <t>wrong-trust-boundary-content@T2</t>
+    <t>Wrong Trust Boundary Content (non-container asset inside container trust boundary) at TI1</t>
+  </si>
+  <si>
+    <t>wrong-trust-boundary-content@TI1</t>
+  </si>
+  <si>
+    <t>Wrong Trust Boundary Content (non-container asset inside container trust boundary) at TI2</t>
+  </si>
+  <si>
+    <t>wrong-trust-boundary-content@TI2</t>
   </si>
 </sst>
 </file>
@@ -2186,16 +2357,16 @@
         <v>56</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="18">
+        <v>27</v>
+      </c>
+      <c r="K11" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="J11" s="18">
-        <v>10</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="L11" s="22" t="s">
         <v>60</v>
@@ -2207,7 +2378,7 @@
         <v>32</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>34</v>
@@ -2240,16 +2411,16 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="18">
+        <v>33</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="J12" s="18">
-        <v>27</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="L12" s="22" t="s">
         <v>60</v>
@@ -2261,7 +2432,7 @@
         <v>32</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>34</v>
@@ -2294,16 +2465,16 @@
         <v>56</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="18">
         <v>33</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="22" t="s">
         <v>60</v>
@@ -2315,7 +2486,7 @@
         <v>32</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>34</v>
@@ -2348,16 +2519,16 @@
         <v>56</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="18">
+        <v>6</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="J14" s="18">
-        <v>33</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="L14" s="22" t="s">
         <v>60</v>
@@ -2369,7 +2540,7 @@
         <v>32</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>34</v>
@@ -2402,13 +2573,13 @@
         <v>56</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J15" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>81</v>
@@ -2456,16 +2627,16 @@
         <v>56</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="18">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>60</v>
@@ -2477,7 +2648,7 @@
         <v>32</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>34</v>
@@ -2510,16 +2681,16 @@
         <v>56</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17" s="18">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>60</v>
@@ -2531,7 +2702,7 @@
         <v>32</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="10" t="s">
         <v>34</v>
@@ -2564,16 +2735,16 @@
         <v>56</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J18" s="18">
         <v>4</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18" s="22" t="s">
         <v>60</v>
@@ -2585,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P18" s="10" t="s">
         <v>34</v>
@@ -2596,50 +2767,50 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>93</v>
+      <c r="C19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J19" s="18">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>34</v>
@@ -2650,50 +2821,50 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>96</v>
       </c>
+      <c r="F20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J20" s="18">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>34</v>
@@ -2704,50 +2875,50 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>99</v>
+      <c r="E21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J21" s="18">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="P21" s="10" t="s">
         <v>34</v>
@@ -2758,38 +2929,38 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="A22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="H22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="18">
         <v>100</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L22" s="22" t="s">
         <v>108</v>
@@ -2801,7 +2972,7 @@
         <v>32</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P22" s="10" t="s">
         <v>34</v>
@@ -2816,25 +2987,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>28</v>
@@ -2843,19 +3014,19 @@
         <v>52</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>34</v>
@@ -2870,25 +3041,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>28</v>
@@ -2897,19 +3068,19 @@
         <v>52</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>34</v>
@@ -2920,50 +3091,50 @@
       <c r="T24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="9" t="s">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="18">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>34</v>
@@ -2978,46 +3149,46 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="H26" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="18">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K26" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="M26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="22" t="s">
-        <v>129</v>
-      </c>
       <c r="N26" s="22" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>34</v>
@@ -3032,46 +3203,46 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J27" s="18">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>34</v>
@@ -3086,46 +3257,46 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="18">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="K28" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>34</v>
@@ -3140,46 +3311,46 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="18">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K29" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="20" t="s">
         <v>142</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>143</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>34</v>
@@ -3194,46 +3365,46 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="18">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>34</v>
@@ -3248,46 +3419,46 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="18">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>34</v>
@@ -3302,46 +3473,46 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="18">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>34</v>
@@ -3356,46 +3527,46 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="J33" s="18">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>34</v>
@@ -3406,50 +3577,50 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="A34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="18">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>34</v>
@@ -3460,50 +3631,50 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>28</v>
+      <c r="A35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="J35" s="18">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>34</v>
@@ -3515,49 +3686,49 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="J36" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>34</v>
@@ -3569,49 +3740,49 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="H37" s="9" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="J37" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K37" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="M37" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="M37" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="N37" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P37" s="10" t="s">
         <v>34</v>
@@ -3623,49 +3794,49 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="J38" s="18">
         <v>6</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L38" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="M38" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="N38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>34</v>
@@ -3677,49 +3848,49 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="H39" s="9" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="J39" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L39" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M39" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="M39" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="N39" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P39" s="10" t="s">
         <v>34</v>
@@ -3731,49 +3902,49 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J40" s="18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="P40" s="10" t="s">
         <v>34</v>
@@ -3785,49 +3956,49 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="J41" s="18">
         <v>0</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>34</v>
@@ -3839,49 +4010,49 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="I42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="18">
+        <v>3</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L42" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="J42" s="18">
-        <v>0</v>
-      </c>
-      <c r="K42" s="19" t="s">
+      <c r="M42" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="L42" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="M42" s="22" t="s">
-        <v>182</v>
-      </c>
       <c r="N42" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>34</v>
@@ -3893,49 +4064,49 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>57</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J43" s="18">
         <v>4</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>34</v>
@@ -3947,28 +4118,28 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>64</v>
@@ -3977,19 +4148,19 @@
         <v>4</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>34</v>
@@ -4001,49 +4172,49 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J45" s="18">
         <v>6</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N45" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>34</v>
@@ -4055,49 +4226,49 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J46" s="18">
         <v>6</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N46" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>34</v>
@@ -4109,49 +4280,49 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J47" s="18">
         <v>6</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P47" s="10" t="s">
         <v>34</v>
@@ -4163,49 +4334,49 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J48" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N48" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>34</v>
@@ -4217,49 +4388,49 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>80</v>
       </c>
       <c r="J49" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P49" s="10" t="s">
         <v>34</v>
@@ -4271,49 +4442,49 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="J50" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N50" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="P50" s="10" t="s">
         <v>34</v>
@@ -4325,49 +4496,49 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="J51" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N51" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="P51" s="10" t="s">
         <v>34</v>
@@ -4379,49 +4550,49 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J52" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N52" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="P52" s="10" t="s">
         <v>34</v>
@@ -4433,49 +4604,49 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J53" s="18">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="P53" s="10" t="s">
         <v>34</v>
@@ -4487,49 +4658,49 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J54" s="18">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -4541,49 +4712,49 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="J55" s="18">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N55" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -4595,49 +4766,49 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="J56" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="N56" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -4649,49 +4820,49 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J57" s="18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="N57" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>34</v>
@@ -4703,13 +4874,13 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>53</v>
@@ -4718,34 +4889,34 @@
         <v>54</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="J58" s="18">
         <v>0</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>34</v>
@@ -4757,13 +4928,13 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>53</v>
@@ -4772,34 +4943,34 @@
         <v>54</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J59" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="P59" s="10" t="s">
         <v>34</v>
@@ -4811,13 +4982,13 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>53</v>
@@ -4826,34 +4997,34 @@
         <v>54</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="J60" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N60" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>34</v>
@@ -4865,13 +5036,13 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>53</v>
@@ -4880,34 +5051,34 @@
         <v>54</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="J61" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N61" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>34</v>
@@ -4919,13 +5090,13 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>53</v>
@@ -4934,34 +5105,34 @@
         <v>54</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J62" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>34</v>
@@ -4973,13 +5144,13 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>53</v>
@@ -4988,34 +5159,34 @@
         <v>54</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="J63" s="18">
         <v>6</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N63" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>34</v>
@@ -5027,13 +5198,13 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>53</v>
@@ -5042,34 +5213,34 @@
         <v>54</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J64" s="18">
         <v>6</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N64" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>34</v>
@@ -5081,13 +5252,13 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>53</v>
@@ -5096,34 +5267,34 @@
         <v>54</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J65" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N65" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="P65" s="10" t="s">
         <v>34</v>
@@ -5135,13 +5306,13 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>53</v>
@@ -5150,34 +5321,34 @@
         <v>54</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J66" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="P66" s="10" t="s">
         <v>34</v>
@@ -5189,13 +5360,13 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>53</v>
@@ -5204,34 +5375,34 @@
         <v>54</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J67" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K67" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="L67" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="L67" s="22" t="s">
-        <v>223</v>
-      </c>
       <c r="M67" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="P67" s="10" t="s">
         <v>34</v>
@@ -5243,13 +5414,13 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>53</v>
@@ -5258,34 +5429,34 @@
         <v>54</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="J68" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P68" s="10" t="s">
         <v>34</v>
@@ -5297,13 +5468,13 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>53</v>
@@ -5312,34 +5483,34 @@
         <v>54</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="J69" s="18">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="P69" s="10" t="s">
         <v>34</v>
@@ -5351,13 +5522,13 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>53</v>
@@ -5366,34 +5537,34 @@
         <v>54</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="J70" s="18">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N70" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>34</v>
@@ -5405,13 +5576,13 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>53</v>
@@ -5420,34 +5591,34 @@
         <v>54</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="J71" s="18">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="N71" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>34</v>
@@ -5459,13 +5630,13 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>53</v>
@@ -5474,34 +5645,34 @@
         <v>54</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c r="J72" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>34</v>
@@ -5513,13 +5684,13 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>53</v>
@@ -5528,34 +5699,34 @@
         <v>54</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="J73" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>34</v>
@@ -5567,13 +5738,13 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>53</v>
@@ -5582,34 +5753,34 @@
         <v>54</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="J74" s="18">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>34</v>
@@ -5621,13 +5792,13 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>53</v>
@@ -5636,34 +5807,34 @@
         <v>54</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J75" s="18">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>34</v>
@@ -5675,13 +5846,13 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>53</v>
@@ -5690,34 +5861,34 @@
         <v>54</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="J76" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>34</v>
@@ -5729,13 +5900,13 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>53</v>
@@ -5744,34 +5915,34 @@
         <v>54</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="J77" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>34</v>
@@ -5783,13 +5954,13 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>53</v>
@@ -5798,34 +5969,34 @@
         <v>54</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="J78" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N78" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="P78" s="10" t="s">
         <v>34</v>
@@ -5837,13 +6008,13 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>53</v>
@@ -5852,34 +6023,34 @@
         <v>54</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="J79" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N79" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="P79" s="10" t="s">
         <v>34</v>
@@ -5891,13 +6062,13 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>53</v>
@@ -5906,34 +6077,34 @@
         <v>54</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="J80" s="18">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N80" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="P80" s="10" t="s">
         <v>34</v>
@@ -5945,13 +6116,13 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>53</v>
@@ -5960,34 +6131,34 @@
         <v>54</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="J81" s="18">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N81" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="P81" s="10" t="s">
         <v>34</v>
@@ -5999,13 +6170,13 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>53</v>
@@ -6014,34 +6185,34 @@
         <v>54</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="J82" s="18">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="P82" s="10" t="s">
         <v>34</v>
@@ -6053,13 +6224,13 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>53</v>
@@ -6068,34 +6239,34 @@
         <v>54</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J83" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N83" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="P83" s="10" t="s">
         <v>34</v>
@@ -6107,13 +6278,13 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>53</v>
@@ -6122,34 +6293,34 @@
         <v>54</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J84" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N84" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="P84" s="10" t="s">
         <v>34</v>
@@ -6161,13 +6332,13 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>53</v>
@@ -6176,34 +6347,34 @@
         <v>54</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J85" s="18">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N85" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="P85" s="10" t="s">
         <v>34</v>
@@ -6215,13 +6386,13 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>53</v>
@@ -6230,34 +6401,34 @@
         <v>54</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J86" s="18">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="P86" s="10" t="s">
         <v>34</v>
@@ -6269,13 +6440,13 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>53</v>
@@ -6284,34 +6455,34 @@
         <v>54</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J87" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="P87" s="10" t="s">
         <v>34</v>
@@ -6323,13 +6494,13 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>53</v>
@@ -6338,34 +6509,34 @@
         <v>54</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>292</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J88" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="P88" s="10" t="s">
         <v>34</v>
@@ -6377,13 +6548,13 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>53</v>
@@ -6392,34 +6563,34 @@
         <v>54</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J89" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="P89" s="10" t="s">
         <v>34</v>
@@ -6431,13 +6602,13 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>53</v>
@@ -6446,34 +6617,34 @@
         <v>54</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J90" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M90" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>34</v>
@@ -6485,13 +6656,13 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>53</v>
@@ -6500,34 +6671,34 @@
         <v>54</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J91" s="18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M91" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>34</v>
@@ -6539,13 +6710,13 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>53</v>
@@ -6554,34 +6725,34 @@
         <v>54</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J92" s="18">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K92" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="L92" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="M92" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="L92" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="M92" s="22" t="s">
-        <v>256</v>
-      </c>
       <c r="N92" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>34</v>
@@ -6593,13 +6764,13 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>53</v>
@@ -6608,34 +6779,34 @@
         <v>54</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J93" s="18">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>34</v>
@@ -6647,49 +6818,49 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J94" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N94" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>34</v>
@@ -6701,49 +6872,49 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="J95" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N95" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>34</v>
@@ -6755,49 +6926,49 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="J96" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N96" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="P96" s="10" t="s">
         <v>34</v>
@@ -6809,49 +6980,49 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J97" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N97" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P97" s="10" t="s">
         <v>34</v>
@@ -6863,49 +7034,49 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="J98" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N98" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="P98" s="10" t="s">
         <v>34</v>
@@ -6917,49 +7088,49 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J99" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="P99" s="10" t="s">
         <v>34</v>
@@ -6971,49 +7142,49 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J100" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="P100" s="10" t="s">
         <v>34</v>
@@ -7025,49 +7196,49 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J101" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>34</v>
@@ -7079,49 +7250,49 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="J102" s="18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>34</v>
@@ -7133,49 +7304,49 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J103" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>34</v>
@@ -7187,49 +7358,49 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="J104" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>34</v>
@@ -7241,49 +7412,49 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="J105" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O105" s="20" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="P105" s="10" t="s">
         <v>34</v>
@@ -7295,49 +7466,49 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="J106" s="18">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="L106" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>34</v>
@@ -7349,49 +7520,49 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="J107" s="18">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="N107" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>34</v>
@@ -7403,49 +7574,49 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="J108" s="18">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="N108" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="P108" s="10" t="s">
         <v>34</v>
@@ -7457,49 +7628,49 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J109" s="18">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M109" s="22" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N109" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="P109" s="10" t="s">
         <v>34</v>
@@ -7511,49 +7682,49 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="J110" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M110" s="22" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N110" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="P110" s="10" t="s">
         <v>34</v>
@@ -7565,49 +7736,49 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="J111" s="18">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K111" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="L111" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="L111" s="22" t="s">
-        <v>307</v>
-      </c>
       <c r="M111" s="22" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N111" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="P111" s="10" t="s">
         <v>34</v>
@@ -7619,49 +7790,49 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J112" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="L112" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N112" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="P112" s="10" t="s">
         <v>34</v>
@@ -7673,49 +7844,49 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="J113" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N113" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="P113" s="10" t="s">
         <v>34</v>
@@ -7727,49 +7898,49 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="J114" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M114" s="22" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N114" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="P114" s="10" t="s">
         <v>34</v>
@@ -7781,49 +7952,49 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="J115" s="18">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="K115" s="19" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M115" s="22" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N115" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="P115" s="10" t="s">
         <v>34</v>
@@ -7835,49 +8006,49 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J116" s="18">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N116" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="P116" s="10" t="s">
         <v>34</v>
@@ -7886,6 +8057,1032 @@
       <c r="R116" s="17"/>
       <c r="S116" s="17"/>
       <c r="T116" s="16"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J117" s="18">
+        <v>2</v>
+      </c>
+      <c r="K117" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="L117" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M117" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N117" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O117" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="P117" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="16"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J118" s="18">
+        <v>2</v>
+      </c>
+      <c r="K118" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="L118" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M118" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N118" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O118" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="P118" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="16"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J119" s="18">
+        <v>1</v>
+      </c>
+      <c r="K119" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="L119" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M119" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N119" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O119" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="P119" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="17"/>
+      <c r="S119" s="17"/>
+      <c r="T119" s="16"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J120" s="18">
+        <v>6</v>
+      </c>
+      <c r="K120" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="L120" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M120" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N120" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O120" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="P120" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="16"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J121" s="18">
+        <v>6</v>
+      </c>
+      <c r="K121" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="L121" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M121" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N121" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O121" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="P121" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="17"/>
+      <c r="T121" s="16"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J122" s="18">
+        <v>5</v>
+      </c>
+      <c r="K122" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="L122" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M122" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N122" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O122" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="P122" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="17"/>
+      <c r="S122" s="17"/>
+      <c r="T122" s="16"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J123" s="18">
+        <v>1</v>
+      </c>
+      <c r="K123" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="L123" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M123" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N123" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O123" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="P123" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="17"/>
+      <c r="S123" s="17"/>
+      <c r="T123" s="16"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J124" s="18">
+        <v>5</v>
+      </c>
+      <c r="K124" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="L124" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M124" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N124" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O124" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="P124" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="17"/>
+      <c r="S124" s="17"/>
+      <c r="T124" s="16"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J125" s="18">
+        <v>27</v>
+      </c>
+      <c r="K125" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="L125" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M125" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N125" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O125" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="P125" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="17"/>
+      <c r="S125" s="17"/>
+      <c r="T125" s="16"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J126" s="18">
+        <v>33</v>
+      </c>
+      <c r="K126" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="L126" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M126" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N126" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O126" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="P126" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="17"/>
+      <c r="S126" s="17"/>
+      <c r="T126" s="16"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J127" s="18">
+        <v>33</v>
+      </c>
+      <c r="K127" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="L127" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M127" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N127" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O127" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="P127" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="17"/>
+      <c r="S127" s="17"/>
+      <c r="T127" s="16"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J128" s="18">
+        <v>40</v>
+      </c>
+      <c r="K128" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="L128" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M128" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="N128" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O128" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="P128" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="17"/>
+      <c r="S128" s="17"/>
+      <c r="T128" s="16"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J129" s="18">
+        <v>3</v>
+      </c>
+      <c r="K129" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="L129" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M129" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="N129" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O129" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="P129" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="17"/>
+      <c r="S129" s="17"/>
+      <c r="T129" s="16"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" s="18">
+        <v>40</v>
+      </c>
+      <c r="K130" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="L130" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M130" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="N130" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O130" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="P130" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="17"/>
+      <c r="S130" s="17"/>
+      <c r="T130" s="16"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" s="18">
+        <v>1</v>
+      </c>
+      <c r="K131" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="L131" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M131" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="N131" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O131" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="P131" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="17"/>
+      <c r="S131" s="17"/>
+      <c r="T131" s="16"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J132" s="18">
+        <v>6</v>
+      </c>
+      <c r="K132" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="L132" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M132" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="N132" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O132" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="P132" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="17"/>
+      <c r="S132" s="17"/>
+      <c r="T132" s="16"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J133" s="18">
+        <v>1</v>
+      </c>
+      <c r="K133" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="L133" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M133" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="N133" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O133" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="P133" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="17"/>
+      <c r="T133" s="16"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J134" s="18">
+        <v>52</v>
+      </c>
+      <c r="K134" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="L134" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M134" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="N134" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O134" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="P134" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="17"/>
+      <c r="S134" s="17"/>
+      <c r="T134" s="16"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J135" s="18">
+        <v>52</v>
+      </c>
+      <c r="K135" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="L135" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M135" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="N135" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O135" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="P135" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="17"/>
+      <c r="S135" s="17"/>
+      <c r="T135" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/risks.xlsx
+++ b/Threagile_fullrun/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
   <si>
     <t>Severity</t>
   </si>
@@ -301,21 +301,120 @@
     <t>missing-authentication@S0&gt;s0-to-fw2@S0@FW2</t>
   </si>
   <si>
+    <t>Very Likely</t>
+  </si>
+  <si>
+    <t>Information Disclosure</t>
+  </si>
+  <si>
+    <t>CWE-22</t>
+  </si>
+  <si>
+    <t>Path-Traversal</t>
+  </si>
+  <si>
+    <t>S4-to-DC1</t>
+  </si>
+  <si>
+    <t>Path-Traversal risk at S4 against filesystem DC1 via S4-to-DC1</t>
+  </si>
+  <si>
+    <t>Path-Traversal Prevention</t>
+  </si>
+  <si>
+    <t>Before accessing the file cross-check that it resides in the expected folder and is of the expected type and filename/suffix. Try to use a mapping if possible instead of directly accessing by a filename which is (partly or fully) provided by the caller. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>path-traversal@S4@DC1@S4&gt;s4-to-dc1</t>
+  </si>
+  <si>
+    <t>CWE-501</t>
+  </si>
+  <si>
+    <t>Unguarded Access From Internet</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S4-to-S6</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of S6 by S4 via S4-to-S6</t>
+  </si>
+  <si>
+    <t>Encapsulation of Technical Asset</t>
+  </si>
+  <si>
+    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@S6@S4@S4&gt;s4-to-s6</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of DC1 by S4 via S4-to-DC1</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@DC1@S4@S4&gt;s4-to-dc1</t>
+  </si>
+  <si>
+    <t>S4-to-FW4</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of FW4 by S4 via S4-to-FW4</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@FW4@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
+    <t>S4-to-S3</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of S3 by S4 via S4-to-S3</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@S3@S4@S4&gt;s4-to-s3</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
     <t>Operations</t>
   </si>
   <si>
+    <t>CWE-912</t>
+  </si>
+  <si>
+    <t>Code Backdooring</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at S5</t>
+  </si>
+  <si>
+    <t>Build Pipeline Hardening</t>
+  </si>
+  <si>
+    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
+  </si>
+  <si>
+    <t>code-backdooring@S5</t>
+  </si>
+  <si>
     <t>CWE-16</t>
   </si>
   <si>
     <t>Missing Hardening</t>
   </si>
   <si>
-    <t>S6</t>
-  </si>
-  <si>
     <t>Missing Hardening risk at S6</t>
   </si>
   <si>
@@ -328,9 +427,6 @@
     <t>missing-hardening@S6</t>
   </si>
   <si>
-    <t>Unlikely</t>
-  </si>
-  <si>
     <t>CWE-1008</t>
   </si>
   <si>
@@ -361,9 +457,6 @@
     <t>missing-network-segmentation@S6</t>
   </si>
   <si>
-    <t>Information Disclosure</t>
-  </si>
-  <si>
     <t>CWE-522</t>
   </si>
   <si>
@@ -412,9 +505,6 @@
     <t>unencrypted-asset@TI2</t>
   </si>
   <si>
-    <t>DC1</t>
-  </si>
-  <si>
     <t>Unencrypted Technical Asset named DC1</t>
   </si>
   <si>
@@ -463,45 +553,15 @@
     <t>unencrypted-asset@WC3</t>
   </si>
   <si>
-    <t>Very Likely</t>
-  </si>
-  <si>
-    <t>CWE-501</t>
-  </si>
-  <si>
-    <t>Unguarded Access From Internet</t>
-  </si>
-  <si>
-    <t>S4-to-FW4</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of FW4 by S4 via S4-to-FW4</t>
-  </si>
-  <si>
-    <t>Encapsulation of Technical Asset</t>
-  </si>
-  <si>
-    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@FW4@S4@S4&gt;s4-to-fw4</t>
-  </si>
-  <si>
     <t>CWE-200</t>
   </si>
   <si>
     <t>Accidental Secret Leak</t>
   </si>
   <si>
-    <t>S5</t>
-  </si>
-  <si>
     <t>Accidental Secret Leak risk at S5</t>
   </si>
   <si>
-    <t>Build Pipeline Hardening</t>
-  </si>
-  <si>
     <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
   </si>
   <si>
@@ -706,6 +766,42 @@
     <t>incomplete-model@S1&gt;s1-to-r3@S1</t>
   </si>
   <si>
+    <t>Unknown Protocol specified for communication link S4-to-DC1 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-dc1@S4</t>
+  </si>
+  <si>
+    <t>S4-to-S2</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-S2 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-s2@S4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-S3 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-s3@S4</t>
+  </si>
+  <si>
+    <t>S4-to-S5</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-S5 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-s5@S4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-S6 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-s6@S4</t>
+  </si>
+  <si>
     <t>CWE-284</t>
   </si>
   <si>
@@ -727,6 +823,12 @@
     <t>missing-identity-propagation@FW4&gt;fw4-to-s3@FW4@S3</t>
   </si>
   <si>
+    <t>Missing Enduser Identity Propagation over communication link S4-to-S3 from S4 to S3</t>
+  </si>
+  <si>
+    <t>missing-identity-propagation@S4&gt;s4-to-s3@S4@S3</t>
+  </si>
+  <si>
     <t>CWE-1127</t>
   </si>
   <si>
@@ -889,12 +991,42 @@
     <t>unnecessary-communication-link@S1&gt;s1-to-r3@S1</t>
   </si>
   <si>
+    <t>Unnecessary Communication Link titled S4-to-DC1 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-dc1@S4</t>
+  </si>
+  <si>
     <t>Unnecessary Communication Link titled S4-to-FW4 at technical asset S4</t>
   </si>
   <si>
     <t>unnecessary-communication-link@S4&gt;s4-to-fw4@S4</t>
   </si>
   <si>
+    <t>Unnecessary Communication Link titled S4-to-S2 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-s2@S4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled S4-to-S3 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-s3@S4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled S4-to-S5 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-s5@S4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled S4-to-S6 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-s6@S4</t>
+  </si>
+  <si>
     <t>Unnecessary Communication Link titled WC1-to-FW3 at technical asset WC1</t>
   </si>
   <si>
@@ -931,12 +1063,6 @@
     <t>unnecessary-technical-asset@C2</t>
   </si>
   <si>
-    <t>Unnecessary Technical Asset named DC1</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@DC1</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named DC2</t>
   </si>
   <si>
@@ -1036,12 +1162,6 @@
     <t>unnecessary-technical-asset@S5</t>
   </si>
   <si>
-    <t>Unnecessary Technical Asset named S6</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@S6</t>
-  </si>
-  <si>
     <t>Wrong Communication Link Content</t>
   </si>
   <si>
@@ -1177,10 +1297,40 @@
     <t>wrong-communication-link-content@S1@S1&gt;s1-to-r3</t>
   </si>
   <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-DC1</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-dc1</t>
+  </si>
+  <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-FW4</t>
   </si>
   <si>
     <t>wrong-communication-link-content@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S2</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s2</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S5</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s5</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S6</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s6</t>
   </si>
   <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC1 regarding communication link WC1-to-FW3</t>
@@ -2039,7 +2189,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>42</v>
@@ -2767,35 +2917,35 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="J19" s="18">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>100</v>
@@ -2821,50 +2971,50 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="D20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>28</v>
+      <c r="I20" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="J20" s="18">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>34</v>
@@ -2879,46 +3029,46 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="J21" s="18">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P21" s="10" t="s">
         <v>34</v>
@@ -2929,50 +3079,50 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>28</v>
+      <c r="H22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="J22" s="18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P22" s="10" t="s">
         <v>34</v>
@@ -2987,46 +3137,46 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="J23" s="18">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>34</v>
@@ -3041,16 +3191,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>124</v>
@@ -3059,28 +3209,28 @@
         <v>125</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="18">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>34</v>
@@ -3095,46 +3245,46 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="F25" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="18">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>34</v>
@@ -3149,46 +3299,46 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="18">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>34</v>
@@ -3203,46 +3353,46 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J27" s="18">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>34</v>
@@ -3253,50 +3403,50 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="A28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>34</v>
@@ -3311,46 +3461,46 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="18">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>34</v>
@@ -3365,46 +3515,46 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="18">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>34</v>
@@ -3419,46 +3569,46 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="18">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>34</v>
@@ -3473,46 +3623,46 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>34</v>
@@ -3527,46 +3677,46 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="J33" s="18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>34</v>
@@ -3577,50 +3727,50 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="E34" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="18">
+        <v>10</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="M34" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="18">
-        <v>14</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>162</v>
-      </c>
       <c r="N34" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>34</v>
@@ -3631,50 +3781,50 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="A35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>92</v>
+      <c r="E35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J35" s="18">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>34</v>
@@ -3685,50 +3835,50 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="A36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>171</v>
+      <c r="E36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J36" s="18">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>34</v>
@@ -3739,44 +3889,44 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="A37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>174</v>
+      <c r="E37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J37" s="18">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>175</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>32</v>
@@ -3793,50 +3943,50 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="A38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="9" t="s">
+      <c r="E38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="18">
+        <v>33</v>
+      </c>
+      <c r="K38" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J38" s="18">
-        <v>6</v>
-      </c>
-      <c r="K38" s="19" t="s">
+      <c r="L38" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N38" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>34</v>
@@ -3848,49 +3998,49 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="J39" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P39" s="10" t="s">
         <v>34</v>
@@ -3902,49 +4052,49 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="J40" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P40" s="10" t="s">
         <v>34</v>
@@ -3956,49 +4106,49 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" s="18">
+        <v>6</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="M41" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="J41" s="18">
-        <v>0</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>186</v>
-      </c>
       <c r="N41" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>34</v>
@@ -4010,49 +4160,49 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J42" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>34</v>
@@ -4064,49 +4214,49 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J43" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>34</v>
@@ -4118,49 +4268,49 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="J44" s="18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>34</v>
@@ -4172,49 +4322,49 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J45" s="18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N45" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>34</v>
@@ -4226,49 +4376,49 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="J46" s="18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N46" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>34</v>
@@ -4280,49 +4430,49 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="J47" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K47" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L47" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="L47" s="22" t="s">
-        <v>185</v>
-      </c>
       <c r="M47" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P47" s="10" t="s">
         <v>34</v>
@@ -4334,49 +4484,49 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="J48" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N48" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>34</v>
@@ -4388,49 +4538,49 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J49" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="P49" s="10" t="s">
         <v>34</v>
@@ -4442,49 +4592,49 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="J50" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N50" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="P50" s="10" t="s">
         <v>34</v>
@@ -4496,49 +4646,49 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="J51" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N51" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P51" s="10" t="s">
         <v>34</v>
@@ -4550,49 +4700,49 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J52" s="18">
         <v>6</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N52" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P52" s="10" t="s">
         <v>34</v>
@@ -4604,49 +4754,49 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J53" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P53" s="10" t="s">
         <v>34</v>
@@ -4658,49 +4808,49 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J54" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -4712,49 +4862,49 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J55" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N55" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -4766,49 +4916,49 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J56" s="18">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="N56" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -4820,49 +4970,49 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J57" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="N57" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>34</v>
@@ -4874,49 +5024,49 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="J58" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>243</v>
       </c>
       <c r="L58" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="20" t="s">
         <v>244</v>
-      </c>
-      <c r="M58" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N58" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>34</v>
@@ -4928,49 +5078,49 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="J59" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P59" s="10" t="s">
         <v>34</v>
@@ -4982,49 +5132,49 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="J60" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M60" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="L60" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M60" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N60" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>34</v>
@@ -5036,49 +5186,49 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="J61" s="18">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K61" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="20" t="s">
         <v>251</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M61" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N61" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="20" t="s">
-        <v>252</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>34</v>
@@ -5090,43 +5240,43 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="J62" s="18">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>253</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>32</v>
@@ -5144,49 +5294,49 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J63" s="18">
+        <v>14</v>
+      </c>
+      <c r="K63" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="J63" s="18">
-        <v>6</v>
-      </c>
-      <c r="K63" s="19" t="s">
+      <c r="L63" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M63" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N63" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" s="20" t="s">
-        <v>257</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>34</v>
@@ -5198,43 +5348,43 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="J64" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>258</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="N64" s="22" t="s">
         <v>32</v>
@@ -5252,43 +5402,43 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="J65" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K65" s="19" t="s">
         <v>260</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="N65" s="22" t="s">
         <v>32</v>
@@ -5306,13 +5456,13 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>53</v>
@@ -5321,34 +5471,34 @@
         <v>54</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="J66" s="18">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P66" s="10" t="s">
         <v>34</v>
@@ -5360,13 +5510,13 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>53</v>
@@ -5375,34 +5525,34 @@
         <v>54</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="J67" s="18">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P67" s="10" t="s">
         <v>34</v>
@@ -5414,49 +5564,49 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="J68" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P68" s="10" t="s">
         <v>34</v>
@@ -5468,13 +5618,13 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>53</v>
@@ -5483,34 +5633,34 @@
         <v>54</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="J69" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="P69" s="10" t="s">
         <v>34</v>
@@ -5522,13 +5672,13 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>53</v>
@@ -5537,34 +5687,34 @@
         <v>54</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="J70" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N70" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>34</v>
@@ -5576,13 +5726,13 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>53</v>
@@ -5591,34 +5741,34 @@
         <v>54</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="J71" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N71" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>34</v>
@@ -5630,13 +5780,13 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>53</v>
@@ -5645,34 +5795,34 @@
         <v>54</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="J72" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>34</v>
@@ -5684,13 +5834,13 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>53</v>
@@ -5699,34 +5849,34 @@
         <v>54</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="J73" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K73" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="M73" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="L73" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M73" s="22" t="s">
-        <v>245</v>
-      </c>
       <c r="N73" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>34</v>
@@ -5738,13 +5888,13 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>53</v>
@@ -5753,34 +5903,34 @@
         <v>54</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="J74" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>34</v>
@@ -5792,13 +5942,13 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>53</v>
@@ -5807,34 +5957,34 @@
         <v>54</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="J75" s="18">
         <v>6</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>34</v>
@@ -5846,13 +5996,13 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>53</v>
@@ -5861,34 +6011,34 @@
         <v>54</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J76" s="18">
         <v>6</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>34</v>
@@ -5900,13 +6050,13 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>53</v>
@@ -5915,34 +6065,34 @@
         <v>54</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J77" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>34</v>
@@ -5954,13 +6104,13 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>53</v>
@@ -5969,34 +6119,34 @@
         <v>54</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="J78" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N78" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="P78" s="10" t="s">
         <v>34</v>
@@ -6008,13 +6158,13 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>53</v>
@@ -6023,34 +6173,34 @@
         <v>54</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="J79" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N79" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P79" s="10" t="s">
         <v>34</v>
@@ -6062,13 +6212,13 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>53</v>
@@ -6077,34 +6227,34 @@
         <v>54</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="J80" s="18">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N80" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="P80" s="10" t="s">
         <v>34</v>
@@ -6116,13 +6266,13 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>53</v>
@@ -6131,34 +6281,34 @@
         <v>54</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="J81" s="18">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N81" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="P81" s="10" t="s">
         <v>34</v>
@@ -6170,13 +6320,13 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>53</v>
@@ -6185,34 +6335,34 @@
         <v>54</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="J82" s="18">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="P82" s="10" t="s">
         <v>34</v>
@@ -6224,13 +6374,13 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>53</v>
@@ -6239,34 +6389,34 @@
         <v>54</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
       <c r="J83" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N83" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="P83" s="10" t="s">
         <v>34</v>
@@ -6278,13 +6428,13 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>53</v>
@@ -6293,34 +6443,34 @@
         <v>54</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="J84" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N84" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="P84" s="10" t="s">
         <v>34</v>
@@ -6332,13 +6482,13 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>53</v>
@@ -6347,34 +6497,34 @@
         <v>54</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="J85" s="18">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N85" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P85" s="10" t="s">
         <v>34</v>
@@ -6386,13 +6536,13 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>53</v>
@@ -6401,34 +6551,34 @@
         <v>54</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J86" s="18">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="P86" s="10" t="s">
         <v>34</v>
@@ -6440,13 +6590,13 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>53</v>
@@ -6455,34 +6605,34 @@
         <v>54</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="J87" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="P87" s="10" t="s">
         <v>34</v>
@@ -6494,13 +6644,13 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>53</v>
@@ -6509,34 +6659,34 @@
         <v>54</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="J88" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="P88" s="10" t="s">
         <v>34</v>
@@ -6548,13 +6698,13 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>53</v>
@@ -6563,34 +6713,34 @@
         <v>54</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="J89" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="P89" s="10" t="s">
         <v>34</v>
@@ -6602,13 +6752,13 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>53</v>
@@ -6617,34 +6767,34 @@
         <v>54</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="J90" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M90" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>34</v>
@@ -6656,13 +6806,13 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>53</v>
@@ -6671,34 +6821,34 @@
         <v>54</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="J91" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M91" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>34</v>
@@ -6710,13 +6860,13 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>53</v>
@@ -6725,34 +6875,34 @@
         <v>54</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="J92" s="18">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N92" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>34</v>
@@ -6764,13 +6914,13 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>53</v>
@@ -6779,34 +6929,34 @@
         <v>54</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="J93" s="18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>34</v>
@@ -6818,13 +6968,13 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>53</v>
@@ -6833,34 +6983,34 @@
         <v>54</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="J94" s="18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N94" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>34</v>
@@ -6872,13 +7022,13 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>53</v>
@@ -6887,34 +7037,34 @@
         <v>54</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="J95" s="18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N95" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>34</v>
@@ -6926,13 +7076,13 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>53</v>
@@ -6941,34 +7091,34 @@
         <v>54</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="J96" s="18">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N96" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="P96" s="10" t="s">
         <v>34</v>
@@ -6980,13 +7130,13 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>53</v>
@@ -6995,34 +7145,34 @@
         <v>54</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="J97" s="18">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N97" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="P97" s="10" t="s">
         <v>34</v>
@@ -7034,13 +7184,13 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>53</v>
@@ -7049,34 +7199,34 @@
         <v>54</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="J98" s="18">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N98" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="P98" s="10" t="s">
         <v>34</v>
@@ -7088,13 +7238,13 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>53</v>
@@ -7103,34 +7253,34 @@
         <v>54</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J99" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="P99" s="10" t="s">
         <v>34</v>
@@ -7142,13 +7292,13 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>53</v>
@@ -7157,34 +7307,34 @@
         <v>54</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J100" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="P100" s="10" t="s">
         <v>34</v>
@@ -7196,13 +7346,13 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>53</v>
@@ -7211,34 +7361,34 @@
         <v>54</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J101" s="18">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>34</v>
@@ -7250,13 +7400,13 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>53</v>
@@ -7265,34 +7415,34 @@
         <v>54</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J102" s="18">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>34</v>
@@ -7304,40 +7454,40 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J103" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M103" s="22" t="s">
         <v>345</v>
@@ -7346,7 +7496,7 @@
         <v>32</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>34</v>
@@ -7358,40 +7508,40 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="J104" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M104" s="22" t="s">
         <v>345</v>
@@ -7400,7 +7550,7 @@
         <v>32</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>34</v>
@@ -7412,40 +7562,40 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="J105" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M105" s="22" t="s">
         <v>345</v>
@@ -7454,7 +7604,7 @@
         <v>32</v>
       </c>
       <c r="O105" s="20" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P105" s="10" t="s">
         <v>34</v>
@@ -7466,40 +7616,40 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="J106" s="18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L106" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M106" s="22" t="s">
         <v>345</v>
@@ -7508,7 +7658,7 @@
         <v>32</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>34</v>
@@ -7520,40 +7670,40 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J107" s="18">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M107" s="22" t="s">
         <v>345</v>
@@ -7562,7 +7712,7 @@
         <v>32</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>34</v>
@@ -7574,40 +7724,40 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="J108" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M108" s="22" t="s">
         <v>345</v>
@@ -7616,7 +7766,7 @@
         <v>32</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P108" s="10" t="s">
         <v>34</v>
@@ -7628,40 +7778,40 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J109" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M109" s="22" t="s">
         <v>345</v>
@@ -7670,7 +7820,7 @@
         <v>32</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P109" s="10" t="s">
         <v>34</v>
@@ -7682,40 +7832,40 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="J110" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M110" s="22" t="s">
         <v>345</v>
@@ -7724,7 +7874,7 @@
         <v>32</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P110" s="10" t="s">
         <v>34</v>
@@ -7736,40 +7886,40 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="J111" s="18">
         <v>6</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L111" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M111" s="22" t="s">
         <v>345</v>
@@ -7778,7 +7928,7 @@
         <v>32</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="P111" s="10" t="s">
         <v>34</v>
@@ -7790,40 +7940,40 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="J112" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L112" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M112" s="22" t="s">
         <v>345</v>
@@ -7832,7 +7982,7 @@
         <v>32</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P112" s="10" t="s">
         <v>34</v>
@@ -7844,40 +7994,40 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="J113" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M113" s="22" t="s">
         <v>345</v>
@@ -7886,7 +8036,7 @@
         <v>32</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P113" s="10" t="s">
         <v>34</v>
@@ -7898,40 +8048,40 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="J114" s="18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M114" s="22" t="s">
         <v>345</v>
@@ -7940,7 +8090,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="P114" s="10" t="s">
         <v>34</v>
@@ -7952,40 +8102,40 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="J115" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K115" s="19" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M115" s="22" t="s">
         <v>345</v>
@@ -7994,7 +8144,7 @@
         <v>32</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="P115" s="10" t="s">
         <v>34</v>
@@ -8006,40 +8156,40 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="J116" s="18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="M116" s="22" t="s">
         <v>345</v>
@@ -8048,7 +8198,7 @@
         <v>32</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="P116" s="10" t="s">
         <v>34</v>
@@ -8060,49 +8210,49 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="J117" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M117" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N117" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="P117" s="10" t="s">
         <v>34</v>
@@ -8114,49 +8264,49 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J118" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="L118" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M118" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N118" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="P118" s="10" t="s">
         <v>34</v>
@@ -8168,49 +8318,49 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J119" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M119" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N119" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="P119" s="10" t="s">
         <v>34</v>
@@ -8222,49 +8372,49 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="J120" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="P120" s="10" t="s">
         <v>34</v>
@@ -8276,49 +8426,49 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="J121" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K121" s="19" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M121" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N121" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="P121" s="10" t="s">
         <v>34</v>
@@ -8330,49 +8480,49 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="J122" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K122" s="19" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M122" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N122" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O122" s="20" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P122" s="10" t="s">
         <v>34</v>
@@ -8384,49 +8534,49 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="J123" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K123" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="L123" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M123" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="L123" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="M123" s="22" t="s">
-        <v>345</v>
-      </c>
       <c r="N123" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O123" s="20" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="P123" s="10" t="s">
         <v>34</v>
@@ -8438,49 +8588,49 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="J124" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="L124" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N124" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O124" s="20" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="P124" s="10" t="s">
         <v>34</v>
@@ -8492,49 +8642,49 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="J125" s="18">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N125" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O125" s="20" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P125" s="10" t="s">
         <v>34</v>
@@ -8546,49 +8696,49 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="J126" s="18">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M126" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N126" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O126" s="20" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="P126" s="10" t="s">
         <v>34</v>
@@ -8600,49 +8750,49 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="J127" s="18">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M127" s="22" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="N127" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O127" s="20" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="P127" s="10" t="s">
         <v>34</v>
@@ -8654,49 +8804,49 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="J128" s="18">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K128" s="19" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N128" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O128" s="20" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="P128" s="10" t="s">
         <v>34</v>
@@ -8708,49 +8858,49 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>28</v>
+        <v>305</v>
       </c>
       <c r="J129" s="18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K129" s="19" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M129" s="22" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N129" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O129" s="20" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="P129" s="10" t="s">
         <v>34</v>
@@ -8762,49 +8912,49 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J130" s="18">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M130" s="22" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N130" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O130" s="20" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="P130" s="10" t="s">
         <v>34</v>
@@ -8816,49 +8966,49 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
       <c r="J131" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K131" s="19" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M131" s="22" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N131" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O131" s="20" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="P131" s="10" t="s">
         <v>34</v>
@@ -8870,49 +9020,49 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="J132" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N132" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O132" s="20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P132" s="10" t="s">
         <v>34</v>
@@ -8924,49 +9074,49 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="J133" s="18">
         <v>1</v>
       </c>
       <c r="K133" s="19" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M133" s="22" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N133" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O133" s="20" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P133" s="10" t="s">
         <v>34</v>
@@ -8978,49 +9128,49 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J134" s="18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="L134" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N134" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O134" s="20" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="P134" s="10" t="s">
         <v>34</v>
@@ -9032,49 +9182,49 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="J135" s="18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="K135" s="19" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M135" s="22" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="N135" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O135" s="20" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P135" s="10" t="s">
         <v>34</v>
@@ -9083,6 +9233,1032 @@
       <c r="R135" s="17"/>
       <c r="S135" s="17"/>
       <c r="T135" s="16"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J136" s="18">
+        <v>5</v>
+      </c>
+      <c r="K136" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="L136" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M136" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N136" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O136" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="P136" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="17"/>
+      <c r="S136" s="17"/>
+      <c r="T136" s="16"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J137" s="18">
+        <v>1</v>
+      </c>
+      <c r="K137" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="L137" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M137" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N137" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O137" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="P137" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="17"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="16"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J138" s="18">
+        <v>14</v>
+      </c>
+      <c r="K138" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="L138" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M138" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N138" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O138" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="P138" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="17"/>
+      <c r="S138" s="17"/>
+      <c r="T138" s="16"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J139" s="18">
+        <v>14</v>
+      </c>
+      <c r="K139" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="L139" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M139" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N139" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O139" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="P139" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="17"/>
+      <c r="S139" s="17"/>
+      <c r="T139" s="16"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J140" s="18">
+        <v>14</v>
+      </c>
+      <c r="K140" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="L140" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M140" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N140" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O140" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="P140" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="17"/>
+      <c r="S140" s="17"/>
+      <c r="T140" s="16"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J141" s="18">
+        <v>14</v>
+      </c>
+      <c r="K141" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="L141" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M141" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N141" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O141" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="P141" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="17"/>
+      <c r="S141" s="17"/>
+      <c r="T141" s="16"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J142" s="18">
+        <v>14</v>
+      </c>
+      <c r="K142" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="L142" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M142" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N142" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O142" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="P142" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="17"/>
+      <c r="S142" s="17"/>
+      <c r="T142" s="16"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J143" s="18">
+        <v>14</v>
+      </c>
+      <c r="K143" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="L143" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M143" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N143" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O143" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="P143" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="17"/>
+      <c r="S143" s="17"/>
+      <c r="T143" s="16"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J144" s="18">
+        <v>27</v>
+      </c>
+      <c r="K144" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="L144" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M144" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N144" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O144" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="P144" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="17"/>
+      <c r="S144" s="17"/>
+      <c r="T144" s="16"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J145" s="18">
+        <v>33</v>
+      </c>
+      <c r="K145" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="L145" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M145" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N145" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O145" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="P145" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="16"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J146" s="18">
+        <v>33</v>
+      </c>
+      <c r="K146" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="L146" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M146" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N146" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O146" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="P146" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="17"/>
+      <c r="S146" s="17"/>
+      <c r="T146" s="16"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J147" s="18">
+        <v>40</v>
+      </c>
+      <c r="K147" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="L147" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M147" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="N147" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O147" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="P147" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="17"/>
+      <c r="S147" s="17"/>
+      <c r="T147" s="16"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J148" s="18">
+        <v>3</v>
+      </c>
+      <c r="K148" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="L148" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M148" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="N148" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O148" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="P148" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="17"/>
+      <c r="S148" s="17"/>
+      <c r="T148" s="16"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J149" s="18">
+        <v>40</v>
+      </c>
+      <c r="K149" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="L149" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M149" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="N149" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O149" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="P149" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="17"/>
+      <c r="S149" s="17"/>
+      <c r="T149" s="16"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J150" s="18">
+        <v>1</v>
+      </c>
+      <c r="K150" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="L150" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M150" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="N150" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O150" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="P150" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="17"/>
+      <c r="S150" s="17"/>
+      <c r="T150" s="16"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J151" s="18">
+        <v>6</v>
+      </c>
+      <c r="K151" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="L151" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M151" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="N151" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O151" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="P151" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="17"/>
+      <c r="S151" s="17"/>
+      <c r="T151" s="16"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J152" s="18">
+        <v>1</v>
+      </c>
+      <c r="K152" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="L152" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M152" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="N152" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O152" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="P152" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="17"/>
+      <c r="S152" s="17"/>
+      <c r="T152" s="16"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J153" s="18">
+        <v>52</v>
+      </c>
+      <c r="K153" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="L153" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M153" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="N153" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O153" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="P153" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="17"/>
+      <c r="S153" s="17"/>
+      <c r="T153" s="16"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J154" s="18">
+        <v>52</v>
+      </c>
+      <c r="K154" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="L154" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="M154" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="N154" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O154" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="P154" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="17"/>
+      <c r="S154" s="17"/>
+      <c r="T154" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/risks.xlsx
+++ b/Threagile_fullrun/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t>Severity</t>
   </si>
@@ -301,46 +301,181 @@
     <t>missing-authentication@S0&gt;s0-to-fw2@S0@FW2</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>CWE-16</t>
+  </si>
+  <si>
+    <t>Missing Hardening</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at S6</t>
+  </si>
+  <si>
+    <t>System Hardening</t>
+  </si>
+  <si>
+    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
+  </si>
+  <si>
+    <t>missing-hardening@S6</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>CWE-1008</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect TI1 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@TI1</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect TI2 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@TI2</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect S6 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@S6</t>
+  </si>
+  <si>
+    <t>Information Disclosure</t>
+  </si>
+  <si>
+    <t>CWE-522</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage) in the threat model (referencing asset TI1 as an example)</t>
+  </si>
+  <si>
+    <t>Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
+  </si>
+  <si>
+    <t>Is a Vault (Secret Storage) in place?</t>
+  </si>
+  <si>
+    <t>missing-vault@TI1</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>CWE-311</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Assets</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named TI1</t>
+  </si>
+  <si>
+    <t>Encryption of Technical Asset</t>
+  </si>
+  <si>
+    <t>Apply encryption to the technical asset.</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@TI1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named TI2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@TI2</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named DC1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@DC1</t>
+  </si>
+  <si>
+    <t>DC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named DC2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@DC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named FW4</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@FW4</t>
+  </si>
+  <si>
+    <t>OS1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named OS1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@OS1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC3</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC3</t>
+  </si>
+  <si>
     <t>Very Likely</t>
   </si>
   <si>
-    <t>Information Disclosure</t>
-  </si>
-  <si>
-    <t>CWE-22</t>
-  </si>
-  <si>
-    <t>Path-Traversal</t>
-  </si>
-  <si>
-    <t>S4-to-DC1</t>
-  </si>
-  <si>
-    <t>Path-Traversal risk at S4 against filesystem DC1 via S4-to-DC1</t>
-  </si>
-  <si>
-    <t>Path-Traversal Prevention</t>
-  </si>
-  <si>
-    <t>Before accessing the file cross-check that it resides in the expected folder and is of the expected type and filename/suffix. Try to use a mapping if possible instead of directly accessing by a filename which is (partly or fully) provided by the caller. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
-  </si>
-  <si>
-    <t>path-traversal@S4@DC1@S4&gt;s4-to-dc1</t>
-  </si>
-  <si>
     <t>CWE-501</t>
   </si>
   <si>
     <t>Unguarded Access From Internet</t>
   </si>
   <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S4-to-S6</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of S6 by S4 via S4-to-S6</t>
+    <t>S4-to-FW4</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of FW4 by S4 via S4-to-FW4</t>
   </si>
   <si>
     <t>Encapsulation of Technical Asset</t>
@@ -349,219 +484,24 @@
     <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
   </si>
   <si>
-    <t>unguarded-access-from-internet@S6@S4@S4&gt;s4-to-s6</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of DC1 by S4 via S4-to-DC1</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@DC1@S4@S4&gt;s4-to-dc1</t>
-  </si>
-  <si>
-    <t>S4-to-FW4</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of FW4 by S4 via S4-to-FW4</t>
-  </si>
-  <si>
     <t>unguarded-access-from-internet@FW4@S4@S4&gt;s4-to-fw4</t>
   </si>
   <si>
-    <t>S4-to-S3</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of S3 by S4 via S4-to-S3</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@S3@S4@S4&gt;s4-to-s3</t>
-  </si>
-  <si>
-    <t>Unlikely</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>CWE-912</t>
-  </si>
-  <si>
-    <t>Code Backdooring</t>
+    <t>CWE-200</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak</t>
   </si>
   <si>
     <t>S5</t>
   </si>
   <si>
-    <t>Code Backdooring risk at S5</t>
+    <t>Accidental Secret Leak risk at S5</t>
   </si>
   <si>
     <t>Build Pipeline Hardening</t>
   </si>
   <si>
-    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
-  </si>
-  <si>
-    <t>code-backdooring@S5</t>
-  </si>
-  <si>
-    <t>CWE-16</t>
-  </si>
-  <si>
-    <t>Missing Hardening</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at S6</t>
-  </si>
-  <si>
-    <t>System Hardening</t>
-  </si>
-  <si>
-    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
-  </si>
-  <si>
-    <t>missing-hardening@S6</t>
-  </si>
-  <si>
-    <t>CWE-1008</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect TI1 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@TI1</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect TI2 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@TI2</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect S6 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@S6</t>
-  </si>
-  <si>
-    <t>CWE-522</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage) in the threat model (referencing asset TI1 as an example)</t>
-  </si>
-  <si>
-    <t>Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
-  </si>
-  <si>
-    <t>Is a Vault (Secret Storage) in place?</t>
-  </si>
-  <si>
-    <t>missing-vault@TI1</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>CWE-311</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Assets</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named TI1</t>
-  </si>
-  <si>
-    <t>Encryption of Technical Asset</t>
-  </si>
-  <si>
-    <t>Apply encryption to the technical asset.</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@TI1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named TI2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@TI2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named DC1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@DC1</t>
-  </si>
-  <si>
-    <t>DC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named DC2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@DC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named FW4</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@FW4</t>
-  </si>
-  <si>
-    <t>OS1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named OS1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@OS1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC3</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC3</t>
-  </si>
-  <si>
-    <t>CWE-200</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at S5</t>
-  </si>
-  <si>
     <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
   </si>
   <si>
@@ -766,42 +706,6 @@
     <t>incomplete-model@S1&gt;s1-to-r3@S1</t>
   </si>
   <si>
-    <t>Unknown Protocol specified for communication link S4-to-DC1 at technical asset S4</t>
-  </si>
-  <si>
-    <t>incomplete-model@S4&gt;s4-to-dc1@S4</t>
-  </si>
-  <si>
-    <t>S4-to-S2</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link S4-to-S2 at technical asset S4</t>
-  </si>
-  <si>
-    <t>incomplete-model@S4&gt;s4-to-s2@S4</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link S4-to-S3 at technical asset S4</t>
-  </si>
-  <si>
-    <t>incomplete-model@S4&gt;s4-to-s3@S4</t>
-  </si>
-  <si>
-    <t>S4-to-S5</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link S4-to-S5 at technical asset S4</t>
-  </si>
-  <si>
-    <t>incomplete-model@S4&gt;s4-to-s5@S4</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link S4-to-S6 at technical asset S4</t>
-  </si>
-  <si>
-    <t>incomplete-model@S4&gt;s4-to-s6@S4</t>
-  </si>
-  <si>
     <t>CWE-284</t>
   </si>
   <si>
@@ -823,12 +727,6 @@
     <t>missing-identity-propagation@FW4&gt;fw4-to-s3@FW4@S3</t>
   </si>
   <si>
-    <t>Missing Enduser Identity Propagation over communication link S4-to-S3 from S4 to S3</t>
-  </si>
-  <si>
-    <t>missing-identity-propagation@S4&gt;s4-to-s3@S4@S3</t>
-  </si>
-  <si>
     <t>CWE-1127</t>
   </si>
   <si>
@@ -991,42 +889,12 @@
     <t>unnecessary-communication-link@S1&gt;s1-to-r3@S1</t>
   </si>
   <si>
-    <t>Unnecessary Communication Link titled S4-to-DC1 at technical asset S4</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@S4&gt;s4-to-dc1@S4</t>
-  </si>
-  <si>
     <t>Unnecessary Communication Link titled S4-to-FW4 at technical asset S4</t>
   </si>
   <si>
     <t>unnecessary-communication-link@S4&gt;s4-to-fw4@S4</t>
   </si>
   <si>
-    <t>Unnecessary Communication Link titled S4-to-S2 at technical asset S4</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@S4&gt;s4-to-s2@S4</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled S4-to-S3 at technical asset S4</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@S4&gt;s4-to-s3@S4</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled S4-to-S5 at technical asset S4</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@S4&gt;s4-to-s5@S4</t>
-  </si>
-  <si>
-    <t>Unnecessary Communication Link titled S4-to-S6 at technical asset S4</t>
-  </si>
-  <si>
-    <t>unnecessary-communication-link@S4&gt;s4-to-s6@S4</t>
-  </si>
-  <si>
     <t>Unnecessary Communication Link titled WC1-to-FW3 at technical asset WC1</t>
   </si>
   <si>
@@ -1063,6 +931,12 @@
     <t>unnecessary-technical-asset@C2</t>
   </si>
   <si>
+    <t>Unnecessary Technical Asset named DC1</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@DC1</t>
+  </si>
+  <si>
     <t>Unnecessary Technical Asset named DC2</t>
   </si>
   <si>
@@ -1162,6 +1036,12 @@
     <t>unnecessary-technical-asset@S5</t>
   </si>
   <si>
+    <t>Unnecessary Technical Asset named S6</t>
+  </si>
+  <si>
+    <t>unnecessary-technical-asset@S6</t>
+  </si>
+  <si>
     <t>Wrong Communication Link Content</t>
   </si>
   <si>
@@ -1297,40 +1177,10 @@
     <t>wrong-communication-link-content@S1@S1&gt;s1-to-r3</t>
   </si>
   <si>
-    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-DC1</t>
-  </si>
-  <si>
-    <t>wrong-communication-link-content@S4@S4&gt;s4-to-dc1</t>
-  </si>
-  <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-FW4</t>
   </si>
   <si>
     <t>wrong-communication-link-content@S4@S4&gt;s4-to-fw4</t>
-  </si>
-  <si>
-    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S2</t>
-  </si>
-  <si>
-    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s2</t>
-  </si>
-  <si>
-    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S3</t>
-  </si>
-  <si>
-    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s3</t>
-  </si>
-  <si>
-    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S5</t>
-  </si>
-  <si>
-    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s5</t>
-  </si>
-  <si>
-    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S6</t>
-  </si>
-  <si>
-    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s6</t>
   </si>
   <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC1 regarding communication link WC1-to-FW3</t>
@@ -2189,7 +2039,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>42</v>
@@ -2917,35 +2767,35 @@
       <c r="T18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="I19" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J19" s="18">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>100</v>
@@ -2971,50 +2821,50 @@
       <c r="T19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="E20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="H20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="18">
+        <v>52</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="18">
-        <v>100</v>
-      </c>
-      <c r="K20" s="19" t="s">
+      <c r="L20" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="M20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="N20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>34</v>
@@ -3029,46 +2879,46 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="J21" s="18">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L21" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="22" t="s">
-        <v>110</v>
-      </c>
       <c r="N21" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P21" s="10" t="s">
         <v>34</v>
@@ -3079,50 +2929,50 @@
       <c r="T21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="A22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>116</v>
+      <c r="E22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J22" s="18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L22" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="22" t="s">
-        <v>110</v>
-      </c>
       <c r="N22" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P22" s="10" t="s">
         <v>34</v>
@@ -3137,46 +2987,46 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="18">
+        <v>52</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="18">
-        <v>38</v>
-      </c>
-      <c r="K23" s="19" t="s">
+      <c r="M23" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>110</v>
-      </c>
       <c r="N23" s="22" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>34</v>
@@ -3191,16 +3041,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>124</v>
@@ -3209,28 +3059,28 @@
         <v>125</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="18">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K24" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="M24" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="N24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>34</v>
@@ -3245,46 +3095,46 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="18">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>34</v>
@@ -3299,46 +3149,46 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="18">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>34</v>
@@ -3353,46 +3203,46 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J27" s="18">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>34</v>
@@ -3403,50 +3253,50 @@
       <c r="T27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="A28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="18">
+        <v>10</v>
+      </c>
+      <c r="K28" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="18">
-        <v>100</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>145</v>
-      </c>
       <c r="L28" s="22" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>34</v>
@@ -3461,46 +3311,46 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="F29" s="8" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="18">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>34</v>
@@ -3515,46 +3365,46 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="F30" s="8" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="18">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>34</v>
@@ -3569,46 +3419,46 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="18">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>34</v>
@@ -3623,46 +3473,46 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="F32" s="8" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>34</v>
@@ -3677,46 +3527,46 @@
         <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="18">
+        <v>10</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M33" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="N33" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="18">
-        <v>40</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="M33" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="20" t="s">
-        <v>167</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>34</v>
@@ -3727,50 +3577,50 @@
       <c r="T33" s="16"/>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="A34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="F34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>34</v>
@@ -3781,50 +3631,50 @@
       <c r="T34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="A35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="F35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="18">
+        <v>4</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="18">
-        <v>40</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>34</v>
@@ -3835,50 +3685,50 @@
       <c r="T35" s="16"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="A36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>28</v>
+      <c r="F36" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="J36" s="18">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K36" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>174</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>34</v>
@@ -3889,44 +3739,44 @@
       <c r="T36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="A37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>28</v>
+      <c r="F37" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="J37" s="18">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>175</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>32</v>
@@ -3943,50 +3793,50 @@
       <c r="T37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="A38" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>28</v>
+      <c r="F38" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="J38" s="18">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>34</v>
@@ -3998,49 +3848,49 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="F39" s="10" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="18">
+        <v>10</v>
+      </c>
+      <c r="K39" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="18">
-        <v>14</v>
-      </c>
-      <c r="K39" s="19" t="s">
+      <c r="L39" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M39" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="N39" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="P39" s="10" t="s">
         <v>34</v>
@@ -4052,49 +3902,49 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
+      <c r="K40" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="10" t="s">
+      <c r="L40" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="M40" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="18">
-        <v>4</v>
-      </c>
-      <c r="K40" s="19" t="s">
+      <c r="N40" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M40" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="N40" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="P40" s="10" t="s">
         <v>34</v>
@@ -4106,49 +3956,49 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="18">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L41" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="M41" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="9" t="s">
+      <c r="N41" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="J41" s="18">
-        <v>6</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="N41" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="20" t="s">
-        <v>193</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>34</v>
@@ -4160,49 +4010,49 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="18">
+        <v>3</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L42" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="M42" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J42" s="18">
-        <v>6</v>
-      </c>
-      <c r="K42" s="19" t="s">
+      <c r="N42" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="20" t="s">
         <v>195</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M42" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="N42" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="20" t="s">
-        <v>196</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>34</v>
@@ -4214,49 +4064,49 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J43" s="18">
+        <v>4</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="M43" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J43" s="18">
-        <v>6</v>
-      </c>
-      <c r="K43" s="19" t="s">
+      <c r="N43" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M43" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="N43" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>199</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>34</v>
@@ -4268,49 +4118,49 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="18">
+        <v>4</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L44" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="M44" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="18">
-        <v>10</v>
-      </c>
-      <c r="K44" s="19" t="s">
+      <c r="N44" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="20" t="s">
         <v>200</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="N44" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="20" t="s">
-        <v>201</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>34</v>
@@ -4322,49 +4172,49 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G45" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="18">
+        <v>6</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J45" s="18">
-        <v>0</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="M45" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="N45" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>34</v>
@@ -4376,49 +4226,49 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="J46" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N46" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>34</v>
@@ -4430,49 +4280,49 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="J47" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M47" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="N47" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="20" t="s">
-        <v>215</v>
       </c>
       <c r="P47" s="10" t="s">
         <v>34</v>
@@ -4484,49 +4334,49 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="J48" s="18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N48" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>34</v>
@@ -4538,49 +4388,49 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="J49" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P49" s="10" t="s">
         <v>34</v>
@@ -4592,49 +4442,49 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="J50" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N50" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P50" s="10" t="s">
         <v>34</v>
@@ -4646,49 +4496,49 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="J51" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N51" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P51" s="10" t="s">
         <v>34</v>
@@ -4700,49 +4550,49 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J52" s="18">
         <v>6</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N52" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P52" s="10" t="s">
         <v>34</v>
@@ -4754,49 +4604,49 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J53" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P53" s="10" t="s">
         <v>34</v>
@@ -4808,49 +4658,49 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J54" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -4862,49 +4712,49 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J55" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N55" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -4916,49 +4766,49 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="H56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J56" s="18">
+        <v>38</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="N56" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="20" t="s">
         <v>236</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J56" s="18">
-        <v>1</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="L56" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="M56" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="N56" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="20" t="s">
-        <v>239</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -4970,49 +4820,49 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="H57" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="18">
+        <v>14</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="M57" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J57" s="18">
-        <v>6</v>
-      </c>
-      <c r="K57" s="19" t="s">
+      <c r="N57" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="L57" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="M57" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="N57" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="20" t="s">
-        <v>242</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>34</v>
@@ -5024,49 +4874,49 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="J58" s="18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>243</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>34</v>
@@ -5078,49 +4928,49 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="J59" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K59" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="M59" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="L59" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="M59" s="22" t="s">
-        <v>206</v>
-      </c>
       <c r="N59" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P59" s="10" t="s">
         <v>34</v>
@@ -5132,49 +4982,49 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="J60" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="N60" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>34</v>
@@ -5186,49 +5036,49 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="J61" s="18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="N61" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>34</v>
@@ -5240,43 +5090,43 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="J62" s="18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K62" s="19" t="s">
         <v>253</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>32</v>
@@ -5294,49 +5144,49 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="J63" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="N63" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>34</v>
@@ -5348,43 +5198,43 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="J64" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K64" s="19" t="s">
         <v>258</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="N64" s="22" t="s">
         <v>32</v>
@@ -5402,43 +5252,43 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="J65" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K65" s="19" t="s">
         <v>260</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="N65" s="22" t="s">
         <v>32</v>
@@ -5456,13 +5306,13 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>53</v>
@@ -5471,34 +5321,34 @@
         <v>54</v>
       </c>
       <c r="F66" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J66" s="18">
+        <v>6</v>
+      </c>
+      <c r="K66" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="L66" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="20" t="s">
         <v>263</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="J66" s="18">
-        <v>38</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="M66" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="N66" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="20" t="s">
-        <v>268</v>
       </c>
       <c r="P66" s="10" t="s">
         <v>34</v>
@@ -5510,13 +5360,13 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>53</v>
@@ -5525,34 +5375,34 @@
         <v>54</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="J67" s="18">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P67" s="10" t="s">
         <v>34</v>
@@ -5564,49 +5414,49 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="J68" s="18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P68" s="10" t="s">
         <v>34</v>
@@ -5618,13 +5468,13 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>53</v>
@@ -5633,34 +5483,34 @@
         <v>54</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="J69" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="P69" s="10" t="s">
         <v>34</v>
@@ -5672,13 +5522,13 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>53</v>
@@ -5687,34 +5537,34 @@
         <v>54</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="J70" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N70" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>34</v>
@@ -5726,13 +5576,13 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>53</v>
@@ -5741,34 +5591,34 @@
         <v>54</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="J71" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N71" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>34</v>
@@ -5780,13 +5630,13 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>53</v>
@@ -5795,34 +5645,34 @@
         <v>54</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G72" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="H72" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="J72" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L72" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="M72" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="N72" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" s="20" t="s">
-        <v>286</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>34</v>
@@ -5834,13 +5684,13 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>53</v>
@@ -5849,34 +5699,34 @@
         <v>54</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="J73" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>34</v>
@@ -5888,13 +5738,13 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>53</v>
@@ -5903,34 +5753,34 @@
         <v>54</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="J74" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>34</v>
@@ -5942,13 +5792,13 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>53</v>
@@ -5957,34 +5807,34 @@
         <v>54</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="J75" s="18">
         <v>6</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>34</v>
@@ -5996,13 +5846,13 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>53</v>
@@ -6011,34 +5861,34 @@
         <v>54</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="J76" s="18">
         <v>6</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>34</v>
@@ -6050,13 +5900,13 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>53</v>
@@ -6065,34 +5915,34 @@
         <v>54</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J77" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>34</v>
@@ -6104,13 +5954,13 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>53</v>
@@ -6119,34 +5969,34 @@
         <v>54</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="J78" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N78" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P78" s="10" t="s">
         <v>34</v>
@@ -6158,13 +6008,13 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>53</v>
@@ -6173,34 +6023,34 @@
         <v>54</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="J79" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N79" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="P79" s="10" t="s">
         <v>34</v>
@@ -6212,13 +6062,13 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>53</v>
@@ -6227,34 +6077,34 @@
         <v>54</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="J80" s="18">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N80" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="P80" s="10" t="s">
         <v>34</v>
@@ -6266,13 +6116,13 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>53</v>
@@ -6281,34 +6131,34 @@
         <v>54</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="J81" s="18">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N81" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="P81" s="10" t="s">
         <v>34</v>
@@ -6320,13 +6170,13 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>53</v>
@@ -6335,34 +6185,34 @@
         <v>54</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="J82" s="18">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="P82" s="10" t="s">
         <v>34</v>
@@ -6374,13 +6224,13 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>53</v>
@@ -6389,34 +6239,34 @@
         <v>54</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="J83" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N83" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P83" s="10" t="s">
         <v>34</v>
@@ -6428,13 +6278,13 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>53</v>
@@ -6443,34 +6293,34 @@
         <v>54</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="J84" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N84" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="P84" s="10" t="s">
         <v>34</v>
@@ -6482,13 +6332,13 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>53</v>
@@ -6497,34 +6347,34 @@
         <v>54</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="J85" s="18">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N85" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="P85" s="10" t="s">
         <v>34</v>
@@ -6536,13 +6386,13 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>53</v>
@@ -6551,34 +6401,34 @@
         <v>54</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="J86" s="18">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="P86" s="10" t="s">
         <v>34</v>
@@ -6590,13 +6440,13 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>53</v>
@@ -6605,34 +6455,34 @@
         <v>54</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J87" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="P87" s="10" t="s">
         <v>34</v>
@@ -6644,13 +6494,13 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>53</v>
@@ -6659,34 +6509,34 @@
         <v>54</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="J88" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="P88" s="10" t="s">
         <v>34</v>
@@ -6698,13 +6548,13 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>53</v>
@@ -6713,34 +6563,34 @@
         <v>54</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="J89" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P89" s="10" t="s">
         <v>34</v>
@@ -6752,13 +6602,13 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>53</v>
@@ -6767,34 +6617,34 @@
         <v>54</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="J90" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M90" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>34</v>
@@ -6806,13 +6656,13 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>53</v>
@@ -6821,34 +6671,34 @@
         <v>54</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="J91" s="18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M91" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>34</v>
@@ -6860,13 +6710,13 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>53</v>
@@ -6875,34 +6725,34 @@
         <v>54</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="J92" s="18">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N92" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>34</v>
@@ -6914,13 +6764,13 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>53</v>
@@ -6929,34 +6779,34 @@
         <v>54</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="J93" s="18">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>34</v>
@@ -6968,13 +6818,13 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>53</v>
@@ -6983,34 +6833,34 @@
         <v>54</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="J94" s="18">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N94" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>34</v>
@@ -7022,13 +6872,13 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>53</v>
@@ -7037,34 +6887,34 @@
         <v>54</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="J95" s="18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N95" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>34</v>
@@ -7076,13 +6926,13 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>53</v>
@@ -7091,34 +6941,34 @@
         <v>54</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="J96" s="18">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N96" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P96" s="10" t="s">
         <v>34</v>
@@ -7130,13 +6980,13 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>53</v>
@@ -7145,34 +6995,34 @@
         <v>54</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="J97" s="18">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N97" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="P97" s="10" t="s">
         <v>34</v>
@@ -7184,13 +7034,13 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>53</v>
@@ -7199,34 +7049,34 @@
         <v>54</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="J98" s="18">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N98" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P98" s="10" t="s">
         <v>34</v>
@@ -7238,13 +7088,13 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>53</v>
@@ -7253,34 +7103,34 @@
         <v>54</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J99" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="P99" s="10" t="s">
         <v>34</v>
@@ -7292,13 +7142,13 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>53</v>
@@ -7307,34 +7157,34 @@
         <v>54</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J100" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P100" s="10" t="s">
         <v>34</v>
@@ -7346,13 +7196,13 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>53</v>
@@ -7361,34 +7211,34 @@
         <v>54</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J101" s="18">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>34</v>
@@ -7400,13 +7250,13 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>53</v>
@@ -7415,34 +7265,34 @@
         <v>54</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J102" s="18">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>34</v>
@@ -7454,40 +7304,40 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G103" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J103" s="18">
+        <v>0</v>
+      </c>
+      <c r="K103" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J103" s="18">
-        <v>4</v>
-      </c>
-      <c r="K103" s="19" t="s">
-        <v>353</v>
-      </c>
       <c r="L103" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M103" s="22" t="s">
         <v>345</v>
@@ -7496,7 +7346,7 @@
         <v>32</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>34</v>
@@ -7508,40 +7358,40 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="J104" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M104" s="22" t="s">
         <v>345</v>
@@ -7550,7 +7400,7 @@
         <v>32</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>34</v>
@@ -7562,40 +7412,40 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="J105" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M105" s="22" t="s">
         <v>345</v>
@@ -7604,7 +7454,7 @@
         <v>32</v>
       </c>
       <c r="O105" s="20" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P105" s="10" t="s">
         <v>34</v>
@@ -7616,40 +7466,40 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="J106" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L106" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M106" s="22" t="s">
         <v>345</v>
@@ -7658,7 +7508,7 @@
         <v>32</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>34</v>
@@ -7670,40 +7520,40 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J107" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M107" s="22" t="s">
         <v>345</v>
@@ -7712,7 +7562,7 @@
         <v>32</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>34</v>
@@ -7724,40 +7574,40 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="J108" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M108" s="22" t="s">
         <v>345</v>
@@ -7766,7 +7616,7 @@
         <v>32</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="P108" s="10" t="s">
         <v>34</v>
@@ -7778,40 +7628,40 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J109" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M109" s="22" t="s">
         <v>345</v>
@@ -7820,7 +7670,7 @@
         <v>32</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P109" s="10" t="s">
         <v>34</v>
@@ -7832,40 +7682,40 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="J110" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M110" s="22" t="s">
         <v>345</v>
@@ -7874,7 +7724,7 @@
         <v>32</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P110" s="10" t="s">
         <v>34</v>
@@ -7886,40 +7736,40 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="J111" s="18">
         <v>6</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L111" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M111" s="22" t="s">
         <v>345</v>
@@ -7928,7 +7778,7 @@
         <v>32</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="P111" s="10" t="s">
         <v>34</v>
@@ -7940,40 +7790,40 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J112" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L112" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M112" s="22" t="s">
         <v>345</v>
@@ -7982,7 +7832,7 @@
         <v>32</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P112" s="10" t="s">
         <v>34</v>
@@ -7994,40 +7844,40 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="J113" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M113" s="22" t="s">
         <v>345</v>
@@ -8036,7 +7886,7 @@
         <v>32</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P113" s="10" t="s">
         <v>34</v>
@@ -8048,40 +7898,40 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="J114" s="18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M114" s="22" t="s">
         <v>345</v>
@@ -8090,7 +7940,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="P114" s="10" t="s">
         <v>34</v>
@@ -8102,40 +7952,40 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="J115" s="18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K115" s="19" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M115" s="22" t="s">
         <v>345</v>
@@ -8144,7 +7994,7 @@
         <v>32</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P115" s="10" t="s">
         <v>34</v>
@@ -8156,40 +8006,40 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J116" s="18">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="M116" s="22" t="s">
         <v>345</v>
@@ -8198,7 +8048,7 @@
         <v>32</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="P116" s="10" t="s">
         <v>34</v>
@@ -8210,49 +8060,49 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="J117" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M117" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N117" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="P117" s="10" t="s">
         <v>34</v>
@@ -8264,49 +8114,49 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J118" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="L118" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M118" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N118" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="P118" s="10" t="s">
         <v>34</v>
@@ -8318,49 +8168,49 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J119" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M119" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N119" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="P119" s="10" t="s">
         <v>34</v>
@@ -8372,49 +8222,49 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="J120" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="P120" s="10" t="s">
         <v>34</v>
@@ -8426,49 +8276,49 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G121" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J121" s="18">
+        <v>6</v>
+      </c>
+      <c r="K121" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="L121" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M121" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N121" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O121" s="20" t="s">
         <v>382</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J121" s="18">
-        <v>4</v>
-      </c>
-      <c r="K121" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="L121" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M121" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N121" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O121" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="P121" s="10" t="s">
         <v>34</v>
@@ -8480,49 +8330,49 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="J122" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K122" s="19" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="L122" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M122" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="N122" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O122" s="20" t="s">
         <v>384</v>
-      </c>
-      <c r="M122" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N122" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O122" s="20" t="s">
-        <v>396</v>
       </c>
       <c r="P122" s="10" t="s">
         <v>34</v>
@@ -8534,49 +8384,49 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="J123" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="L123" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M123" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N123" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O123" s="20" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="P123" s="10" t="s">
         <v>34</v>
@@ -8588,49 +8438,49 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="J124" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L124" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N124" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O124" s="20" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="P124" s="10" t="s">
         <v>34</v>
@@ -8642,49 +8492,49 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="J125" s="18">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N125" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O125" s="20" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P125" s="10" t="s">
         <v>34</v>
@@ -8696,49 +8546,49 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="J126" s="18">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M126" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N126" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O126" s="20" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="P126" s="10" t="s">
         <v>34</v>
@@ -8750,49 +8600,49 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="J127" s="18">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M127" s="22" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="N127" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O127" s="20" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="P127" s="10" t="s">
         <v>34</v>
@@ -8804,49 +8654,49 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="J128" s="18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K128" s="19" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N128" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O128" s="20" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P128" s="10" t="s">
         <v>34</v>
@@ -8858,49 +8708,49 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="J129" s="18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K129" s="19" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M129" s="22" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N129" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O129" s="20" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="P129" s="10" t="s">
         <v>34</v>
@@ -8912,49 +8762,49 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="J130" s="18">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M130" s="22" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N130" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O130" s="20" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="P130" s="10" t="s">
         <v>34</v>
@@ -8966,49 +8816,49 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="J131" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" s="19" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M131" s="22" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N131" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O131" s="20" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="P131" s="10" t="s">
         <v>34</v>
@@ -9020,49 +8870,49 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="J132" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N132" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O132" s="20" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="P132" s="10" t="s">
         <v>34</v>
@@ -9074,49 +8924,49 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="J133" s="18">
         <v>1</v>
       </c>
       <c r="K133" s="19" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M133" s="22" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N133" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O133" s="20" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P133" s="10" t="s">
         <v>34</v>
@@ -9128,49 +8978,49 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="J134" s="18">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L134" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N134" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O134" s="20" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="P134" s="10" t="s">
         <v>34</v>
@@ -9182,49 +9032,49 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J135" s="18">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="K135" s="19" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M135" s="22" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="N135" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O135" s="20" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="P135" s="10" t="s">
         <v>34</v>
@@ -9233,1032 +9083,6 @@
       <c r="R135" s="17"/>
       <c r="S135" s="17"/>
       <c r="T135" s="16"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J136" s="18">
-        <v>5</v>
-      </c>
-      <c r="K136" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="L136" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M136" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N136" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O136" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="P136" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17"/>
-      <c r="T136" s="16"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I137" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J137" s="18">
-        <v>1</v>
-      </c>
-      <c r="K137" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="L137" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M137" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N137" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O137" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="P137" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="17"/>
-      <c r="S137" s="17"/>
-      <c r="T137" s="16"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F138" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J138" s="18">
-        <v>14</v>
-      </c>
-      <c r="K138" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="L138" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M138" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N138" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O138" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="P138" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="17"/>
-      <c r="S138" s="17"/>
-      <c r="T138" s="16"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J139" s="18">
-        <v>14</v>
-      </c>
-      <c r="K139" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="L139" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M139" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N139" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O139" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="P139" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="17"/>
-      <c r="S139" s="17"/>
-      <c r="T139" s="16"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="J140" s="18">
-        <v>14</v>
-      </c>
-      <c r="K140" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="L140" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M140" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N140" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O140" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="P140" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q140" s="19"/>
-      <c r="R140" s="17"/>
-      <c r="S140" s="17"/>
-      <c r="T140" s="16"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I141" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J141" s="18">
-        <v>14</v>
-      </c>
-      <c r="K141" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="L141" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M141" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N141" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O141" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="P141" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="17"/>
-      <c r="S141" s="17"/>
-      <c r="T141" s="16"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I142" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J142" s="18">
-        <v>14</v>
-      </c>
-      <c r="K142" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="L142" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M142" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N142" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O142" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="P142" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="17"/>
-      <c r="S142" s="17"/>
-      <c r="T142" s="16"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I143" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J143" s="18">
-        <v>14</v>
-      </c>
-      <c r="K143" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="L143" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M143" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N143" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O143" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="P143" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q143" s="19"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="17"/>
-      <c r="T143" s="16"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I144" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J144" s="18">
-        <v>27</v>
-      </c>
-      <c r="K144" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="L144" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M144" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N144" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O144" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="P144" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q144" s="19"/>
-      <c r="R144" s="17"/>
-      <c r="S144" s="17"/>
-      <c r="T144" s="16"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J145" s="18">
-        <v>33</v>
-      </c>
-      <c r="K145" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="L145" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M145" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N145" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O145" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="P145" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q145" s="19"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="17"/>
-      <c r="T145" s="16"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F146" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I146" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J146" s="18">
-        <v>33</v>
-      </c>
-      <c r="K146" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="L146" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M146" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N146" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O146" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="P146" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="17"/>
-      <c r="S146" s="17"/>
-      <c r="T146" s="16"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F147" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="I147" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J147" s="18">
-        <v>40</v>
-      </c>
-      <c r="K147" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="L147" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M147" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N147" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O147" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="P147" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q147" s="19"/>
-      <c r="R147" s="17"/>
-      <c r="S147" s="17"/>
-      <c r="T147" s="16"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I148" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J148" s="18">
-        <v>3</v>
-      </c>
-      <c r="K148" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="L148" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M148" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N148" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O148" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="P148" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q148" s="19"/>
-      <c r="R148" s="17"/>
-      <c r="S148" s="17"/>
-      <c r="T148" s="16"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I149" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J149" s="18">
-        <v>40</v>
-      </c>
-      <c r="K149" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="L149" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M149" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N149" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O149" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="P149" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q149" s="19"/>
-      <c r="R149" s="17"/>
-      <c r="S149" s="17"/>
-      <c r="T149" s="16"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="I150" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J150" s="18">
-        <v>1</v>
-      </c>
-      <c r="K150" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="L150" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M150" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N150" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O150" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="P150" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q150" s="19"/>
-      <c r="R150" s="17"/>
-      <c r="S150" s="17"/>
-      <c r="T150" s="16"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J151" s="18">
-        <v>6</v>
-      </c>
-      <c r="K151" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="L151" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M151" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N151" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O151" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="P151" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q151" s="19"/>
-      <c r="R151" s="17"/>
-      <c r="S151" s="17"/>
-      <c r="T151" s="16"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F152" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I152" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J152" s="18">
-        <v>1</v>
-      </c>
-      <c r="K152" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="L152" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M152" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N152" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O152" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="P152" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="17"/>
-      <c r="S152" s="17"/>
-      <c r="T152" s="16"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I153" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J153" s="18">
-        <v>52</v>
-      </c>
-      <c r="K153" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="L153" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M153" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N153" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O153" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="P153" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q153" s="19"/>
-      <c r="R153" s="17"/>
-      <c r="S153" s="17"/>
-      <c r="T153" s="16"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I154" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J154" s="18">
-        <v>52</v>
-      </c>
-      <c r="K154" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="L154" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M154" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="N154" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O154" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="P154" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="17"/>
-      <c r="T154" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/risks.xlsx
+++ b/Threagile_fullrun/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
   <si>
     <t>Severity</t>
   </si>
@@ -187,465 +187,507 @@
     <t>Missing Authentication</t>
   </si>
   <si>
+    <t>TI1</t>
+  </si>
+  <si>
+    <t>R4-to-TI1</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link R4-to-TI1 from R4 to TI1</t>
+  </si>
+  <si>
+    <t>Authentication of Incoming Requests</t>
+  </si>
+  <si>
+    <t>Apply an authentication method to the technical asset. To protect highly sensitive data consider the use of two-factor authentication for human users.</t>
+  </si>
+  <si>
+    <t>missing-authentication@R4&gt;r4-to-ti1@R4@TI1</t>
+  </si>
+  <si>
+    <t>TI2</t>
+  </si>
+  <si>
+    <t>R4-to-TI2</t>
+  </si>
+  <si>
+    <t>Missing Authentication covering communication link R4-to-TI2 from R4 to TI2</t>
+  </si>
+  <si>
+    <t>missing-authentication@R4&gt;r4-to-ti2@R4@TI2</t>
+  </si>
+  <si>
+    <t>Very Likely</t>
+  </si>
+  <si>
+    <t>Information Disclosure</t>
+  </si>
+  <si>
+    <t>CWE-22</t>
+  </si>
+  <si>
+    <t>Path-Traversal</t>
+  </si>
+  <si>
+    <t>S4-to-DC1</t>
+  </si>
+  <si>
+    <t>Path-Traversal risk at S4 against filesystem DC1 via S4-to-DC1</t>
+  </si>
+  <si>
+    <t>Path-Traversal Prevention</t>
+  </si>
+  <si>
+    <t>Before accessing the file cross-check that it resides in the expected folder and is of the expected type and filename/suffix. Try to use a mapping if possible instead of directly accessing by a filename which is (partly or fully) provided by the caller. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
+  </si>
+  <si>
+    <t>path-traversal@S4@DC1@S4&gt;s4-to-dc1</t>
+  </si>
+  <si>
+    <t>CWE-501</t>
+  </si>
+  <si>
+    <t>Unguarded Access From Internet</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S4-to-S6</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of S6 by S4 via S4-to-S6</t>
+  </si>
+  <si>
+    <t>Encapsulation of Technical Asset</t>
+  </si>
+  <si>
+    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@S6@S4@S4&gt;s4-to-s6</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of DC1 by S4 via S4-to-DC1</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@DC1@S4@S4&gt;s4-to-dc1</t>
+  </si>
+  <si>
+    <t>FW4</t>
+  </si>
+  <si>
+    <t>S4-to-FW4</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of FW4 by S4 via S4-to-FW4</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@FW4@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
+    <t>S4-to-S3</t>
+  </si>
+  <si>
+    <t>Unguarded Access from Internet of S3 by S4 via S4-to-S3</t>
+  </si>
+  <si>
+    <t>unguarded-access-from-internet@S3@S4@S4&gt;s4-to-s3</t>
+  </si>
+  <si>
+    <t>Unlikely</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>CWE-912</t>
+  </si>
+  <si>
+    <t>Code Backdooring</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Code Backdooring risk at S5</t>
+  </si>
+  <si>
+    <t>Build Pipeline Hardening</t>
+  </si>
+  <si>
+    <t>Reduce the attack surface of backdooring the build pipeline by not directly exposing the build pipeline components on the public internet and also not exposing it in front of unmanaged (out-of-scope) developer clients.Also consider the use of code signing to prevent code modifications.</t>
+  </si>
+  <si>
+    <t>code-backdooring@S5</t>
+  </si>
+  <si>
+    <t>CWE-16</t>
+  </si>
+  <si>
+    <t>Missing Hardening</t>
+  </si>
+  <si>
+    <t>OS1</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at OS1</t>
+  </si>
+  <si>
+    <t>System Hardening</t>
+  </si>
+  <si>
+    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
+  </si>
+  <si>
+    <t>missing-hardening@OS1</t>
+  </si>
+  <si>
+    <t>Missing Hardening risk at S6</t>
+  </si>
+  <si>
+    <t>missing-hardening@S6</t>
+  </si>
+  <si>
+    <t>CWE-1008</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect TI1 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@TI1</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect TI2 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@TI2</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect OS1 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@OS1</t>
+  </si>
+  <si>
+    <t>Missing Network Segmentation to further encapsulate and protect S6 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
+  </si>
+  <si>
+    <t>missing-network-segmentation@S6</t>
+  </si>
+  <si>
+    <t>CWE-522</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Missing Vault (Secret Storage) in the threat model (referencing asset TI1 as an example)</t>
+  </si>
+  <si>
+    <t>Vault (Secret Storage)</t>
+  </si>
+  <si>
+    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
+  </si>
+  <si>
+    <t>Is a Vault (Secret Storage) in place?</t>
+  </si>
+  <si>
+    <t>missing-vault@TI1</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>CWE-311</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Assets</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named TI1</t>
+  </si>
+  <si>
+    <t>Encryption of Technical Asset</t>
+  </si>
+  <si>
+    <t>Apply encryption to the technical asset.</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@TI1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named TI2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@TI2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named DC1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@DC1</t>
+  </si>
+  <si>
+    <t>DC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named DC2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@DC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named FW4</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@FW4</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named OS1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@OS1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC1</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC1</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC2</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC2</t>
+  </si>
+  <si>
+    <t>Unencrypted Technical Asset named WC3</t>
+  </si>
+  <si>
+    <t>unencrypted-asset@WC3</t>
+  </si>
+  <si>
+    <t>CWE-200</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak</t>
+  </si>
+  <si>
+    <t>Accidental Secret Leak risk at S5</t>
+  </si>
+  <si>
+    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t>accidental-secret-leak@S5</t>
+  </si>
+  <si>
+    <t>Denial of Service</t>
+  </si>
+  <si>
+    <t>CWE-400</t>
+  </si>
+  <si>
+    <t>DoS-risky Access Across Trust-Boundary</t>
+  </si>
+  <si>
+    <t>FW2</t>
+  </si>
+  <si>
+    <t>S0-to-FW2</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW2 by S0 via S0-to-FW2</t>
+  </si>
+  <si>
+    <t>Anti-DoS Measures</t>
+  </si>
+  <si>
+    <t>Apply anti-DoS techniques like throttling and/or per-client load blocking with quotas. Also for maintenance access routes consider applying a VPN instead of public reachable interfaces. Generally applying redundancy on the targeted technical asset reduces the risk of DoS.</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW2@S0@S0&gt;s0-to-fw2</t>
+  </si>
+  <si>
+    <t>FW3</t>
+  </si>
+  <si>
+    <t>WC1-to-FW3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC1 via WC1-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC1@WC1&gt;wc1-to-fw3</t>
+  </si>
+  <si>
+    <t>WC2-to-FW3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC2 via WC2-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC2@WC2&gt;wc2-to-fw3</t>
+  </si>
+  <si>
+    <t>WC3-to-FW3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW3 by WC3 via WC3-to-FW3</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW3@WC3@WC3&gt;wc3-to-fw3</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of FW4 by S4 via S4-to-FW4</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@FW4@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
+    <t>Incomplete Model</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C1-to-FW1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link C1-to-FW1 at technical asset C1</t>
+  </si>
+  <si>
+    <t>Threat Modeling Completeness</t>
+  </si>
+  <si>
+    <t>Try to find out what technology or protocol is used instead of specifying that it is unknown.</t>
+  </si>
+  <si>
+    <t>incomplete-model@C1&gt;c1-to-fw1@C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C2-to-R1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link C2-to-R1 at technical asset C2</t>
+  </si>
+  <si>
+    <t>incomplete-model@C2&gt;c2-to-r1@C2</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>ES1-to-R2</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link ES1-to-R2 at technical asset ES1</t>
+  </si>
+  <si>
+    <t>incomplete-model@ES1&gt;es1-to-r2@ES1</t>
+  </si>
+  <si>
     <t>FW1</t>
   </si>
   <si>
-    <t>C1-to-FW1</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link C1-to-FW1 from C1 to FW1</t>
-  </si>
-  <si>
-    <t>Authentication of Incoming Requests</t>
-  </si>
-  <si>
-    <t>Apply an authentication method to the technical asset. To protect highly sensitive data consider the use of two-factor authentication for human users.</t>
-  </si>
-  <si>
-    <t>missing-authentication@C1&gt;c1-to-fw1@C1@FW1</t>
-  </si>
-  <si>
-    <t>FW3</t>
+    <t>FW1-to-S0</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW1-to-S0 at technical asset FW1</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW1&gt;fw1-to-s0@FW1</t>
   </si>
   <si>
     <t>FW2-to-FW3</t>
   </si>
   <si>
-    <t>Missing Authentication covering communication link FW2-to-FW3 from FW2 to FW3</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW2&gt;fw2-to-fw3@FW2@FW3</t>
+    <t>Unknown Protocol specified for communication link FW2-to-FW3 at technical asset FW2</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW2&gt;fw2-to-fw3@FW2</t>
   </si>
   <si>
     <t>FW3-to-WC1</t>
   </si>
   <si>
-    <t>Missing Authentication covering communication link FW3-to-WC1 from FW3 to WC1</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW3&gt;fw3-to-wc1@FW3@WC1</t>
+    <t>Unknown Protocol specified for communication link FW3-to-WC1 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc1@FW3</t>
   </si>
   <si>
     <t>FW3-to-WC2</t>
   </si>
   <si>
-    <t>Missing Authentication covering communication link FW3-to-WC2 from FW3 to WC2</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW3&gt;fw3-to-wc2@FW3@WC2</t>
+    <t>Unknown Protocol specified for communication link FW3-to-WC2 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc2@FW3</t>
   </si>
   <si>
     <t>FW3-to-WC3</t>
   </si>
   <si>
-    <t>Missing Authentication covering communication link FW3-to-WC3 from FW3 to WC3</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW3&gt;fw3-to-wc3@FW3@WC3</t>
+    <t>Unknown Protocol specified for communication link FW3-to-WC3 at technical asset FW3</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW3&gt;fw3-to-wc3@FW3</t>
   </si>
   <si>
     <t>FW4-to-FW3</t>
   </si>
   <si>
-    <t>Missing Authentication covering communication link FW4-to-FW3 from FW4 to FW3</t>
-  </si>
-  <si>
-    <t>missing-authentication@FW4&gt;fw4-to-fw3@FW4@FW3</t>
-  </si>
-  <si>
-    <t>FW4</t>
+    <t>Unknown Protocol specified for communication link FW4-to-FW3 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW4&gt;fw4-to-fw3@FW4</t>
+  </si>
+  <si>
+    <t>FW4-to-R2</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW4-to-R2 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW4&gt;fw4-to-r2@FW4</t>
+  </si>
+  <si>
+    <t>FW4-to-S4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link FW4-to-S4 at technical asset FW4</t>
+  </si>
+  <si>
+    <t>incomplete-model@FW4&gt;fw4-to-s4@FW4</t>
+  </si>
+  <si>
+    <t>R1</t>
   </si>
   <si>
     <t>R1-to-FW4</t>
   </si>
   <si>
-    <t>Missing Authentication covering communication link R1-to-FW4 from R1 to FW4</t>
-  </si>
-  <si>
-    <t>missing-authentication@R1&gt;r1-to-fw4@R1@FW4</t>
-  </si>
-  <si>
-    <t>TI1</t>
-  </si>
-  <si>
-    <t>R4-to-TI1</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link R4-to-TI1 from R4 to TI1</t>
-  </si>
-  <si>
-    <t>missing-authentication@R4&gt;r4-to-ti1@R4@TI1</t>
-  </si>
-  <si>
-    <t>TI2</t>
-  </si>
-  <si>
-    <t>R4-to-TI2</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link R4-to-TI2 from R4 to TI2</t>
-  </si>
-  <si>
-    <t>missing-authentication@R4&gt;r4-to-ti2@R4@TI2</t>
-  </si>
-  <si>
-    <t>FW2</t>
-  </si>
-  <si>
-    <t>S0-to-FW2</t>
-  </si>
-  <si>
-    <t>Missing Authentication covering communication link S0-to-FW2 from S0 to FW2</t>
-  </si>
-  <si>
-    <t>missing-authentication@S0&gt;s0-to-fw2@S0@FW2</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>CWE-16</t>
-  </si>
-  <si>
-    <t>Missing Hardening</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>Missing Hardening risk at S6</t>
-  </si>
-  <si>
-    <t>System Hardening</t>
-  </si>
-  <si>
-    <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
-  </si>
-  <si>
-    <t>missing-hardening@S6</t>
-  </si>
-  <si>
-    <t>Unlikely</t>
-  </si>
-  <si>
-    <t>CWE-1008</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect TI1 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Apply a network segmentation trust-boundary around the highly sensitive assets and/or datastores.</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@TI1</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect TI2 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@TI2</t>
-  </si>
-  <si>
-    <t>Missing Network Segmentation to further encapsulate and protect S6 against unrelated lower protected assets in the same network segment, which might be easier to compromise by attackers</t>
-  </si>
-  <si>
-    <t>missing-network-segmentation@S6</t>
-  </si>
-  <si>
-    <t>Information Disclosure</t>
-  </si>
-  <si>
-    <t>CWE-522</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Missing Vault (Secret Storage) in the threat model (referencing asset TI1 as an example)</t>
-  </si>
-  <si>
-    <t>Vault (Secret Storage)</t>
-  </si>
-  <si>
-    <t>Consider using a Vault (Secret Storage) to securely store and access config secrets (like credentials, private keys, client certificates, etc.).</t>
-  </si>
-  <si>
-    <t>Is a Vault (Secret Storage) in place?</t>
-  </si>
-  <si>
-    <t>missing-vault@TI1</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>CWE-311</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Assets</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named TI1</t>
-  </si>
-  <si>
-    <t>Encryption of Technical Asset</t>
-  </si>
-  <si>
-    <t>Apply encryption to the technical asset.</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@TI1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named TI2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@TI2</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named DC1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@DC1</t>
-  </si>
-  <si>
-    <t>DC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named DC2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@DC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named FW4</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@FW4</t>
-  </si>
-  <si>
-    <t>OS1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named OS1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@OS1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC1</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC1</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC2</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC2</t>
-  </si>
-  <si>
-    <t>Unencrypted Technical Asset named WC3</t>
-  </si>
-  <si>
-    <t>unencrypted-asset@WC3</t>
-  </si>
-  <si>
-    <t>Very Likely</t>
-  </si>
-  <si>
-    <t>CWE-501</t>
-  </si>
-  <si>
-    <t>Unguarded Access From Internet</t>
-  </si>
-  <si>
-    <t>S4-to-FW4</t>
-  </si>
-  <si>
-    <t>Unguarded Access from Internet of FW4 by S4 via S4-to-FW4</t>
-  </si>
-  <si>
-    <t>Encapsulation of Technical Asset</t>
-  </si>
-  <si>
-    <t>Encapsulate the asset behind a guarding service, application, or reverse-proxy. For admin maintenance a bastion-host should be used as a jump-server. For file transfer a store-and-forward-host should be used as an indirect file exchange platform.</t>
-  </si>
-  <si>
-    <t>unguarded-access-from-internet@FW4@S4@S4&gt;s4-to-fw4</t>
-  </si>
-  <si>
-    <t>CWE-200</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>Accidental Secret Leak risk at S5</t>
-  </si>
-  <si>
-    <t>Build Pipeline Hardening</t>
-  </si>
-  <si>
-    <t>Establish measures preventing accidental check-in or package-in of secrets into sourcecode repositories and artifact registries. This starts by using good .gitignore and .dockerignore files, but does not stop there. See for example tools like &lt;i&gt;"git-secrets" or "Talisman"&lt;/i&gt; to have check-in preventive measures for secrets. Consider also to regularly scan your repositories for secrets accidentally checked-in using scanning tools like &lt;i&gt;"gitleaks" or "gitrob"&lt;/i&gt;.</t>
-  </si>
-  <si>
-    <t>accidental-secret-leak@S5</t>
-  </si>
-  <si>
-    <t>Denial of Service</t>
-  </si>
-  <si>
-    <t>CWE-400</t>
-  </si>
-  <si>
-    <t>DoS-risky Access Across Trust-Boundary</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW2 by S0 via S0-to-FW2</t>
-  </si>
-  <si>
-    <t>Anti-DoS Measures</t>
-  </si>
-  <si>
-    <t>Apply anti-DoS techniques like throttling and/or per-client load blocking with quotas. Also for maintenance access routes consider applying a VPN instead of public reachable interfaces. Generally applying redundancy on the targeted technical asset reduces the risk of DoS.</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW2@S0@S0&gt;s0-to-fw2</t>
-  </si>
-  <si>
-    <t>WC1-to-FW3</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW3 by WC1 via WC1-to-FW3</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW3@WC1@WC1&gt;wc1-to-fw3</t>
-  </si>
-  <si>
-    <t>WC2-to-FW3</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW3 by WC2 via WC2-to-FW3</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW3@WC2@WC2&gt;wc2-to-fw3</t>
-  </si>
-  <si>
-    <t>WC3-to-FW3</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW3 by WC3 via WC3-to-FW3</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW3@WC3@WC3&gt;wc3-to-fw3</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of FW4 by S4 via S4-to-FW4</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@FW4@S4@S4&gt;s4-to-fw4</t>
-  </si>
-  <si>
-    <t>Incomplete Model</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link C1-to-FW1 at technical asset C1</t>
-  </si>
-  <si>
-    <t>Threat Modeling Completeness</t>
-  </si>
-  <si>
-    <t>Try to find out what technology or protocol is used instead of specifying that it is unknown.</t>
-  </si>
-  <si>
-    <t>incomplete-model@C1&gt;c1-to-fw1@C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C2-to-R1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link C2-to-R1 at technical asset C2</t>
-  </si>
-  <si>
-    <t>incomplete-model@C2&gt;c2-to-r1@C2</t>
-  </si>
-  <si>
-    <t>ES1</t>
-  </si>
-  <si>
-    <t>ES1-to-R2</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link ES1-to-R2 at technical asset ES1</t>
-  </si>
-  <si>
-    <t>incomplete-model@ES1&gt;es1-to-r2@ES1</t>
-  </si>
-  <si>
-    <t>FW1-to-S0</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW1-to-S0 at technical asset FW1</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW1&gt;fw1-to-s0@FW1</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW2-to-FW3 at technical asset FW2</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW2&gt;fw2-to-fw3@FW2</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW3-to-WC1 at technical asset FW3</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW3&gt;fw3-to-wc1@FW3</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW3-to-WC2 at technical asset FW3</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW3&gt;fw3-to-wc2@FW3</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW3-to-WC3 at technical asset FW3</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW3&gt;fw3-to-wc3@FW3</t>
-  </si>
-  <si>
-    <t>Unknown Protocol specified for communication link FW4-to-FW3 at technical asset FW4</t>
-  </si>
-  <si>
-    <t>incomplete-model@FW4&gt;fw4-to-fw3@FW4</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>Unknown Protocol specified for communication link R1-to-FW4 at technical asset R1</t>
   </si>
   <si>
@@ -655,6 +697,15 @@
     <t>R2</t>
   </si>
   <si>
+    <t>R2-to-ES1</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link R2-to-ES1 at technical asset R2</t>
+  </si>
+  <si>
+    <t>incomplete-model@R2&gt;r2-to-es1@R2</t>
+  </si>
+  <si>
     <t>R2-to-S1</t>
   </si>
   <si>
@@ -706,6 +757,48 @@
     <t>incomplete-model@S1&gt;s1-to-r3@S1</t>
   </si>
   <si>
+    <t>Unknown Protocol specified for communication link S4-to-DC1 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-dc1@S4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-FW4 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-fw4@S4</t>
+  </si>
+  <si>
+    <t>S4-to-S2</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-S2 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-s2@S4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-S3 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-s3@S4</t>
+  </si>
+  <si>
+    <t>S4-to-S5</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-S5 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-s5@S4</t>
+  </si>
+  <si>
+    <t>Unknown Protocol specified for communication link S4-to-S6 at technical asset S4</t>
+  </si>
+  <si>
+    <t>incomplete-model@S4&gt;s4-to-s6@S4</t>
+  </si>
+  <si>
     <t>CWE-284</t>
   </si>
   <si>
@@ -727,6 +820,12 @@
     <t>missing-identity-propagation@FW4&gt;fw4-to-s3@FW4@S3</t>
   </si>
   <si>
+    <t>Missing Enduser Identity Propagation over communication link S4-to-S3 from S4 to S3</t>
+  </si>
+  <si>
+    <t>missing-identity-propagation@S4&gt;s4-to-s3@S4@S3</t>
+  </si>
+  <si>
     <t>CWE-1127</t>
   </si>
   <si>
@@ -814,9 +913,6 @@
     <t>unnecessary-communication-link@FW4&gt;fw4-to-fw3@FW4</t>
   </si>
   <si>
-    <t>FW4-to-R2</t>
-  </si>
-  <si>
     <t>Unnecessary Communication Link titled FW4-to-R2 at technical asset FW4</t>
   </si>
   <si>
@@ -829,9 +925,6 @@
     <t>unnecessary-communication-link@FW4&gt;fw4-to-s3@FW4</t>
   </si>
   <si>
-    <t>FW4-to-S4</t>
-  </si>
-  <si>
     <t>Unnecessary Communication Link titled FW4-to-S4 at technical asset FW4</t>
   </si>
   <si>
@@ -844,9 +937,6 @@
     <t>unnecessary-communication-link@R1&gt;r1-to-fw4@R1</t>
   </si>
   <si>
-    <t>R2-to-ES1</t>
-  </si>
-  <si>
     <t>Unnecessary Communication Link titled R2-to-ES1 at technical asset R2</t>
   </si>
   <si>
@@ -889,12 +979,42 @@
     <t>unnecessary-communication-link@S1&gt;s1-to-r3@S1</t>
   </si>
   <si>
+    <t>Unnecessary Communication Link titled S4-to-DC1 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-dc1@S4</t>
+  </si>
+  <si>
     <t>Unnecessary Communication Link titled S4-to-FW4 at technical asset S4</t>
   </si>
   <si>
     <t>unnecessary-communication-link@S4&gt;s4-to-fw4@S4</t>
   </si>
   <si>
+    <t>Unnecessary Communication Link titled S4-to-S2 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-s2@S4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled S4-to-S3 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-s3@S4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled S4-to-S5 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-s5@S4</t>
+  </si>
+  <si>
+    <t>Unnecessary Communication Link titled S4-to-S6 at technical asset S4</t>
+  </si>
+  <si>
+    <t>unnecessary-communication-link@S4&gt;s4-to-s6@S4</t>
+  </si>
+  <si>
     <t>Unnecessary Communication Link titled WC1-to-FW3 at technical asset WC1</t>
   </si>
   <si>
@@ -931,12 +1051,6 @@
     <t>unnecessary-technical-asset@C2</t>
   </si>
   <si>
-    <t>Unnecessary Technical Asset named DC1</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@DC1</t>
-  </si>
-  <si>
     <t>Unnecessary Technical Asset named DC2</t>
   </si>
   <si>
@@ -1036,12 +1150,6 @@
     <t>unnecessary-technical-asset@S5</t>
   </si>
   <si>
-    <t>Unnecessary Technical Asset named S6</t>
-  </si>
-  <si>
-    <t>unnecessary-technical-asset@S6</t>
-  </si>
-  <si>
     <t>Wrong Communication Link Content</t>
   </si>
   <si>
@@ -1177,10 +1285,40 @@
     <t>wrong-communication-link-content@S1@S1&gt;s1-to-r3</t>
   </si>
   <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-DC1</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-dc1</t>
+  </si>
+  <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-FW4</t>
   </si>
   <si>
     <t>wrong-communication-link-content@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S2</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s2</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S3</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s3</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S5</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s5</t>
+  </si>
+  <si>
+    <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at S4 regarding communication link S4-to-S6</t>
+  </si>
+  <si>
+    <t>wrong-communication-link-content@S4@S4&gt;s4-to-s6</t>
   </si>
   <si>
     <t>Wrong Communication Link Content (data assets sent/received not matching the communication link's readonly flag) at WC1 regarding communication link WC1-to-FW3</t>
@@ -2039,7 +2177,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>42</v>
@@ -2255,7 +2393,7 @@
         <v>58</v>
       </c>
       <c r="J9" s="18">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>59</v>
@@ -2309,7 +2447,7 @@
         <v>64</v>
       </c>
       <c r="J10" s="18">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>65</v>
@@ -2339,46 +2477,46 @@
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J11" s="18">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>34</v>
@@ -2393,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>22</v>
@@ -2405,34 +2543,34 @@
         <v>54</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J12" s="18">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>34</v>
@@ -2443,50 +2581,50 @@
       <c r="T12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>73</v>
+      <c r="E13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="J13" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="N13" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>34</v>
@@ -2497,50 +2635,50 @@
       <c r="T13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="E14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="J14" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>34</v>
@@ -2551,50 +2689,50 @@
       <c r="T14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>80</v>
+      <c r="E15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="J15" s="18">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="M15" s="22" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>34</v>
@@ -2605,50 +2743,50 @@
       <c r="T15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>84</v>
+      <c r="B16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J16" s="18">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>34</v>
@@ -2659,50 +2797,50 @@
       <c r="T16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>88</v>
+      <c r="C17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J17" s="18">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="P17" s="10" t="s">
         <v>34</v>
@@ -2713,50 +2851,50 @@
       <c r="T17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>92</v>
+      <c r="C18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J18" s="18">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P18" s="10" t="s">
         <v>34</v>
@@ -2771,46 +2909,46 @@
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="18">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>34</v>
@@ -2825,7 +2963,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>22</v>
@@ -2837,13 +2975,13 @@
         <v>96</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>28</v>
@@ -2852,19 +2990,19 @@
         <v>52</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>34</v>
@@ -2875,50 +3013,50 @@
       <c r="T20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="A21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="18">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P21" s="10" t="s">
         <v>34</v>
@@ -2930,13 +3068,13 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>53</v>
@@ -2945,13 +3083,13 @@
         <v>96</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>28</v>
@@ -2960,19 +3098,19 @@
         <v>100</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P22" s="10" t="s">
         <v>34</v>
@@ -2987,25 +3125,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>28</v>
@@ -3014,19 +3152,19 @@
         <v>52</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>34</v>
@@ -3041,25 +3179,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>28</v>
@@ -3068,19 +3206,19 @@
         <v>52</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>34</v>
@@ -3095,25 +3233,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>28</v>
@@ -3122,19 +3260,19 @@
         <v>52</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>34</v>
@@ -3149,25 +3287,25 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>28</v>
@@ -3176,19 +3314,19 @@
         <v>34</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>34</v>
@@ -3203,25 +3341,25 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>28</v>
@@ -3230,19 +3368,19 @@
         <v>40</v>
       </c>
       <c r="K27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="M27" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>34</v>
@@ -3257,25 +3395,25 @@
         <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>28</v>
@@ -3284,19 +3422,19 @@
         <v>10</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>34</v>
@@ -3311,46 +3449,46 @@
         <v>22</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="18">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>34</v>
@@ -3365,22 +3503,22 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>44</v>
@@ -3392,19 +3530,19 @@
         <v>27</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>34</v>
@@ -3419,22 +3557,22 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>47</v>
@@ -3446,19 +3584,19 @@
         <v>33</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>34</v>
@@ -3473,22 +3611,22 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>50</v>
@@ -3500,19 +3638,19 @@
         <v>33</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>34</v>
@@ -3523,50 +3661,50 @@
       <c r="T32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>152</v>
+      <c r="A33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J33" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>34</v>
@@ -3578,49 +3716,49 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="J34" s="18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>34</v>
@@ -3632,49 +3770,49 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="J35" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K35" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L35" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="M35" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M35" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="N35" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>34</v>
@@ -3686,49 +3824,49 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J36" s="18">
         <v>6</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L36" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M36" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M36" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="N36" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>34</v>
@@ -3740,49 +3878,49 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J37" s="18">
         <v>6</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L37" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M37" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M37" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="N37" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P37" s="10" t="s">
         <v>34</v>
@@ -3794,49 +3932,49 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="J38" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L38" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M38" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="N38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>34</v>
@@ -3848,49 +3986,49 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="J39" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P39" s="10" t="s">
         <v>34</v>
@@ -3902,49 +4040,49 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="J40" s="18">
         <v>0</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P40" s="10" t="s">
         <v>34</v>
@@ -3956,49 +4094,49 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J41" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>34</v>
@@ -4010,49 +4148,49 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J42" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>34</v>
@@ -4064,49 +4202,49 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J43" s="18">
         <v>4</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>34</v>
@@ -4118,49 +4256,49 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="J44" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>34</v>
@@ -4172,49 +4310,49 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="J45" s="18">
         <v>6</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N45" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>34</v>
@@ -4226,49 +4364,49 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="J46" s="18">
         <v>6</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N46" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>34</v>
@@ -4280,49 +4418,49 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="J47" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="P47" s="10" t="s">
         <v>34</v>
@@ -4334,49 +4472,49 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="J48" s="18">
         <v>10</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N48" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>34</v>
@@ -4388,49 +4526,49 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="J49" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P49" s="10" t="s">
         <v>34</v>
@@ -4442,49 +4580,49 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="J50" s="18">
         <v>2</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N50" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="P50" s="10" t="s">
         <v>34</v>
@@ -4496,49 +4634,49 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="J51" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N51" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P51" s="10" t="s">
         <v>34</v>
@@ -4550,49 +4688,49 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="J52" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N52" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P52" s="10" t="s">
         <v>34</v>
@@ -4604,49 +4742,49 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="J53" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="P53" s="10" t="s">
         <v>34</v>
@@ -4658,49 +4796,49 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="J54" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -4712,49 +4850,49 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>182</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="J55" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N55" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -4766,49 +4904,49 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="J56" s="18">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="N56" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -4820,49 +4958,49 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="J57" s="18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="N57" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>34</v>
@@ -4874,49 +5012,49 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J58" s="18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>34</v>
@@ -4928,49 +5066,49 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="J59" s="18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P59" s="10" t="s">
         <v>34</v>
@@ -4982,49 +5120,49 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="J60" s="18">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="N60" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>34</v>
@@ -5036,49 +5174,49 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="J61" s="18">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="N61" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>34</v>
@@ -5090,49 +5228,49 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="J62" s="18">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>34</v>
@@ -5144,49 +5282,49 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="J63" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="N63" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>34</v>
@@ -5198,13 +5336,13 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>53</v>
@@ -5213,34 +5351,34 @@
         <v>54</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="J64" s="18">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="N64" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>34</v>
@@ -5252,13 +5390,13 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>53</v>
@@ -5267,34 +5405,34 @@
         <v>54</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J65" s="18">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="N65" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P65" s="10" t="s">
         <v>34</v>
@@ -5306,49 +5444,49 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="J66" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P66" s="10" t="s">
         <v>34</v>
@@ -5360,13 +5498,13 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>53</v>
@@ -5375,34 +5513,34 @@
         <v>54</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="J67" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="P67" s="10" t="s">
         <v>34</v>
@@ -5414,13 +5552,13 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>53</v>
@@ -5429,34 +5567,34 @@
         <v>54</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="J68" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="P68" s="10" t="s">
         <v>34</v>
@@ -5468,13 +5606,13 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>53</v>
@@ -5483,34 +5621,34 @@
         <v>54</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="J69" s="18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P69" s="10" t="s">
         <v>34</v>
@@ -5522,13 +5660,13 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>53</v>
@@ -5537,34 +5675,34 @@
         <v>54</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="J70" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N70" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>34</v>
@@ -5576,13 +5714,13 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>53</v>
@@ -5591,34 +5729,34 @@
         <v>54</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="J71" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N71" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>34</v>
@@ -5630,13 +5768,13 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>53</v>
@@ -5645,34 +5783,34 @@
         <v>54</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="J72" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K72" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L72" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="L72" s="22" t="s">
-        <v>244</v>
-      </c>
       <c r="M72" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>34</v>
@@ -5684,13 +5822,13 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>53</v>
@@ -5699,34 +5837,34 @@
         <v>54</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J73" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>34</v>
@@ -5738,13 +5876,13 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>53</v>
@@ -5753,34 +5891,34 @@
         <v>54</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="J74" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>34</v>
@@ -5792,13 +5930,13 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>53</v>
@@ -5807,34 +5945,34 @@
         <v>54</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="J75" s="18">
         <v>6</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>34</v>
@@ -5846,13 +5984,13 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>53</v>
@@ -5861,34 +5999,34 @@
         <v>54</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="J76" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>34</v>
@@ -5900,13 +6038,13 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>53</v>
@@ -5915,34 +6053,34 @@
         <v>54</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="J77" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>34</v>
@@ -5954,13 +6092,13 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>53</v>
@@ -5969,34 +6107,34 @@
         <v>54</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="J78" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N78" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P78" s="10" t="s">
         <v>34</v>
@@ -6008,13 +6146,13 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>53</v>
@@ -6023,34 +6161,34 @@
         <v>54</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="J79" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N79" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="P79" s="10" t="s">
         <v>34</v>
@@ -6062,13 +6200,13 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>53</v>
@@ -6077,34 +6215,34 @@
         <v>54</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="J80" s="18">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N80" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="P80" s="10" t="s">
         <v>34</v>
@@ -6116,13 +6254,13 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>53</v>
@@ -6131,34 +6269,34 @@
         <v>54</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="J81" s="18">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N81" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="P81" s="10" t="s">
         <v>34</v>
@@ -6170,13 +6308,13 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>53</v>
@@ -6185,34 +6323,34 @@
         <v>54</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="J82" s="18">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="P82" s="10" t="s">
         <v>34</v>
@@ -6224,13 +6362,13 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>53</v>
@@ -6239,34 +6377,34 @@
         <v>54</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="J83" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N83" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="P83" s="10" t="s">
         <v>34</v>
@@ -6278,13 +6416,13 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>53</v>
@@ -6293,34 +6431,34 @@
         <v>54</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J84" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N84" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="P84" s="10" t="s">
         <v>34</v>
@@ -6332,13 +6470,13 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>53</v>
@@ -6347,34 +6485,34 @@
         <v>54</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J85" s="18">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N85" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="P85" s="10" t="s">
         <v>34</v>
@@ -6386,13 +6524,13 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>53</v>
@@ -6401,34 +6539,34 @@
         <v>54</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="J86" s="18">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="P86" s="10" t="s">
         <v>34</v>
@@ -6440,13 +6578,13 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>53</v>
@@ -6455,34 +6593,34 @@
         <v>54</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="J87" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="P87" s="10" t="s">
         <v>34</v>
@@ -6494,13 +6632,13 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>53</v>
@@ -6509,34 +6647,34 @@
         <v>54</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="J88" s="18">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="P88" s="10" t="s">
         <v>34</v>
@@ -6548,13 +6686,13 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>53</v>
@@ -6563,34 +6701,34 @@
         <v>54</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J89" s="18">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="P89" s="10" t="s">
         <v>34</v>
@@ -6602,13 +6740,13 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>53</v>
@@ -6617,34 +6755,34 @@
         <v>54</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="J90" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M90" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>34</v>
@@ -6656,13 +6794,13 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>53</v>
@@ -6671,34 +6809,34 @@
         <v>54</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="J91" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M91" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>34</v>
@@ -6710,13 +6848,13 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>53</v>
@@ -6725,34 +6863,34 @@
         <v>54</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="J92" s="18">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N92" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>34</v>
@@ -6764,13 +6902,13 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>53</v>
@@ -6779,34 +6917,34 @@
         <v>54</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="J93" s="18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>34</v>
@@ -6818,13 +6956,13 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>53</v>
@@ -6833,34 +6971,34 @@
         <v>54</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="J94" s="18">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N94" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>34</v>
@@ -6872,13 +7010,13 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>53</v>
@@ -6887,34 +7025,34 @@
         <v>54</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="J95" s="18">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N95" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>34</v>
@@ -6926,13 +7064,13 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>53</v>
@@ -6941,34 +7079,34 @@
         <v>54</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="J96" s="18">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N96" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="P96" s="10" t="s">
         <v>34</v>
@@ -6980,13 +7118,13 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>53</v>
@@ -6995,34 +7133,34 @@
         <v>54</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J97" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="N97" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="P97" s="10" t="s">
         <v>34</v>
@@ -7034,13 +7172,13 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>53</v>
@@ -7049,34 +7187,34 @@
         <v>54</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J98" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="N98" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="P98" s="10" t="s">
         <v>34</v>
@@ -7088,13 +7226,13 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>53</v>
@@ -7103,34 +7241,34 @@
         <v>54</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>333</v>
+        <v>143</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J99" s="18">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="P99" s="10" t="s">
         <v>34</v>
@@ -7142,13 +7280,13 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>53</v>
@@ -7157,34 +7295,34 @@
         <v>54</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J100" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="P100" s="10" t="s">
         <v>34</v>
@@ -7196,13 +7334,13 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>53</v>
@@ -7211,34 +7349,34 @@
         <v>54</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J101" s="18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>34</v>
@@ -7250,13 +7388,13 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>53</v>
@@ -7265,34 +7403,34 @@
         <v>54</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J102" s="18">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>34</v>
@@ -7304,49 +7442,49 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J103" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>34</v>
@@ -7358,49 +7496,49 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="J104" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>34</v>
@@ -7412,49 +7550,49 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="J105" s="18">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O105" s="20" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P105" s="10" t="s">
         <v>34</v>
@@ -7466,49 +7604,49 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="J106" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L106" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>34</v>
@@ -7520,49 +7658,49 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J107" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N107" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>34</v>
@@ -7574,49 +7712,49 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="J108" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N108" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P108" s="10" t="s">
         <v>34</v>
@@ -7628,49 +7766,49 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J109" s="18">
         <v>6</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M109" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N109" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P109" s="10" t="s">
         <v>34</v>
@@ -7682,49 +7820,49 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="J110" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M110" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N110" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P110" s="10" t="s">
         <v>34</v>
@@ -7736,49 +7874,49 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="J111" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L111" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M111" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N111" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="P111" s="10" t="s">
         <v>34</v>
@@ -7790,49 +7928,49 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="J112" s="18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="L112" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N112" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="P112" s="10" t="s">
         <v>34</v>
@@ -7844,49 +7982,49 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="J113" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N113" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="P113" s="10" t="s">
         <v>34</v>
@@ -7898,49 +8036,49 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="J114" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M114" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N114" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="P114" s="10" t="s">
         <v>34</v>
@@ -7952,49 +8090,49 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="J115" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K115" s="19" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M115" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N115" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="P115" s="10" t="s">
         <v>34</v>
@@ -8006,49 +8144,49 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="J116" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N116" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="P116" s="10" t="s">
         <v>34</v>
@@ -8060,49 +8198,49 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="J117" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M117" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N117" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="P117" s="10" t="s">
         <v>34</v>
@@ -8114,49 +8252,49 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="J118" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="L118" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M118" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N118" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="P118" s="10" t="s">
         <v>34</v>
@@ -8168,49 +8306,49 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J119" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M119" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N119" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="P119" s="10" t="s">
         <v>34</v>
@@ -8222,49 +8360,49 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="J120" s="18">
         <v>6</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="P120" s="10" t="s">
         <v>34</v>
@@ -8276,49 +8414,49 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="J121" s="18">
         <v>6</v>
       </c>
       <c r="K121" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="L121" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M121" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="L121" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="M121" s="22" t="s">
-        <v>345</v>
-      </c>
       <c r="N121" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="P121" s="10" t="s">
         <v>34</v>
@@ -8330,49 +8468,49 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="J122" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K122" s="19" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M122" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N122" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O122" s="20" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P122" s="10" t="s">
         <v>34</v>
@@ -8384,49 +8522,49 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J123" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="L123" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M123" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N123" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O123" s="20" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="P123" s="10" t="s">
         <v>34</v>
@@ -8438,49 +8576,49 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="J124" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="L124" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N124" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O124" s="20" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="P124" s="10" t="s">
         <v>34</v>
@@ -8492,49 +8630,49 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="J125" s="18">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N125" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O125" s="20" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P125" s="10" t="s">
         <v>34</v>
@@ -8546,49 +8684,49 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="J126" s="18">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M126" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N126" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O126" s="20" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="P126" s="10" t="s">
         <v>34</v>
@@ -8600,49 +8738,49 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="J127" s="18">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M127" s="22" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N127" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O127" s="20" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="P127" s="10" t="s">
         <v>34</v>
@@ -8654,49 +8792,49 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="J128" s="18">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K128" s="19" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N128" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O128" s="20" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="P128" s="10" t="s">
         <v>34</v>
@@ -8708,49 +8846,49 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="J129" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K129" s="19" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M129" s="22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N129" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O129" s="20" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="P129" s="10" t="s">
         <v>34</v>
@@ -8762,49 +8900,49 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="J130" s="18">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M130" s="22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N130" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O130" s="20" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="P130" s="10" t="s">
         <v>34</v>
@@ -8816,49 +8954,49 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="J131" s="18">
         <v>1</v>
       </c>
       <c r="K131" s="19" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M131" s="22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N131" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O131" s="20" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="P131" s="10" t="s">
         <v>34</v>
@@ -8870,49 +9008,49 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J132" s="18">
         <v>6</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N132" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O132" s="20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P132" s="10" t="s">
         <v>34</v>
@@ -8924,49 +9062,49 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J133" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K133" s="19" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M133" s="22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N133" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O133" s="20" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P133" s="10" t="s">
         <v>34</v>
@@ -8978,49 +9116,49 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="J134" s="18">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="K134" s="19" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="L134" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N134" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O134" s="20" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="P134" s="10" t="s">
         <v>34</v>
@@ -9032,49 +9170,49 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="J135" s="18">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="K135" s="19" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M135" s="22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="N135" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O135" s="20" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P135" s="10" t="s">
         <v>34</v>
@@ -9083,6 +9221,924 @@
       <c r="R135" s="17"/>
       <c r="S135" s="17"/>
       <c r="T135" s="16"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J136" s="18">
+        <v>14</v>
+      </c>
+      <c r="K136" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="L136" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M136" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N136" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O136" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="P136" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="17"/>
+      <c r="S136" s="17"/>
+      <c r="T136" s="16"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J137" s="18">
+        <v>14</v>
+      </c>
+      <c r="K137" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="L137" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M137" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N137" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O137" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="P137" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="17"/>
+      <c r="S137" s="17"/>
+      <c r="T137" s="16"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J138" s="18">
+        <v>14</v>
+      </c>
+      <c r="K138" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="L138" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M138" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N138" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O138" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="P138" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="17"/>
+      <c r="S138" s="17"/>
+      <c r="T138" s="16"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J139" s="18">
+        <v>14</v>
+      </c>
+      <c r="K139" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="L139" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M139" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N139" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O139" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="P139" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="17"/>
+      <c r="S139" s="17"/>
+      <c r="T139" s="16"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J140" s="18">
+        <v>14</v>
+      </c>
+      <c r="K140" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="L140" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M140" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N140" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O140" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="P140" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="17"/>
+      <c r="S140" s="17"/>
+      <c r="T140" s="16"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J141" s="18">
+        <v>14</v>
+      </c>
+      <c r="K141" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="L141" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M141" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N141" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O141" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="P141" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="17"/>
+      <c r="S141" s="17"/>
+      <c r="T141" s="16"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J142" s="18">
+        <v>27</v>
+      </c>
+      <c r="K142" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="L142" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M142" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N142" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O142" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="P142" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="17"/>
+      <c r="S142" s="17"/>
+      <c r="T142" s="16"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J143" s="18">
+        <v>33</v>
+      </c>
+      <c r="K143" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="L143" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M143" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N143" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O143" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="P143" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="17"/>
+      <c r="S143" s="17"/>
+      <c r="T143" s="16"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J144" s="18">
+        <v>33</v>
+      </c>
+      <c r="K144" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="L144" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M144" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N144" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O144" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="P144" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="17"/>
+      <c r="S144" s="17"/>
+      <c r="T144" s="16"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J145" s="18">
+        <v>40</v>
+      </c>
+      <c r="K145" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="L145" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M145" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="N145" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O145" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="P145" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="16"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J146" s="18">
+        <v>3</v>
+      </c>
+      <c r="K146" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="L146" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M146" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="N146" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O146" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="P146" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="17"/>
+      <c r="S146" s="17"/>
+      <c r="T146" s="16"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J147" s="18">
+        <v>73</v>
+      </c>
+      <c r="K147" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="L147" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M147" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="N147" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O147" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="P147" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="17"/>
+      <c r="S147" s="17"/>
+      <c r="T147" s="16"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J148" s="18">
+        <v>1</v>
+      </c>
+      <c r="K148" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="L148" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M148" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="N148" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O148" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="P148" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="17"/>
+      <c r="S148" s="17"/>
+      <c r="T148" s="16"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J149" s="18">
+        <v>6</v>
+      </c>
+      <c r="K149" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="L149" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M149" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="N149" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O149" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="P149" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="17"/>
+      <c r="S149" s="17"/>
+      <c r="T149" s="16"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J150" s="18">
+        <v>1</v>
+      </c>
+      <c r="K150" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="L150" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M150" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="N150" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O150" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="P150" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="17"/>
+      <c r="S150" s="17"/>
+      <c r="T150" s="16"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J151" s="18">
+        <v>52</v>
+      </c>
+      <c r="K151" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="L151" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M151" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="N151" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O151" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="P151" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="17"/>
+      <c r="S151" s="17"/>
+      <c r="T151" s="16"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I152" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J152" s="18">
+        <v>52</v>
+      </c>
+      <c r="K152" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="L152" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M152" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="N152" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O152" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="P152" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="17"/>
+      <c r="S152" s="17"/>
+      <c r="T152" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_fullrun/risks.xlsx
+++ b/Threagile_fullrun/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
   <si>
     <t>Severity</t>
   </si>
@@ -676,12 +676,6 @@
     <t>dos-risky-access-across-trust-boundary@DC1@DC2@DC2&gt;dc2-to-dc1</t>
   </si>
   <si>
-    <t>Denial-of-Service risky access of DC2 by R2 via R2-to-DC2-NTP</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@DC2@R2@R2&gt;r2-to-dc2-ntp</t>
-  </si>
-  <si>
     <t>FW2</t>
   </si>
   <si>
@@ -742,18 +736,6 @@
     <t>dos-risky-access-across-trust-boundary@FW4@S4@S4&gt;s4-to-fw4</t>
   </si>
   <si>
-    <t>Denial-of-Service risky access of OS1 by R2 via R2-to-OS1-Admin</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@OS1@R2@R2&gt;r2-to-os1-admin</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of OS1 by R2 via R2-to-OS1</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@OS1@R2@R2&gt;r2-to-os1</t>
-  </si>
-  <si>
     <t>Incomplete Model</t>
   </si>
   <si>
@@ -1928,6 +1910,12 @@
   </si>
   <si>
     <t>wrong-trust-boundary-content@OS1</t>
+  </si>
+  <si>
+    <t>Wrong Trust Boundary Content (non-container asset inside container trust boundary) at R2</t>
+  </si>
+  <si>
+    <t>wrong-trust-boundary-content@R2</t>
   </si>
   <si>
     <t>Wrong Trust Boundary Content (non-container asset inside container trust boundary) at R3</t>
@@ -5384,16 +5372,16 @@
         <v>215</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="J54" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L54" s="22" t="s">
         <v>217</v>
@@ -5405,7 +5393,7 @@
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -5438,16 +5426,16 @@
         <v>215</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J55" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L55" s="22" t="s">
         <v>217</v>
@@ -5459,7 +5447,7 @@
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -5492,16 +5480,16 @@
         <v>215</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J56" s="18">
         <v>6</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L56" s="22" t="s">
         <v>217</v>
@@ -5513,7 +5501,7 @@
         <v>32</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -5546,16 +5534,16 @@
         <v>215</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J57" s="18">
         <v>6</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L57" s="22" t="s">
         <v>217</v>
@@ -5567,7 +5555,7 @@
         <v>32</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>34</v>
@@ -5600,13 +5588,13 @@
         <v>215</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="J58" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>234</v>
@@ -5657,7 +5645,7 @@
         <v>60</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="J59" s="18">
         <v>10</v>
@@ -5711,7 +5699,7 @@
         <v>60</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J60" s="18">
         <v>10</v>
@@ -5750,40 +5738,40 @@
         <v>139</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="J61" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="N61" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>34</v>
@@ -5804,40 +5792,40 @@
         <v>139</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="J62" s="18">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>34</v>
@@ -5858,40 +5846,40 @@
         <v>139</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J63" s="18">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K63" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L63" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="L63" s="22" t="s">
-        <v>217</v>
-      </c>
       <c r="M63" s="22" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="N63" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>34</v>
@@ -5921,31 +5909,31 @@
         <v>166</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J64" s="18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N64" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>34</v>
@@ -5975,31 +5963,31 @@
         <v>166</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="J65" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N65" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P65" s="10" t="s">
         <v>34</v>
@@ -6029,31 +6017,31 @@
         <v>166</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="J66" s="18">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P66" s="10" t="s">
         <v>34</v>
@@ -6083,31 +6071,31 @@
         <v>166</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J67" s="18">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P67" s="10" t="s">
         <v>34</v>
@@ -6137,31 +6125,31 @@
         <v>166</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="J68" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P68" s="10" t="s">
         <v>34</v>
@@ -6191,31 +6179,31 @@
         <v>166</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J69" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P69" s="10" t="s">
         <v>34</v>
@@ -6245,31 +6233,31 @@
         <v>166</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J70" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N70" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>34</v>
@@ -6299,31 +6287,31 @@
         <v>166</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J71" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N71" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>34</v>
@@ -6353,31 +6341,31 @@
         <v>166</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J72" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>34</v>
@@ -6407,31 +6395,31 @@
         <v>166</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J73" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>34</v>
@@ -6461,31 +6449,31 @@
         <v>166</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J74" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>34</v>
@@ -6515,31 +6503,31 @@
         <v>166</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J75" s="18">
         <v>10</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>34</v>
@@ -6569,31 +6557,31 @@
         <v>166</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J76" s="18">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>34</v>
@@ -6623,31 +6611,31 @@
         <v>166</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J77" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>34</v>
@@ -6677,31 +6665,31 @@
         <v>166</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="J78" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N78" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P78" s="10" t="s">
         <v>34</v>
@@ -6731,31 +6719,31 @@
         <v>166</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J79" s="18">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N79" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P79" s="10" t="s">
         <v>34</v>
@@ -6785,31 +6773,31 @@
         <v>166</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J80" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N80" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P80" s="10" t="s">
         <v>34</v>
@@ -6839,31 +6827,31 @@
         <v>166</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J81" s="18">
         <v>8</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N81" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P81" s="10" t="s">
         <v>34</v>
@@ -6893,31 +6881,31 @@
         <v>166</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="J82" s="18">
         <v>8</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P82" s="10" t="s">
         <v>34</v>
@@ -6947,31 +6935,31 @@
         <v>166</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J83" s="18">
         <v>8</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N83" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P83" s="10" t="s">
         <v>34</v>
@@ -7001,31 +6989,31 @@
         <v>166</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="J84" s="18">
         <v>8</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N84" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P84" s="10" t="s">
         <v>34</v>
@@ -7055,31 +7043,31 @@
         <v>166</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="J85" s="18">
         <v>8</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N85" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P85" s="10" t="s">
         <v>34</v>
@@ -7109,31 +7097,31 @@
         <v>166</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J86" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P86" s="10" t="s">
         <v>34</v>
@@ -7163,31 +7151,31 @@
         <v>166</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J87" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P87" s="10" t="s">
         <v>34</v>
@@ -7217,31 +7205,31 @@
         <v>166</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="J88" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P88" s="10" t="s">
         <v>34</v>
@@ -7271,31 +7259,31 @@
         <v>166</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="J89" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P89" s="10" t="s">
         <v>34</v>
@@ -7325,31 +7313,31 @@
         <v>166</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="J90" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M90" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>34</v>
@@ -7379,31 +7367,31 @@
         <v>166</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="J91" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M91" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>34</v>
@@ -7433,31 +7421,31 @@
         <v>166</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="J92" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N92" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>34</v>
@@ -7487,31 +7475,31 @@
         <v>166</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="J93" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>34</v>
@@ -7541,31 +7529,31 @@
         <v>166</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="J94" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N94" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>34</v>
@@ -7595,31 +7583,31 @@
         <v>166</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H95" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J95" s="18">
         <v>38</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J95" s="18">
-        <v>1</v>
-      </c>
       <c r="K95" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N95" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>34</v>
@@ -7649,25 +7637,25 @@
         <v>166</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H96" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96" s="18">
         <v>38</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J96" s="18">
-        <v>1</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>345</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N96" s="22" t="s">
         <v>32</v>
@@ -7703,25 +7691,25 @@
         <v>166</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J97" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>347</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N97" s="22" t="s">
         <v>32</v>
@@ -7757,25 +7745,25 @@
         <v>166</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="J98" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>349</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N98" s="22" t="s">
         <v>32</v>
@@ -7811,25 +7799,25 @@
         <v>166</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J99" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>351</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>32</v>
@@ -7865,31 +7853,31 @@
         <v>166</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="J100" s="18">
         <v>14</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P100" s="10" t="s">
         <v>34</v>
@@ -7919,31 +7907,31 @@
         <v>166</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="J101" s="18">
         <v>14</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>34</v>
@@ -7973,31 +7961,31 @@
         <v>166</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="J102" s="18">
         <v>14</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>34</v>
@@ -8027,31 +8015,31 @@
         <v>166</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="J103" s="18">
         <v>14</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>34</v>
@@ -8081,31 +8069,31 @@
         <v>166</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="J104" s="18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>34</v>
@@ -8135,25 +8123,25 @@
         <v>166</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="J105" s="18">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K105" s="19" t="s">
         <v>365</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>32</v>
@@ -8180,40 +8168,40 @@
         <v>139</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="J106" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L106" s="22" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>34</v>
@@ -8234,40 +8222,40 @@
         <v>139</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="J107" s="18">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="N107" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>34</v>
@@ -8288,40 +8276,40 @@
         <v>139</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="J108" s="18">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="N108" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P108" s="10" t="s">
         <v>34</v>
@@ -8348,34 +8336,34 @@
         <v>57</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>375</v>
+        <v>242</v>
       </c>
       <c r="J109" s="18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M109" s="22" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="N109" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P109" s="10" t="s">
         <v>34</v>
@@ -8402,34 +8390,34 @@
         <v>57</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="J110" s="18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M110" s="22" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="N110" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P110" s="10" t="s">
         <v>34</v>
@@ -8450,40 +8438,40 @@
         <v>139</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
       <c r="G111" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J111" s="18">
+        <v>34</v>
+      </c>
+      <c r="K111" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="L111" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="H111" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J111" s="18">
-        <v>16</v>
-      </c>
-      <c r="K111" s="19" t="s">
+      <c r="M111" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="L111" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="M111" s="22" t="s">
-        <v>385</v>
-      </c>
       <c r="N111" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P111" s="10" t="s">
         <v>34</v>
@@ -8513,25 +8501,25 @@
         <v>166</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J112" s="18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L112" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N112" s="22" t="s">
         <v>32</v>
@@ -8567,25 +8555,25 @@
         <v>166</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="J113" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>392</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N113" s="22" t="s">
         <v>32</v>
@@ -8621,25 +8609,25 @@
         <v>166</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="J114" s="18">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K114" s="19" t="s">
         <v>394</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M114" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N114" s="22" t="s">
         <v>32</v>
@@ -8675,25 +8663,25 @@
         <v>166</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J115" s="18">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K115" s="19" t="s">
         <v>396</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M115" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N115" s="22" t="s">
         <v>32</v>
@@ -8729,25 +8717,25 @@
         <v>166</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="J116" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K116" s="19" t="s">
         <v>398</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N116" s="22" t="s">
         <v>32</v>
@@ -8783,31 +8771,31 @@
         <v>166</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="J117" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M117" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N117" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P117" s="10" t="s">
         <v>34</v>
@@ -8837,31 +8825,31 @@
         <v>166</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>269</v>
       </c>
       <c r="J118" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L118" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M118" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N118" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P118" s="10" t="s">
         <v>34</v>
@@ -8891,31 +8879,31 @@
         <v>166</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>272</v>
       </c>
       <c r="J119" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M119" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N119" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P119" s="10" t="s">
         <v>34</v>
@@ -8945,13 +8933,13 @@
         <v>166</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="J120" s="18">
         <v>6</v>
@@ -8960,10 +8948,10 @@
         <v>407</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>32</v>
@@ -8999,25 +8987,25 @@
         <v>166</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J121" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K121" s="19" t="s">
         <v>409</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M121" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N121" s="22" t="s">
         <v>32</v>
@@ -9053,25 +9041,25 @@
         <v>166</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J122" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K122" s="19" t="s">
         <v>411</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M122" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N122" s="22" t="s">
         <v>32</v>
@@ -9107,25 +9095,25 @@
         <v>166</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J123" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>413</v>
       </c>
       <c r="L123" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M123" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N123" s="22" t="s">
         <v>32</v>
@@ -9161,13 +9149,13 @@
         <v>166</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="J124" s="18">
         <v>10</v>
@@ -9176,10 +9164,10 @@
         <v>415</v>
       </c>
       <c r="L124" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N124" s="22" t="s">
         <v>32</v>
@@ -9215,7 +9203,7 @@
         <v>166</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>60</v>
@@ -9230,10 +9218,10 @@
         <v>417</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N125" s="22" t="s">
         <v>32</v>
@@ -9269,25 +9257,25 @@
         <v>166</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I126" s="9" t="s">
         <v>290</v>
       </c>
       <c r="J126" s="18">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="K126" s="19" t="s">
         <v>419</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M126" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N126" s="22" t="s">
         <v>32</v>
@@ -9323,25 +9311,25 @@
         <v>166</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="J127" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>421</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M127" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N127" s="22" t="s">
         <v>32</v>
@@ -9377,25 +9365,25 @@
         <v>166</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="J128" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K128" s="19" t="s">
         <v>423</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N128" s="22" t="s">
         <v>32</v>
@@ -9431,25 +9419,25 @@
         <v>166</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J129" s="18">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K129" s="19" t="s">
         <v>425</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M129" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N129" s="22" t="s">
         <v>32</v>
@@ -9485,25 +9473,25 @@
         <v>166</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J130" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K130" s="19" t="s">
         <v>427</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M130" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N130" s="22" t="s">
         <v>32</v>
@@ -9539,13 +9527,13 @@
         <v>166</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J131" s="18">
         <v>8</v>
@@ -9554,10 +9542,10 @@
         <v>429</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M131" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N131" s="22" t="s">
         <v>32</v>
@@ -9593,13 +9581,13 @@
         <v>166</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="J132" s="18">
         <v>8</v>
@@ -9608,10 +9596,10 @@
         <v>431</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N132" s="22" t="s">
         <v>32</v>
@@ -9647,13 +9635,13 @@
         <v>166</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J133" s="18">
         <v>8</v>
@@ -9662,10 +9650,10 @@
         <v>433</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M133" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N133" s="22" t="s">
         <v>32</v>
@@ -9701,13 +9689,13 @@
         <v>166</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="J134" s="18">
         <v>8</v>
@@ -9716,10 +9704,10 @@
         <v>435</v>
       </c>
       <c r="L134" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N134" s="22" t="s">
         <v>32</v>
@@ -9755,13 +9743,13 @@
         <v>166</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="J135" s="18">
         <v>8</v>
@@ -9770,10 +9758,10 @@
         <v>437</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M135" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N135" s="22" t="s">
         <v>32</v>
@@ -9809,25 +9797,25 @@
         <v>166</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J136" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K136" s="19" t="s">
         <v>439</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M136" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N136" s="22" t="s">
         <v>32</v>
@@ -9863,25 +9851,25 @@
         <v>166</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J137" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K137" s="19" t="s">
         <v>441</v>
       </c>
       <c r="L137" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M137" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N137" s="22" t="s">
         <v>32</v>
@@ -9917,25 +9905,25 @@
         <v>166</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="J138" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>443</v>
       </c>
       <c r="L138" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M138" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N138" s="22" t="s">
         <v>32</v>
@@ -9971,25 +9959,25 @@
         <v>166</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="J139" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K139" s="19" t="s">
         <v>445</v>
       </c>
       <c r="L139" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M139" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N139" s="22" t="s">
         <v>32</v>
@@ -10025,25 +10013,25 @@
         <v>166</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="J140" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K140" s="19" t="s">
         <v>447</v>
       </c>
       <c r="L140" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M140" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N140" s="22" t="s">
         <v>32</v>
@@ -10079,25 +10067,25 @@
         <v>166</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="J141" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K141" s="19" t="s">
         <v>449</v>
       </c>
       <c r="L141" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M141" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N141" s="22" t="s">
         <v>32</v>
@@ -10133,25 +10121,25 @@
         <v>166</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="J142" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K142" s="19" t="s">
         <v>451</v>
       </c>
       <c r="L142" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M142" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N142" s="22" t="s">
         <v>32</v>
@@ -10187,25 +10175,25 @@
         <v>166</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="J143" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K143" s="19" t="s">
         <v>453</v>
       </c>
       <c r="L143" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M143" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N143" s="22" t="s">
         <v>32</v>
@@ -10241,25 +10229,25 @@
         <v>166</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="J144" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K144" s="19" t="s">
         <v>455</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N144" s="22" t="s">
         <v>32</v>
@@ -10295,25 +10283,25 @@
         <v>166</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H145" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J145" s="18">
         <v>38</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J145" s="18">
-        <v>1</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>457</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N145" s="22" t="s">
         <v>32</v>
@@ -10349,25 +10337,25 @@
         <v>166</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H146" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J146" s="18">
         <v>38</v>
-      </c>
-      <c r="I146" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J146" s="18">
-        <v>1</v>
       </c>
       <c r="K146" s="19" t="s">
         <v>459</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N146" s="22" t="s">
         <v>32</v>
@@ -10403,25 +10391,25 @@
         <v>166</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J147" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>461</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M147" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N147" s="22" t="s">
         <v>32</v>
@@ -10457,25 +10445,25 @@
         <v>166</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="J148" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K148" s="19" t="s">
         <v>463</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N148" s="22" t="s">
         <v>32</v>
@@ -10511,25 +10499,25 @@
         <v>166</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J149" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K149" s="19" t="s">
         <v>465</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M149" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N149" s="22" t="s">
         <v>32</v>
@@ -10565,13 +10553,13 @@
         <v>166</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="J150" s="18">
         <v>14</v>
@@ -10580,10 +10568,10 @@
         <v>467</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M150" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N150" s="22" t="s">
         <v>32</v>
@@ -10619,13 +10607,13 @@
         <v>166</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="J151" s="18">
         <v>14</v>
@@ -10634,10 +10622,10 @@
         <v>469</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M151" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N151" s="22" t="s">
         <v>32</v>
@@ -10673,13 +10661,13 @@
         <v>166</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="J152" s="18">
         <v>14</v>
@@ -10688,10 +10676,10 @@
         <v>471</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N152" s="22" t="s">
         <v>32</v>
@@ -10727,13 +10715,13 @@
         <v>166</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="J153" s="18">
         <v>14</v>
@@ -10742,10 +10730,10 @@
         <v>473</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M153" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N153" s="22" t="s">
         <v>32</v>
@@ -10781,25 +10769,25 @@
         <v>166</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="J154" s="18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K154" s="19" t="s">
         <v>475</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M154" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N154" s="22" t="s">
         <v>32</v>
@@ -10835,25 +10823,25 @@
         <v>166</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="J155" s="18">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K155" s="19" t="s">
         <v>477</v>
       </c>
       <c r="L155" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M155" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N155" s="22" t="s">
         <v>32</v>
@@ -10889,25 +10877,25 @@
         <v>166</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="J156" s="18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>479</v>
       </c>
       <c r="L156" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M156" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N156" s="22" t="s">
         <v>32</v>
@@ -10943,25 +10931,25 @@
         <v>166</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="J157" s="18">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K157" s="19" t="s">
         <v>481</v>
       </c>
       <c r="L157" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M157" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N157" s="22" t="s">
         <v>32</v>
@@ -10997,25 +10985,25 @@
         <v>166</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="J158" s="18">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K158" s="19" t="s">
         <v>483</v>
       </c>
       <c r="L158" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M158" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N158" s="22" t="s">
         <v>32</v>
@@ -11051,31 +11039,31 @@
         <v>166</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="J159" s="18">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K159" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L159" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M159" s="22" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="N159" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P159" s="10" t="s">
         <v>34</v>
@@ -11105,31 +11093,31 @@
         <v>166</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="J160" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K160" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="L160" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="M160" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="L160" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="M160" s="22" t="s">
-        <v>390</v>
-      </c>
       <c r="N160" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P160" s="10" t="s">
         <v>34</v>
@@ -11159,31 +11147,31 @@
         <v>166</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="J161" s="18">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K161" s="19" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M161" s="22" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="N161" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P161" s="10" t="s">
         <v>34</v>
@@ -11213,25 +11201,25 @@
         <v>166</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J162" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K162" s="19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M162" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N162" s="22" t="s">
         <v>32</v>
@@ -11267,25 +11255,25 @@
         <v>166</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J163" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K163" s="19" t="s">
         <v>495</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M163" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N163" s="22" t="s">
         <v>32</v>
@@ -11321,25 +11309,25 @@
         <v>166</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J164" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K164" s="19" t="s">
         <v>497</v>
       </c>
       <c r="L164" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M164" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N164" s="22" t="s">
         <v>32</v>
@@ -11375,25 +11363,25 @@
         <v>166</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="I165" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J165" s="18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K165" s="19" t="s">
         <v>499</v>
       </c>
       <c r="L165" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M165" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N165" s="22" t="s">
         <v>32</v>
@@ -11429,25 +11417,25 @@
         <v>166</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="I166" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J166" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K166" s="19" t="s">
         <v>501</v>
       </c>
       <c r="L166" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M166" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N166" s="22" t="s">
         <v>32</v>
@@ -11483,25 +11471,25 @@
         <v>166</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="I167" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J167" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K167" s="19" t="s">
         <v>503</v>
       </c>
       <c r="L167" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M167" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N167" s="22" t="s">
         <v>32</v>
@@ -11537,25 +11525,25 @@
         <v>166</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I168" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J168" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K168" s="19" t="s">
         <v>505</v>
       </c>
       <c r="L168" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M168" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N168" s="22" t="s">
         <v>32</v>
@@ -11591,25 +11579,25 @@
         <v>166</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J169" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K169" s="19" t="s">
         <v>507</v>
       </c>
       <c r="L169" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M169" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N169" s="22" t="s">
         <v>32</v>
@@ -11645,25 +11633,25 @@
         <v>166</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="I170" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J170" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K170" s="19" t="s">
         <v>509</v>
       </c>
       <c r="L170" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M170" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N170" s="22" t="s">
         <v>32</v>
@@ -11699,25 +11687,25 @@
         <v>166</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I171" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J171" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K171" s="19" t="s">
         <v>511</v>
       </c>
       <c r="L171" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M171" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N171" s="22" t="s">
         <v>32</v>
@@ -11753,10 +11741,10 @@
         <v>166</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="I172" s="9" t="s">
         <v>28</v>
@@ -11768,10 +11756,10 @@
         <v>513</v>
       </c>
       <c r="L172" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M172" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N172" s="22" t="s">
         <v>32</v>
@@ -11807,10 +11795,10 @@
         <v>166</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>331</v>
+        <v>115</v>
       </c>
       <c r="I173" s="9" t="s">
         <v>28</v>
@@ -11822,10 +11810,10 @@
         <v>515</v>
       </c>
       <c r="L173" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M173" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N173" s="22" t="s">
         <v>32</v>
@@ -11861,25 +11849,25 @@
         <v>166</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J174" s="18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K174" s="19" t="s">
         <v>517</v>
       </c>
       <c r="L174" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M174" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N174" s="22" t="s">
         <v>32</v>
@@ -11915,25 +11903,25 @@
         <v>166</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I175" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J175" s="18">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K175" s="19" t="s">
         <v>519</v>
       </c>
       <c r="L175" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M175" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N175" s="22" t="s">
         <v>32</v>
@@ -11960,7 +11948,7 @@
         <v>139</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>57</v>
@@ -11969,31 +11957,31 @@
         <v>166</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="J176" s="18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K176" s="19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L176" s="22" t="s">
-        <v>389</v>
+        <v>523</v>
       </c>
       <c r="M176" s="22" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="N176" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O176" s="20" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P176" s="10" t="s">
         <v>34</v>
@@ -12014,7 +12002,7 @@
         <v>139</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>57</v>
@@ -12023,31 +12011,31 @@
         <v>166</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="J177" s="18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K177" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="L177" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="L177" s="22" t="s">
-        <v>389</v>
-      </c>
       <c r="M177" s="22" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="N177" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O177" s="20" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P177" s="10" t="s">
         <v>34</v>
@@ -12068,7 +12056,7 @@
         <v>139</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>57</v>
@@ -12077,31 +12065,31 @@
         <v>166</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J178" s="18">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K178" s="19" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L178" s="22" t="s">
-        <v>389</v>
+        <v>523</v>
       </c>
       <c r="M178" s="22" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="N178" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O178" s="20" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P178" s="10" t="s">
         <v>34</v>
@@ -12131,25 +12119,25 @@
         <v>166</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J179" s="18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K179" s="19" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L179" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M179" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N179" s="22" t="s">
         <v>32</v>
@@ -12185,25 +12173,25 @@
         <v>166</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="J180" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K180" s="19" t="s">
         <v>532</v>
       </c>
       <c r="L180" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M180" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N180" s="22" t="s">
         <v>32</v>
@@ -12239,25 +12227,25 @@
         <v>166</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="J181" s="18">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K181" s="19" t="s">
         <v>534</v>
       </c>
       <c r="L181" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M181" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N181" s="22" t="s">
         <v>32</v>
@@ -12293,25 +12281,25 @@
         <v>166</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J182" s="18">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K182" s="19" t="s">
         <v>536</v>
       </c>
       <c r="L182" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M182" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N182" s="22" t="s">
         <v>32</v>
@@ -12347,25 +12335,25 @@
         <v>166</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="J183" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K183" s="19" t="s">
         <v>538</v>
       </c>
       <c r="L183" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M183" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N183" s="22" t="s">
         <v>32</v>
@@ -12401,25 +12389,25 @@
         <v>166</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="J184" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K184" s="19" t="s">
         <v>540</v>
       </c>
       <c r="L184" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M184" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N184" s="22" t="s">
         <v>32</v>
@@ -12455,25 +12443,25 @@
         <v>166</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>269</v>
       </c>
       <c r="J185" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K185" s="19" t="s">
         <v>542</v>
       </c>
       <c r="L185" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M185" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N185" s="22" t="s">
         <v>32</v>
@@ -12509,25 +12497,25 @@
         <v>166</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I186" s="9" t="s">
         <v>272</v>
       </c>
       <c r="J186" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K186" s="19" t="s">
         <v>544</v>
       </c>
       <c r="L186" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M186" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N186" s="22" t="s">
         <v>32</v>
@@ -12563,13 +12551,13 @@
         <v>166</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="J187" s="18">
         <v>6</v>
@@ -12578,10 +12566,10 @@
         <v>546</v>
       </c>
       <c r="L187" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M187" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N187" s="22" t="s">
         <v>32</v>
@@ -12617,25 +12605,25 @@
         <v>166</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J188" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K188" s="19" t="s">
         <v>548</v>
       </c>
       <c r="L188" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M188" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N188" s="22" t="s">
         <v>32</v>
@@ -12671,25 +12659,25 @@
         <v>166</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J189" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K189" s="19" t="s">
         <v>550</v>
       </c>
       <c r="L189" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M189" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N189" s="22" t="s">
         <v>32</v>
@@ -12725,25 +12713,25 @@
         <v>166</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J190" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K190" s="19" t="s">
         <v>552</v>
       </c>
       <c r="L190" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M190" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N190" s="22" t="s">
         <v>32</v>
@@ -12779,13 +12767,13 @@
         <v>166</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="J191" s="18">
         <v>10</v>
@@ -12794,10 +12782,10 @@
         <v>554</v>
       </c>
       <c r="L191" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M191" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N191" s="22" t="s">
         <v>32</v>
@@ -12833,7 +12821,7 @@
         <v>166</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>60</v>
@@ -12848,10 +12836,10 @@
         <v>556</v>
       </c>
       <c r="L192" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M192" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N192" s="22" t="s">
         <v>32</v>
@@ -12887,25 +12875,25 @@
         <v>166</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I193" s="9" t="s">
         <v>290</v>
       </c>
       <c r="J193" s="18">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="K193" s="19" t="s">
         <v>558</v>
       </c>
       <c r="L193" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M193" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N193" s="22" t="s">
         <v>32</v>
@@ -12941,25 +12929,25 @@
         <v>166</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="J194" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K194" s="19" t="s">
         <v>560</v>
       </c>
       <c r="L194" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M194" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N194" s="22" t="s">
         <v>32</v>
@@ -12995,25 +12983,25 @@
         <v>166</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="J195" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K195" s="19" t="s">
         <v>562</v>
       </c>
       <c r="L195" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M195" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N195" s="22" t="s">
         <v>32</v>
@@ -13049,25 +13037,25 @@
         <v>166</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J196" s="18">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K196" s="19" t="s">
         <v>564</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N196" s="22" t="s">
         <v>32</v>
@@ -13103,25 +13091,25 @@
         <v>166</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J197" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K197" s="19" t="s">
         <v>566</v>
       </c>
       <c r="L197" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M197" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N197" s="22" t="s">
         <v>32</v>
@@ -13157,13 +13145,13 @@
         <v>166</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H198" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J198" s="18">
         <v>8</v>
@@ -13172,10 +13160,10 @@
         <v>568</v>
       </c>
       <c r="L198" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M198" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N198" s="22" t="s">
         <v>32</v>
@@ -13211,13 +13199,13 @@
         <v>166</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H199" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="J199" s="18">
         <v>8</v>
@@ -13226,10 +13214,10 @@
         <v>570</v>
       </c>
       <c r="L199" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M199" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N199" s="22" t="s">
         <v>32</v>
@@ -13265,13 +13253,13 @@
         <v>166</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H200" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I200" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J200" s="18">
         <v>8</v>
@@ -13280,10 +13268,10 @@
         <v>572</v>
       </c>
       <c r="L200" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M200" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N200" s="22" t="s">
         <v>32</v>
@@ -13319,13 +13307,13 @@
         <v>166</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="J201" s="18">
         <v>8</v>
@@ -13334,10 +13322,10 @@
         <v>574</v>
       </c>
       <c r="L201" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M201" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N201" s="22" t="s">
         <v>32</v>
@@ -13373,13 +13361,13 @@
         <v>166</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H202" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="J202" s="18">
         <v>8</v>
@@ -13388,10 +13376,10 @@
         <v>576</v>
       </c>
       <c r="L202" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M202" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N202" s="22" t="s">
         <v>32</v>
@@ -13427,25 +13415,25 @@
         <v>166</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I203" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J203" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K203" s="19" t="s">
         <v>578</v>
       </c>
       <c r="L203" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M203" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N203" s="22" t="s">
         <v>32</v>
@@ -13481,25 +13469,25 @@
         <v>166</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I204" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J204" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K204" s="19" t="s">
         <v>580</v>
       </c>
       <c r="L204" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M204" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N204" s="22" t="s">
         <v>32</v>
@@ -13535,25 +13523,25 @@
         <v>166</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="I205" s="9" t="s">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="J205" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K205" s="19" t="s">
         <v>582</v>
       </c>
       <c r="L205" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M205" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N205" s="22" t="s">
         <v>32</v>
@@ -13589,25 +13577,25 @@
         <v>166</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="J206" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K206" s="19" t="s">
         <v>584</v>
       </c>
       <c r="L206" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M206" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N206" s="22" t="s">
         <v>32</v>
@@ -13643,25 +13631,25 @@
         <v>166</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="J207" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K207" s="19" t="s">
         <v>586</v>
       </c>
       <c r="L207" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M207" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N207" s="22" t="s">
         <v>32</v>
@@ -13697,25 +13685,25 @@
         <v>166</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="J208" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K208" s="19" t="s">
         <v>588</v>
       </c>
       <c r="L208" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M208" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N208" s="22" t="s">
         <v>32</v>
@@ -13751,25 +13739,25 @@
         <v>166</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I209" s="9" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="J209" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K209" s="19" t="s">
         <v>590</v>
       </c>
       <c r="L209" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M209" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N209" s="22" t="s">
         <v>32</v>
@@ -13805,25 +13793,25 @@
         <v>166</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="J210" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K210" s="19" t="s">
         <v>592</v>
       </c>
       <c r="L210" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M210" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N210" s="22" t="s">
         <v>32</v>
@@ -13859,25 +13847,25 @@
         <v>166</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H211" s="9" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="J211" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K211" s="19" t="s">
         <v>594</v>
       </c>
       <c r="L211" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M211" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N211" s="22" t="s">
         <v>32</v>
@@ -13913,25 +13901,25 @@
         <v>166</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H212" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I212" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J212" s="18">
         <v>38</v>
-      </c>
-      <c r="I212" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J212" s="18">
-        <v>1</v>
       </c>
       <c r="K212" s="19" t="s">
         <v>596</v>
       </c>
       <c r="L212" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M212" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N212" s="22" t="s">
         <v>32</v>
@@ -13967,25 +13955,25 @@
         <v>166</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H213" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J213" s="18">
         <v>38</v>
-      </c>
-      <c r="I213" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J213" s="18">
-        <v>1</v>
       </c>
       <c r="K213" s="19" t="s">
         <v>598</v>
       </c>
       <c r="L213" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M213" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N213" s="22" t="s">
         <v>32</v>
@@ -14021,25 +14009,25 @@
         <v>166</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="I214" s="9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J214" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K214" s="19" t="s">
         <v>600</v>
       </c>
       <c r="L214" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M214" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N214" s="22" t="s">
         <v>32</v>
@@ -14075,25 +14063,25 @@
         <v>166</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="J215" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K215" s="19" t="s">
         <v>602</v>
       </c>
       <c r="L215" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M215" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N215" s="22" t="s">
         <v>32</v>
@@ -14129,25 +14117,25 @@
         <v>166</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H216" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I216" s="9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J216" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K216" s="19" t="s">
         <v>604</v>
       </c>
       <c r="L216" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M216" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N216" s="22" t="s">
         <v>32</v>
@@ -14183,13 +14171,13 @@
         <v>166</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H217" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I217" s="9" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="J217" s="18">
         <v>14</v>
@@ -14198,10 +14186,10 @@
         <v>606</v>
       </c>
       <c r="L217" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M217" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N217" s="22" t="s">
         <v>32</v>
@@ -14237,13 +14225,13 @@
         <v>166</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H218" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I218" s="9" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="J218" s="18">
         <v>14</v>
@@ -14252,10 +14240,10 @@
         <v>608</v>
       </c>
       <c r="L218" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M218" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N218" s="22" t="s">
         <v>32</v>
@@ -14291,13 +14279,13 @@
         <v>166</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H219" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I219" s="9" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="J219" s="18">
         <v>14</v>
@@ -14306,10 +14294,10 @@
         <v>610</v>
       </c>
       <c r="L219" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M219" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N219" s="22" t="s">
         <v>32</v>
@@ -14345,13 +14333,13 @@
         <v>166</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H220" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="J220" s="18">
         <v>14</v>
@@ -14360,10 +14348,10 @@
         <v>612</v>
       </c>
       <c r="L220" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M220" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N220" s="22" t="s">
         <v>32</v>
@@ -14399,25 +14387,25 @@
         <v>166</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="J221" s="18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K221" s="19" t="s">
         <v>614</v>
       </c>
       <c r="L221" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M221" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N221" s="22" t="s">
         <v>32</v>
@@ -14453,25 +14441,25 @@
         <v>166</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="I222" s="9" t="s">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="J222" s="18">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K222" s="19" t="s">
         <v>616</v>
       </c>
       <c r="L222" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M222" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N222" s="22" t="s">
         <v>32</v>
@@ -14507,25 +14495,25 @@
         <v>166</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I223" s="9" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="J223" s="18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K223" s="19" t="s">
         <v>618</v>
       </c>
       <c r="L223" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M223" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N223" s="22" t="s">
         <v>32</v>
@@ -14561,25 +14549,25 @@
         <v>166</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="J224" s="18">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K224" s="19" t="s">
         <v>620</v>
       </c>
       <c r="L224" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M224" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N224" s="22" t="s">
         <v>32</v>
@@ -14615,25 +14603,25 @@
         <v>166</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H225" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="J225" s="18">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K225" s="19" t="s">
         <v>622</v>
       </c>
       <c r="L225" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M225" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N225" s="22" t="s">
         <v>32</v>
@@ -14660,7 +14648,7 @@
         <v>139</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E226" s="10" t="s">
         <v>57</v>
@@ -14669,31 +14657,31 @@
         <v>166</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="J226" s="18">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K226" s="19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L226" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M226" s="22" t="s">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="N226" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O226" s="20" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P226" s="10" t="s">
         <v>34</v>
@@ -14714,7 +14702,7 @@
         <v>139</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E227" s="10" t="s">
         <v>57</v>
@@ -14723,31 +14711,31 @@
         <v>166</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H227" s="9" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="I227" s="9" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="J227" s="18">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K227" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="L227" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="M227" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="L227" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="M227" s="22" t="s">
-        <v>530</v>
-      </c>
       <c r="N227" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O227" s="20" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="P227" s="10" t="s">
         <v>34</v>
@@ -14768,7 +14756,7 @@
         <v>139</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E228" s="10" t="s">
         <v>57</v>
@@ -14777,31 +14765,31 @@
         <v>166</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="J228" s="18">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K228" s="19" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L228" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M228" s="22" t="s">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="N228" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O228" s="20" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P228" s="10" t="s">
         <v>34</v>
@@ -14831,25 +14819,25 @@
         <v>166</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H229" s="9" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="I229" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J229" s="18">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="K229" s="19" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L229" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M229" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N229" s="22" t="s">
         <v>32</v>
@@ -14885,25 +14873,25 @@
         <v>166</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="I230" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J230" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K230" s="19" t="s">
         <v>634</v>
       </c>
       <c r="L230" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M230" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N230" s="22" t="s">
         <v>32</v>
@@ -14939,25 +14927,25 @@
         <v>166</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="I231" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J231" s="18">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="K231" s="19" t="s">
         <v>636</v>
       </c>
       <c r="L231" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M231" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N231" s="22" t="s">
         <v>32</v>
@@ -14993,10 +14981,10 @@
         <v>166</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="I232" s="9" t="s">
         <v>28</v>
@@ -15008,10 +14996,10 @@
         <v>638</v>
       </c>
       <c r="L232" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M232" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N232" s="22" t="s">
         <v>32</v>
@@ -15047,25 +15035,25 @@
         <v>166</v>
       </c>
       <c r="G233" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="I233" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J233" s="18">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="K233" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L233" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M233" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N233" s="22" t="s">
         <v>32</v>
@@ -15101,25 +15089,25 @@
         <v>166</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="I234" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J234" s="18">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="K234" s="19" t="s">
         <v>642</v>
       </c>
       <c r="L234" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M234" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N234" s="22" t="s">
         <v>32</v>
@@ -15134,114 +15122,6 @@
       <c r="R234" s="17"/>
       <c r="S234" s="17"/>
       <c r="T234" s="16"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B235" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E235" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F235" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G235" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="H235" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I235" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J235" s="18">
-        <v>52</v>
-      </c>
-      <c r="K235" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="L235" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="M235" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="N235" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O235" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="P235" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q235" s="19"/>
-      <c r="R235" s="17"/>
-      <c r="S235" s="17"/>
-      <c r="T235" s="16"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B236" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D236" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E236" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F236" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G236" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="H236" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J236" s="18">
-        <v>52</v>
-      </c>
-      <c r="K236" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="L236" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="M236" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="N236" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O236" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="P236" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q236" s="19"/>
-      <c r="R236" s="17"/>
-      <c r="S236" s="17"/>
-      <c r="T236" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
